--- a/output/Total_time_range_data/山东省/泰安市_学习考察.xlsx
+++ b/output/Total_time_range_data/山东省/泰安市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4030 +436,4410 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>137</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>市领导率考察团赴淄博学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2018-08-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/8/23/art_46736_4058385.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['8月22日，市委副书记张涛带队赴淄博市临淄区，学习考察在乡村振兴、脱贫攻坚等方面的先进经验做法。淄博市委常委、统战部长李明陪同考察。', '考察团一行先后到朱台镇西单村、敬仲镇白兔丘北村和皇城镇小铁佛村进行了实地考察，认真听取经验介绍，详细询问有关乡村振兴及脱贫攻坚工作情况，并就工作中的热点、难点问题进行了交流探讨。近年来，这三个村通过建机制、强组织，选优建强村级班子，着力发展蔬菜大棚、特色养殖、桂花种植、玫瑰种植等产业，积极推进村庄“五化”、旱厕改造、“气代煤”改造等基础设施建设，大力弘扬优秀文化，培育了良好的村风家风民风，村容村貌、精神文明、群众收入不断提升。', '随后，考察团来到皇城镇思远农业公司和玫瑰特色小镇，考察产业发展情况。思远农业开发有限公司是一家农业社会化服务机构，以自主研发的现代农业标准化生产模式为核心，依托“互联网+农业社会化服务”体系，为农户提供产前、产中、产后，全方位、保姆式，农业生产技术服务，实现年营业额5518万元。 玫瑰创新小镇占地1.2万平方米，内含多功能厅、玫瑰主题馆、植物护肤观光式工厂、项目体验展示中心、开放式办公中心、智能定制组装展示中心等功能区域，依托玫瑰小镇，皇城镇规划设计了创新创业孵化平台，形成了独特的发展机制和企业文化。', '通过学习，考察团成员对乡村振兴及脱贫攻坚工作有了更深的认识和感悟。纷纷表示，将认真贯彻落实上级安排部署，严格按照市委、市政府要求，结合实际，打造亮点，全力推进乡村振兴及脱贫攻坚各项工作。', '市人大常委会副主任、宁阳县委书记刘学保，泰山景区党工委书记姚霆，各县（市、区）、泰安高新区、泰山景区和市委农工办、市扶贫办等有关单位负责同志约150人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>137</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>广东省政协来泰学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2016-06-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/6/15/art_46736_4063057.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['6月13日，广东省政协副主席唐豪带领考察组来泰学习考察。市政协副主席谭业刚陪同活动。', '唐豪一行实地考察了泰安市博物馆、如意科技时尚产业园、泰山玻纤、大汶口国家考古遗址公园等现场，听取了相关情况汇报。唐豪对泰安市政协工作进行了充分肯定。他指出，泰安政协港澳台侨和外事委创新履职形式，充分发挥独特的资源优势，以泰山文化为引领，积极开展海内外联络联谊工作，扩大交流，促进合作，为增进共识、汇聚力量、推动经济社会发展发挥了积极作用。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>137</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>泰安党政考察团赴枣庄济宁考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/4/1/art_46736_5155551.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['全省新旧动能转换项目落地第二次现场观摩会结束后，3月29日至30日，泰安市党政考察团即赴枣庄、济宁考察学习两市在新旧动能转换项目落地上的新思想、新路径和新方法。市委副书记张涛带队，市委常委、常务副市长展宝卫，副市长成丽参加活动。', '29日，考察团一行在枣庄市先后察看了墨子科创园精密机床研发孵化制造基地、中材高性能锂电隔膜研发制造项目、互联网小镇-浙江大学山东工业技术研究院、智光光纤制造和鲁南大数据中心，听取了相关工作情况介绍，详细了解了枣庄市双招双引、重点项目建设、新旧动能转换等工作开展情况。考察团成员看到，枣庄市这些产业门类齐全的前沿产业不仅投资规模大、科技含量高，而且还具有很大的带动能力和市场潜力。', '30日，考察团一行在济宁市先后察看了华为大数据产业园、如意全产业链智能制造系统工程、尼山圣境一期项目，听取了项目情况汇报，仔细询问济宁大数据平台在项目管理调度、问题解决督导以及可视化分析研判等方面的具体举措；在如意集团科技艺术中心的高科技沙盘前，考察团成员详细听取了集团产业链布局、生产线分布、产业园项目规划等情况介绍，并参观了工程技术研究中心。在尼山圣境一期项目，考察团详细了解当地在传承弘扬、创新发展优秀传统文化方面所做的探索。', '考察过程中，考察团详细了解当地有关工作情况和经验做法，与当地相关领导、部门、企业就双招双引、培育新动能等进行了深入探讨交流。大家一路走、一路看，一路比、一路议，找差距、找问题、学经验、学做法，收获满满，深受触动。期间，张涛主持召开座谈会，相关区县和部门负责同志对考察之行的所思所想、所感所悟进行了深入交流，进一步解放了思想、明确了目标、找到了方法、坚定了信心。张涛指出，两个地市取得较好发展的经验、做法值得考察团认真学习借鉴。考察团成员们要看清楚差距、看清楚门道、看清楚规律，要突出重点、精准施策，围绕产学研用结合、打造发展平台、双招双引、产业集群等方面，拿出切实可行的解决方案、推进举措。要在抢抓机遇上敢为人先，解放思想，担当作为，乘势而上对标各部门的工作中的实际，找准下一步的目标和方向，制定追赶的措施，最后落实到“实干”上来，加快推动新旧动能转换。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>137</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>滨州市政协来泰学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2016-03-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/3/11/art_46736_4063403.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['近日，滨州市政协学习考察组在滨州市政协副主席史东、商玉昌带领下来泰学习考察。市政协副主席张甲军陪同活动。', '滨州市政协学习考察组先后到泰安规划展览馆、泰山国际会展中心、万达广场、泰安高铁新区等地进行实地考察。张甲军对滨州市政协一行的到来表示欢迎，他指出，近年来，泰安市政协在中共泰安市委的正确领导下，围绕中心，服务大局，扎实履行政治协商、民主监督、参政议政职能，各专委会坚持改革创新，不断加强自身建设，切实发挥专委会基础性作用，为全市改革发展稳定大局作出了积极贡献。他希望加强与滨州市政协的沟通交流，共同推动政协工作迈上新台阶。', '滨州市政协考察组认为，泰安市政协积极改进活动方式，拓展工作领域，创新履职形式，工作中形成了一批新经验、新亮点，希望双方进一步加强交流，学习更多先进经验，进一步提升政协工作科学化水平。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>137</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市纪委理论学习中心组学习研讨</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2017-08-17</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/8/17/art_46736_4060960.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['8月14日，市纪委理论学习中心组进行集体学习研讨，深入学习习近平总书记在省部级主要领导干部专题研讨班上的重要讲话精神。市委常委、市纪委书记郝红主持并讲话。', '市纪委常委结合思想和工作实际谈了学习体会，一致认为，习近平总书记重要讲话，深刻阐释了新的历史条件下坚持和发展中国特色社会主义的一系列重大理论和实践问题，为党的十九大胜利召开奠定了重要政治基础、思想基础、理论基础。会议强调，全市各级纪检机关和全体纪检干部，要旗帜鲜明讲政治，把学习贯彻重要讲话作为一项重大政治任务，认真学习研读，强化学思践悟，准确把握讲话深刻内涵和精神实质。', '会议要求，全体纪检干部要紧密联系纪检监察工作实际，以讲话精神为指导，要把维护党的政治纪律和政治规矩放在首位，强化党内监督，持之以恒纠正“四风”，保持惩治腐败高压态势，严肃查处侵害群众利益问题，推动全面从严治党向纵深发展、向基层延伸，为党的十九大胜利召开贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>137</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>西藏及四省藏区基层组织和政权建设学习考察团来泰</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2011-05-31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2011/5/31/art_46736_4078234.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['5月25日至26日，民政部援藏援疆工作领导小组组织和政权建设办公室主任、民政部基层政权和社区建设司副司长汤晋苏带领西藏及四省藏区基层组织和政权建设学习考察团，来我市考察社会管理服务工作。省民政厅巡视员李玉亮、副市长闫新建陪同活动。 考察团先后参观了泰山区慈善超市现场和市流浪儿童救助保护中心。我市爱心慈善超市成立以来，连锁营销网点已达10处，成为一个机制健全、管理规范，对困难群众实行二次、三次救助的有效载体。市流浪儿童救助保护中心创新的“159”救助模式，以其为服务对象提供最人性化的管理和亲情化的服务救助理念，被民政部命名为“泰安救助模式”。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>137</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>第二期领导干部培训班赴东平考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2013-05-31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2013/5/31/art_46736_4072399.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['考察团先后参观了东平博物馆、万里图书馆、东平文化馆、文秀大剧院、水浒影视城、东平工委纪念馆(万里故居)。学员们每到一处，认真学习，听取讲解，对东平近几年文化事业突飞猛进的发展、经济社会日新月异的变化而赞许和感叹。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>137</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>我市组织政务公开考察团赴潍坊烟台德州济宁四地考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/tY7PDQ1kmRwf4MW15xFejw</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['为对标先进、学习经验，全面推进全市政务公开工作水平大提升，6月28日至7月1日，市政府办公室政务公开办以及各县（市、区）政务公开科室负责同志和工作人员一行赴潍坊、烟台、德州、济宁等地考察学习，参观部分县（市、区）政务公开专区建设、政务服务中心等场所，详细了解先进地市在体制机制建设、公开平台运行维护、依申请公开、市县统筹、政策解读等方面的先进经验和主要做法。', '在潍坊市，通过座谈交流方式，详细了解潍坊市在政务公开网站建设、人员配备、评估考核等方面的情况，并到潍城区政务服务大厅、坊子区政务公开专区进行实地参观，了解触控一体智慧云平台建设、惠企惠民政策平台、公开专区数据建设等内容，感受数据集成带来的优势。', '在烟台市，召开“市县统筹”交流座谈会，烟台市9个市（区）的政务公开负责同志参会，栖霞、莱山等市（区）作了典型经验交流。两地的县（市、区）工作人员就工作中遇到的难点痛点问题进行了热烈探讨，取得较好的效果。', '在德州市，参观考察宁津县农业数据共享中心、工业经济数据中心、城市数据中心等场所，学习德州在大数据、融媒体等资源与政务公开紧密融合方面的先进经验；在融媒体中心，听取负责同志就政务公开与新媒体有效结合、拓宽政务公开渠道方面开展的有益尝试，进一步启发了工作思路。', '在济宁市，实地了解任城区政务公开专区建设情况，并组织开展座谈交流，学习济宁市在政务公开培训和轮训、政策解读、政策主动推送等方面的经验和做法，对开展下步工作提供了参考。', '泰安市将以这次考察学习为契机，认真学习借鉴先进地市的经验做法，创新思路，在“优化平台建设、健全制度机制、强化组织保障、创新业务培训、加大督导考核力度”上下功夫、求突破，力争今年全市政务公开工作实现大突破、大提升。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>137</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>聊城市监察局来泰学习考察政风行风网络热线直播情况</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2011-02-23</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2011/2/23/art_46738_4054971.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['11月25日上午，聊城市监察局来我市学习考察“政风行风网络热线”直播情况。 在市纪委监察局负责同志陪同下，聊城市监察局考察团一行参观了泰安日报社中华泰山网网站编辑部、“政风行风网络热线”演播大厅，并听取了泰安日报社负责同志“关于报网联动打造特色栏目”的情况介绍。在认真了解了“网络热线”的直播流程，实地观看了“网络热线”的播出情况后，考察团一行高度评价了“政风行风网络热线”直播节目，认为泰安市纠风办和泰安日报社采用“报网联动”的模式推动“政风行风网络热线”，通过视频、音频、文字同步直播的方式倾听群众呼声，接受社会监督，初步建立起民主评议、政风行风热线、互联网站相结合的政风行风建设监督体系，这在全省开创了先河。 “报网联动”的模式，体现了传统媒体与现代媒体优势互补，相互促进，借助党报的优势扩大了网络热线的覆盖面，这些经验都值得认真学习总结。考察团希望进一步加强与泰安市监察局、纠风办、泰安日报社的联系，相互学习交流，共同推动行风热线节目的创新和发展。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>137</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>滨州市政协考察团来泰学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2017-04-21</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/4/21/art_46736_4061669.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['4月19日至20日，滨州市政协考察团来我市参观考察基层政协工作和文化旅游开发建设项目。市政协主席周桂萍，副主席马纯勇、程明，秘书长魏武陪同。', '考察团一行听取了我市政协基层组织建设情况介绍，实地参观考察了高铁新区、岱岳区满庄镇政协委员联络室、太阳部落景区、天颐湖景区，对我市基层政协工作和文化旅游开发建设工作给予充分肯定。', '近年来特别是今年初换届以来，泰安市政协以联络组建设为抓手，全面加强委员队伍建设，结合委员的界别和所在区域，把413名委员划分为21个联络组，为委员开展活动搭建了有效载体和服务平台；充分利用委员培训班、政协讲座、理论研讨会等多种形式，强化学习培训，进一步提高委员履职能力；制定《市政协委员履职工作规则》等规章制度，使委员队伍管理和履职工作有章可循：加强专委会和界别建设，使委员履职活动有组织有依托。各委员联络组立足各自的优势，围绕加快泰安项目建设、城乡统筹、民生事业等重大问题，建管用之言，献务实之策，积极开展慈善捐助、敬老助残、科技文化卫生下乡等活动，促进人民群众共享经济社会发展成果，为建设富裕文明幸福新泰安作出了积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>137</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>我市党政考察团赴四川学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2016-03-29</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/3/29/art_46736_4063470.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['阳春三月，川蜀大地草长莺飞、繁花似锦。3月21日—24日，市委副书记李希信率泰安市党政考察团赴四川省成都市、绵阳市，学习考察农业产业化经营、农村产权制度改革、一二三产业融合发展以及美丽乡村、精准扶贫、乡村旅游、现代农业发展等方面的经验做法。', '参观学习中，我市党政考察团深入村庄社区、农户院落、农业龙头企业，与当地百姓、党政领导和有关企业负责人深入交流，听介绍、取真经，作对比、找差距，详细了解先进地区在现代农业、农业产业化经营以及美丽乡村建设等方面的经验做法。', '李希信指出，这次考察的成都、绵阳及周边县、市、区，无论是在深化农业农村改革，还是在推进美丽乡村建设、一二三产业融合发展方面，都为我们提供了样板、树立了标杆，看了之后很受震撼、很受教育、很受启发。当前我市正处于农业转方式、调结构的关键阶段，各级要充分发挥我市农业资源独特优势，延长农业产业链条，推进农业产业化发展；要把打造龙头企业作为发展农业产业化经营的关键，集中扶持和培育一批市场前景好、科技含量高、竞争力强、辐射面广的龙头企业。', '李希信强调，各县市区、市直农口有关部门要借鉴四川在乡村旅游、美丽乡村、精准扶贫等方面好的经验和做法，充分挖掘我市乡村旅游资源优势，坚定信心，因地制宜，真抓实干，切实做好乡村旅游发展规划及实施，积极改善农村发展环境，提升农民生活品质，增加农民收入。', '李希信要求，下一步要在创新体制机制上寻求突破，加强对农村土地、农民房屋等农村产权确权、合理流转等方面工作力度，促使生产要素在城乡之间自由流动，促进城乡经济社会融合发展、良性互动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>137</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>我市党政考察团外出学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2017-04-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/4/5/art_46736_4061600.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['3月27日至31日，市委书记王云鹏，市委副书记、市长李希信率市党政考察团赴济宁、菏泽、济南、淄博、潍坊学习考察创新招商引资工作机制、推进项目建设工作机制、骨干企业培植、传统产业改造升级、新兴产业培育、城市及园区建设等方面的经验做法。', '王云鹏、李希信和市委副书记张涛，市人大常委会主任唐福泉，市政协主席周桂萍，市委常委、副市长展宝卫，市委常委、统战部部长李灿玉，市委常委、市纪委书记郝红，市委常委、秘书长宋洪银，市委常委、组织部长高尚山，市人大常委会副主任、宁阳县委书记刘学保，副市长、市公安局局长鞠向群，副市长成丽，副市长、东平县委书记赵德健，泰山景区党工委书记姚霆，县市区、泰安高新区、泰安旅游经济开发区及市直有关部门主要负责同志一起，先后考察了济宁尼山圣境、省级信息产业基地、中国重汽济宁商用车、英特力光通信、产学研基地、辰欣药业、太白湖景区；菏泽润泽化工、东明前海化工、中信国安新材料、洪业己内酰胺项目、天华电商产业园、天荣创意家居小镇；济南国家信息通信国际创新园、汉峪金谷、中国重汽国家重型汽车工程技术研究中心、浪潮集团；淄博孝妇河生态治理工程、齐鲁股权交易中心、市文化中心、太平洋财险电销山东分中心、卓创资讯、新华医疗器械、国金汽车制造、汉能薄膜太阳能、金晶集团；潍坊晨鸣集团、寿光蔬菜高科技示范园、歌尔、盛瑞传动、北汽福田山东多功能汽车、潍柴控股集团等。', '考察团每到一处,当地党委、政府高度重视,这五市的几大班子主要领导同志热情接待了泰安考察团,并同考察团进行深入友好的交流,表示要进一步加强两地合作,共谋发展,实现互惠双赢。', '考察期间,大家进展馆、入园区、走企业、观城建、问政策,一致认为,感触很深、收获很大。考察团成员纷纷表示,要将此次考察中感受到的发展压力化为加快发展的动力,把考察成果与各自工作有机结合起来,实现招商引资和项目建设工作新突破。', '王云鹏在学习考察时说,到兄弟市走一走、看一看，实地感受兄弟市发展的氛围、工作的状态，可以使我们进一步认清肩负的职责，增强发展的使命感、责任感、紧迫感，提振各级干事创业的精气神；便于我们发现问题，找准差距，进一步深化认识，提升抓发展的能力和水平。谋划新发展、展现新作为，要认真学习借鉴外地的经验做法，抓工作要立足实际，找出符合自身发展的路子，围绕现有的基础优势来谋划推进招商引资和项目建设；抓工作要保持定力，对认准的事，持续用力、久久为功、追求极致，不动摇，不折腾，坚定不移地朝一流标准努力，特别是在谋划产业发展、培育骨干企业上，要进一步坚定这个信念，努力培养出一批百年企业、一批在国内外叫得响的品牌；抓工作要敢想敢干，坚持以开拓性思维推进工作，敢于针对薄弱环节和发展短板，积极谋划新思路、拓展新空间、培育新动能；抓工作要高点定位，在谋划上有高境界、大格局，在推进上有好办法、高效率，持续增强发展的动力活力和后劲，为富裕文明幸福新泰安建设提供坚强支撑。', '李希信表示，五市的发展经验证明，招商引资和项目建设仍然并将长期是促进经济社会发展的重要抓手和突破口。要把招商引资和项目建设作为膨胀经济规模、培植壮大财源、实现跨越发展的首要任务，毫不动摇地抓、持之以恒地抓，确保取得实实在在的成效。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>137</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>外交部大使参赞学习班来泰考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2012-11-27</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2012/11/27/art_46736_4074539.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['11月24日，经外交部批准，由部分回国述职休假大使、总领事、参赞及其配偶组成的2012年第五期大使参赞学习班一行38人，在省外办副主任孙传尚的陪同下来泰考察。副市长、宁阳县委书记展宝卫会见了学习班一行。 外交部国外工作局组织此次大使参赞学习班，主要目的是加深驻外使节对当前国情、社情的了解，提高外交工作服务国内经济社会发展的水平，并充分发掘外交资源，进一步扩大对外交流合作和落实企业“走出去”战略。 展宝卫对学习班一行来泰表示热烈欢迎，并介绍了泰安和泰山的基本情况。他指出，泰安市作为被国务院确定的首批对外开放旅游城市，一直非常重视与世界各国的友好交往。目前，泰安已与16个国家的18个城市保持了密切来往。希望学习班一行在泰期间能多走走、多看看，进一步增进相互了解，加深友谊，对泰安的发展多提宝贵意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>137</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>聊城考察团来泰考察学习景区管理运行体制机制</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2015-12-03</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2015/12/3/art_46736_4063661.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['12月1日，聊城市副市长郭建民带领考察团来泰考察学习旅游景区管理运行体制机制。副市长徐恩虎陪同考察。', '徐恩虎在介绍泰安相关情况时说，泰安作为一座旅游城市，旅游业的发展对于城市的发展至关重要，泰山作为泰安市最重要的旅游资源，在整个泰安市旅游业发展中举足轻重。近年来，泰山景区通过全力争创一系列高含金量品牌，推进管理机制改革创新，强化安全稳定基础工作，大力实施软硬环境双提升工程，项目建设拉动景区发展，强势营销，旅游与文化相融合，景区乡村一体化发展等举措，积极做好泰山旅游规划并发挥龙头作用，带动泰安周边其他景点的规划与发展。', '考察团一行对泰安市的旅游景区管理运行工作给予了高度评价。郭建民表示，泰安市的旅游景区管理运行体制机制有很多值得借鉴和学习的地方，希望两地加强学习与交流，共同推动城市旅游事业又好又快发展。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>137</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>泰安党政考察团赴广东省福建省学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2012-04-17</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2012/4/17/art_46736_4075497.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['4月9日至15日，市委书记、市人大常委会主任李洪峰率市党政考察团赴广东省、福建省学习考察旅游服务业发展、城市规划建设管理及工业园区建设等方面的经验做法。 李洪峰和市委副书记、市长王云鹏，市政协党组书记、主席白玉翠，市人大常委会第一副主任林华勇，市委常委、秘书长陈刚，市委常委、副市长刘卫东，市委常委、新泰市委书记张宏伟，副市长陈湘安，泰山景区管委会主任、市住建委党委书记李际山，县(市、区)委及市直有关部门负责同志一起，先后参观考察佛山新城数字化展厅、南风古灶、中国陶瓷城、罗浮宫国际家具博览中心、佛山祖庙、岭南天地，东莞市展览馆、松山湖高新区、可园、大朗镇求富路社区，汕头城乡规划展示厅、观海长廊、超声印制板公司、奥飞动漫公司、澄海陈慈黉故居，厦门火炬产业园、两岸金融中心、软件园、城市规划展览馆、湖里万达广场、鼓浪屿景区，泉州行政中心、东海片区、闽台缘博物馆、清源山景区，福州城市亮化美化工程。 考察团每到一处，当地党委、政府都高度重视，这几市的市委、市政府主要领导热情接待泰安考察团，并同考察团进行深入友好的交流，表示将加强两地合作，共谋发展，实现互惠双赢。 考察期间，大家进展馆、入园区、走企业、观城建、问政策，一致认为，感触很深、收获很大。学习考察结束后，考察团全体成员召开座谈会，对本次学习考察活动进行认真总结。各县市区、泰安高新区、泰安旅游经济开发区负责同志结合学习考察分别谈了体会，大家纷纷表示，要将此次考察中感受到的发展压力化为加快发展的动力，把考察成果与各自工作有机结合起来，推进富民强市建设。 在听取大家发言后，李洪峰指出，这次学习考察的城市，经济社会发展水平都比较高，他们在旅游服务业发展、城市规划建设管理、工业园区建设方面的经验很值得我们学习借鉴。在下一步工作中，我们要进一步解放思想，学习先进地区的思想境界，在更高的层次上理清思路，在更大的范围内审视自己，在更广的参照系中确定目标，始终保持解放思想干事创业的激情和活力，切实做到发展有新思路，改革有新突破，开放有新局面，各项工作有新举措。领导干部要带头解放思想，创新工作方式，打破传统思维模式的束缚，研究解决问题的办法，创造性地开展工作。 要进一步加大招商引资和大项目建设力度，加强调度，认真落实大项目建设领导责任制和领导干部联系重点项目制度，靠上盯上帮助企业解决项目建设中遇到的问题。招商引资要注重产业链招商，做强产业集群；注重实效，“赔钱赚吆喝”的事坚决不办。要进一步优化发展环境，加强软、硬环境建设，更好地为企业发展服务、为项目建设服务。各级领导干部要进一步增强发展欲望，再鼓发展干劲，专心致力于本地区经济社会快速发展，不辜负组织的重托，不辜负群众的期盼。 王云鹏主持会议，并就此次学习考察活动谈了体会。他说，通过这次学习考察，必须清醒地认识到，我们与先进地区的差距从根本上说，是思想观念、工作作风、精神状态的差距，表现在工作上，就是经济指标、产业档次、招商引资、发展环境的差距。各级领导干部要进一步增强紧迫感和使命感，加强服务意识、责任意识，把主要精力放在抓发展上，认真学习借鉴先进地区的好经验，深入思考加快发展的好办法，对比差距、结合工作下定决心进行整改，扎扎实实做好工作。 参加座谈会的还有市委副书记李琥、丁毅，市委常委，市政府副市长，市政府特邀咨询等。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>137</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>聊城市考察组来泰学习考察生活垃圾分类等工作</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/5/13/art_46736_9095901.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['5月12日，聊城市副市长田中俊带领考察组来泰学习考察生活垃圾分类等工作，副市长赵德健陪同活动。', '考察组先后查看了公共机构生活垃圾分类投放，居民小区生活垃圾分类收集、运输、处置以及公共卫生间管理、城管服务驿站等工作情况。', '考察组对我市生活垃圾分类工作给予了高度评价，并表示将充分学习借鉴、寻找差距、认真研究，对照我市先进经验，把学习考察成果转化为具体落实的生动实践，把生活垃圾分类工作向纵深推进。', '赵德健表示，此次考察组到我市学习考察，是对我市生活垃圾分类工作的鞭策，我市将进一步加强与各地市的沟通交流，相互探讨、取长补短，主动改革创新，为建设美丽宜居泰安作出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>137</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>李兰祥带队赴济宁考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-06-12</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2024/6/12/art_46736_10350699.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['6月11日，市委副书记、市长李兰祥带队赴济宁市考察项目建设、乡村振兴示范片区建设等工作。济宁市委副书记、市长于永生，济宁市人大常委会主任王宏伟陪同考察。', '考察团一行先后来到永生重工关键核心基础件及成套装备全球智造基地项目、龙拱港多式联运项目、华勤集团超高性能轮胎项目、“美丽泗河·牛楼印象”乡村振兴示范片区和蒂德高端数控机床产业园，深入企业内部、项目现场、镇村之间，看现场、听汇报，边观摩、边交流，不时询问相关负责人具体问题，深入了解产业发展历程、项目优势特点、企业运营发展等情况，在学习中开拓视野，在交流中启动思路，在对比中找准差距。', '考察团对济宁市近年来在强力实施制造强市、现代港航物流、乡村振兴等方面取得的成效给予高度评价，表示将以此次考察为契机，进一步深化交流合作，取长补短、携手共进，奋力推动绿色低碳高质量发展不断取得新成效。', '李兰祥指出，要结合泰安实际，对标先进查找差距，碰撞交流开阔视野，积极学习借鉴兄弟市的好经验好做法，以发展新质生产力为引领，加快建设现代化产业体系；以黄河战略先行区建设为契机，大力推进生态环境保护和绿色低碳发展；以推进乡村振兴为总抓手，扎实做好“三农”工作；以深化改革扩大开放为动力，充分激发高质量发展活力；以促进共同富裕为导向，切实保障和改善民生，推动泰安各项工作位次前移、争创一流，全面开创新时代社会主义现代化强市建设新局面。', '市委常委、组织部部长刘泮英，市人大常委会副主任、市工业推进委副主任、党委书记李华民，副市长刘峰梅、马保文，泰安高新区党工委书记、管委会主任刘斌参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>137</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>泰安市数字经济考察组赴淄博德州等地学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-02-27</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/2/27/art_247745_10311584.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['围绕提高我市大数据工作效能，加快我市数字经济发展步伐，2月23日至25日，市二级巡视员任树凯，市大数据中心主任李天波带领组建中的数字经济产业链专班及市产业发展集团有关同志，一行5人赴烟台、潍坊、淄博、德州考察学习大数据工作先进经验和典型做法。', '考察组先后重点考察了潍柴集团、中电集团驻德州办事处等重点数字经济企业以及相关数字经济园区，探讨产业园招商引资、产业规划布局、项目包装策划、营商环境优化等工作，并对有关项目合作进行深入交流。', '任树凯指出，通过实地参观，了解到各市数字经济工作起步早、体制全、特色突出。潍坊市出台《数字经济三年发展规划（2018-2020）》，加强顶层设计。聚焦物联网，赋能经济社会发展，2021年举办智能物联网线上大会，吸引华为、腾讯、歌尔、潍柴等2000多家知名企业参展；抓牢数字经济园区建设，先后5家园区被评为省级数字经济园区，不断发挥园区集聚效应，带动产业链转型升级；成立数字赋能联盟，入盟企业数达到488家，为企业数字化转型升级搭建交流平台。淄博市在新旧动能转换重大工程产业发展办公室（设在市发改委）框架下成立数字经济产业专班，发力数字经济。一是抓好数字经济园区建设，构建“产业+配套、平台+生态、数字+赋能、科技+金融”的数字产业生态；二是加强数字产业招引，以数字政府项目建设为引领，加强人才、资金、项目等要素资源集聚、培植壮大数字产业规模，与华为、同方、商汤科技、京东等企业达成合作意向，谋划实施了一批重大项目。德州市抢抓数字经济发展机遇，做好“数字产业化”和“产业数字化”文章。一是加快培育壮大数字经济核心产业，形成集成电路、电子元器件等特色产业；二是推进重点企业由“制造”迈向“智造”，推动生产换线、机器换人和企业上云。', '任树凯强调，数字经济是继农业经济、工业经济之后的主要经济形态。下一步主要做好两个方面的文章：一是加快传统产业数字化转型，发挥华为（肥城）工业互联网创新中心辐射带动作用，深入企业开展“一企一策、一链一策”，推动企业数字化转型。二是加快数字经济园区培育。聚焦政法大数据产业园等数字经济特色园区，加快培育省级示范园区，打通上下游产业链，以点带面，推动数字产业迅速发展。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>137</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>焦作考察团来泰学习综合治税经验</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2014-04-02</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2014/4/2/art_46736_4070140.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['4月1日上午，焦作市委常委、常务副市长姜继鼎率学习考察团来我市学习综合治税方面的经验做法。市委常委、副市长辛显明出席交流座谈会。', '上午，焦作市委常委、常务副市长姜继鼎率学习考察团来我市学习综合治税方面的经验做法。市委常委、副市长辛显明出席交流座谈会。', '辛显明说，泰安市委、市政府高度重视综合治税工作，健全组织架构，注重社会参与，强化信息管理，完善考核制度，形成了“政府、部门、社会三位一体，法制、信息双管齐下”的社会化综合治税新格局。截至', '座谈会上，市财政局、国税局和地税局相关负责同志介绍了我市在开展综合治税和财源建设方面的工作情况，双方就此进行了互动交流。考察团认为，我市的综合治税工作经验丰富，成效显著，启发很大。希望今后继续加强两地之间的沟通交流，互相学习借鉴，共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>137</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>李兰祥带队赴西安市和开封市考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-07-03</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2024/7/3/art_46736_10351039.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['6月28日至7月1日，市委副书记、市长李兰祥带队赴西安市和开封市考察学习历史文化街区保护提升和文旅融合发展等方面的经验做法。', '在西安市，李兰祥一行实地查看了“长安十二时辰”沉浸式主题体验街区、大雁塔历史文化片区、小雁塔历史文化片区、钟鼓楼广场、回民美食文化街区等地，会见了陕西旅游集团有限公司党委书记、董事长周冰，就进一步推进文旅项目建设合作运营进行座谈交流。考察过程中，大家边走边看，边学习边思考西安市在文化遗产保护与利用、文旅项目谋划开发、沉浸式体验产品打造、文旅业态创新、旅游演艺精品打造等方面的好理念、好经验、好做法。李兰祥指出，要学习借鉴西安市在旅游经济、业态布局和运营模式等方面的成熟经验，认清工作短板，找准发展目标，不断丰富文旅项目产品供给，打造沉浸式文旅新业态，更好地满足市民和游客品质化、多元化、便利化的消费需求。', '在开封市委副书记、市长吴海燕的陪同下，李兰祥带队先后考察了开封市规划馆、古城墙、州桥及汴河遗址、清明上河园、鼓楼广场、960文创园和铁塔公园等地，学习开封市在历史文化街区保护提升和文旅项目建设管理等方面的成功经验。李兰祥指出，开封历史悠久、文化厚重，在保护和传承历史文化中注重保护古城风貌，延续历史文脉，将历史与现代、古典与经典有机结合，为历史文化名城的保护与发展提供了很好的示范。此次学习考察是一次更新观念之行，更是一次学经验找办法之行，我们要认真学习借鉴，变触动为行动、变压力为动力，以学促思、以思促行，下大力气抓好历史文化街区保护提升工作，不断推动优秀传统文化的创造性转化、创新性发展。', '市委常委、副市长唐传营，泰山景区管委会主任肖玉果及市直有关部门、泰安旅游经济开发区、泰山城建集团主要负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>137</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>我市考察学习大沽河综合治理工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2014-08-04</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2014/8/4/art_46736_4068828.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['为推进大汶河景观大道建设调研工作，学习借鉴外地先进经验，7月30日至31日，市政协主席、党组书记白玉翠带领市直有关部门负责同志赴青岛市考察学习大沽河综合治理工作。', '白玉翠一行在青岛市政协副主席杨宏钧陪同下先后到大沽河胶州段、即墨段等现场，实地查看河道沿岸堤防工程、堤顶公路、绿化亮化、生态湿地、景观节点打造等建设现场，详细了解项目实施、建设管理、迁占安置、土地保障、资金筹措以及工程管护等方面工作。', '大沽河是胶东半岛最大的河流，流经青岛市的莱西、平度、即墨、胶州和红岛5个区市，全长179.9公里，流域面积6131平方公里，被誉为青岛的“母亲河”。大沽河治理工程从2011年5月开始启动，是一项集防洪、蓄水、生态、环保、交通、景观、人居、文化、经济和社会效益等于一体的多领域、系统性惠民工程。目前，防洪工程、水源开发利用工程已经全面完工，堤顶道路及跨支流桥梁工程、绿化工程和各项配套工程正在有序推进。', '考察中，考察组一行边看、边听、边思、边议，一致认为，青岛市在大沽河综合治理开发中始终坚持高起点规划、高标准建设、高效率推进、高水平管理和多渠道筹措资金的经验做法，对于我市大汶河景观大道建设具有重要的借鉴意义。', '白玉翠希望各相关部门以本次考察学习为契机，认真总结借鉴大沽河治理开发工作中好的经验做法，全面调查摸清大汶河的水利资源、人文资源、生态资源、旅游资源禀赋，形成科学性、可行性、可操作性的调研报告，为推进大汶河景观大道建设调研工作献计出力。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>137</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-03-20</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/3/20/art_46737_10309772.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['3月18日下午，市委理论学习中心组举办法治专题讲座，深入学习习近平法治思想，加深对民法典的理解和把握，切实提高领导干部学法用法水平，加快推动法治泰安建设。', '市委书记、市人大常委会主任杨洪涛主持会议并讲话，市政协主席武林中，市委副书记、政法委书记于瑞波和中心组成员参加学习。山东泰山蓝天律师事务所主任，市委、市政府“党政一体”法律顾问郭桂林作民法典专题讲座。', '会议指出，民法典是新中国成立以来第一部以“法典”命名的法律，在中国特色社会主义法律体系中具有重要地位，是一部固根本、稳预期、利长远的基础性法律。要提高思想认识，进一步增强学习民法典的自觉性，深入学习习近平总书记关于民法典的重要指示精神，坚持把学习宣传民法典与学习贯彻习近平法治思想结合起来，与学习贯彻习近平总书记关于全面依法治国系列重要论述结合起来，从坚决拥护“两个确立”、增强“四个意识”、坚定“四个自信”、做到“两个维护”的政治高度，充分认识学习宣传民法典的重要意义，进一步增强带头学习宣传贯彻民法典的思想自觉、行动自觉，为推进全市法治建设发挥积极作用。', '会议强调，要采取多种方式，进一步推动民法典学习宣传教育落到实处，坚持有解思维，推动民法典宣传教育制度化、常态化、长效化，教育引导全社会形成遇事找法的习惯，培养解决问题靠法的意识和能力。要抓住“关键少数”，落实领导干部学法制度，让领导干部做学习、宣传、遵守、维护民法典的表率。要认真落实“谁执法谁普法”“谁管理谁普法”“谁服务谁普法”普法责任制，各级行政执法部门要针对不同的管理对象、执法对象，宣传解读好民法典。', '会议要求，要提升法治能力，为推动全市高质量发展提供法治保障，结合贯彻实施民法典契机，围绕市委、市政府中心大局，聚焦新型工业化、黄河战略、文旅融合、城市提升、乡村振兴和共同富裕等重点任务，进一步强化法治思维，严格规范行政许可、行政处罚、行政强制、行政检查等行政行为，着力打造法治化、国际化营商环境，努力提高运用民法典促进经济发展、化解矛盾纠纷、应对风险挑战、维护社会和谐稳定的能力和水平，为全面开创新时代社会主义现代化强市建设新局面提供坚强法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>137</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021-09-17</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/9/17/art_46736_10300364.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['9月16日上午，市委理论学习中心组进行集体学习，深入学习贯彻习近平总书记关于党校办学治校系列重要指示精神，习近平总书记在2021年秋季学期中央党校（国家行政学院）中青年干部培训班开班式上重要讲话，以及《中国共产党机构编制工作条例》。', '市委书记杨洪涛主持会议并讲话，市委副书记、市长张涛，市委副书记曲锋，市人大常委会主任唐福泉，市政协主席郭德文和中心组成员参加学习。', '会议指出，习近平总书记在2021年秋季学期中央党校（国家行政学院）中青年干部培训班开班式上的重要讲话，既是对中青年干部的殷切期望，也是对全体党员干部的普遍要求，对于提高党性修养和指导我们做好各项工作具有重要引领作用。大家要把学习贯彻习近平总书记重要讲话精神作为重要政治任务，带头学深悟透，持续抓好落实。要按照习近平总书记的要求，做到信念坚定、对党忠诚，坚决贯彻执行党的理论和路线方针政策，严守政治纪律和政治规矩，不折不扣把党中央决策部署落到实处；要做到注重实际、实事求是，积极倡导作风务实、工作扎实、责任落实；要做到勇于担当、善于作为，不断提升想担当、敢担当、会担当的能力水平；要做到坚持原则、敢于斗争，在原则问题上决不能含糊、决不能退让；要做到严守规矩、不逾底线，同一问题反复犯错不能容忍，有章不循、有法不依、弄虚作假不能容忍，违背良知、冲击道德底线不能容忍；要做到勤学苦练、增强本领，向实践学习，向书本学习，向专家学习，脚踏实地增强能力水平，把各项任务完成好。', '会议强调，《中国共产党机构编制工作条例》是完善党和国家机构法规制度、推进机构编制法定化的重要内容，是党的机构编制工作的“基本法”。要深入学习、严格执行好这部党内法规，在法律法规的框架内，严谨、规范、科学地处理好机构编制方面的问题，最大限度提升机构编制资源的使用效益，为全市经济社会高质量发展提供更好的体制机制保障。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>137</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2023/8/29/art_46736_10344324.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['8月25日，市委理论学习中心组进行集体学习，围绕“深入学习习近平总书记关于全面从严治党的重要论述，深入学习习近平总书记在二十届中央纪委二次全会上的重要讲话精神，深入推进新时代党的建设新的伟大工程，以永远在路上的清醒推进全面从严治党向纵深发展”，进行专题学习研讨。', '会议指出，全面从严治党是党的长期战略、永恒课题，必须坚持问题导向，保持战略定力，以高度的政治自觉和强烈的使命担当，正视问题、分析问题、解决问题，做到以永远在路上的清醒推进全面从严治党向纵深发展，以知行合一的实际行动坚定拥护“两个确立”、坚决做到“两个维护”。', '会议强调，健全全面从严治党体系是加强新时代党的建设的重大举措，必须强化系统观念，做到协同发力，更加突出党的各方面建设有机衔接、联动集成、协同协调，更加突出体制机制的健全完善和法规制度的科学有效，更加突出运用治理的理念、系统的观念、辩证的思维管党治党建设党。', '会议指出，抓好党建工作是做好泰安各项工作的重要前提和根本保证，必须更好履职尽责，形成整体合力，努力使我市党建工作更好体现时代性、把握规律性、富于创造性。要充分发挥党建工作引领方向、保障大局的重要作用，切实把党员干部思想统一起来、力量凝聚起来，推动党中央决策部署和省委、市委工作要求不折不扣地落到实处。要结合开展主题教育，引导全市广大党员干部深刻领悟“两个确立”的决定性意义，深入学习领会好习近平新时代中国特色社会主义思想的世界观、方法论，坚持好、运用好贯穿其中的立场观点方法，做到学思用贯通、知信行统一。要锻造过硬干部队伍，持之以恒推进作风转变，不断提振全市党员干部的精气神，营造风清气正的良好政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>137</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/6/29/art_46736_10314643.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['6月28日，市委理论学习中心组围绕深入学习领会“两个确立”的决定性意义，进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，更加自觉地在思想上、政治上、行动上同以习近平同志为核心的党中央保持高度一致，开展专题学习研讨。', '市委书记、市人大常委会主任杨洪涛主持会议并讲话，市政协主席武林中，市委副书记、政法委书记于瑞波和中心组成员参加学习。中心组成员围绕学习研讨主题，紧密结合思想和工作实际，分别作了现场发言或书面交流，谈了认识和体会。省列席旁听第9工作组组长、山东省委党校（山东行政学院）副校长（副院长）殷玉平旁听指导并作了点评讲话。', '会议指出，去年11月召开的党的十九届六中全会，审议通过了《中共中央关于党的百年奋斗重大成就和历史经验的决议》，作出了“两个确立”的重大论断，这是历史的选择、时代的选择、人民的选择，既是重大政治成果、历史结论，更是重大政治责任、历史实践。我们要深刻领悟“两个确立”对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有的决定性意义，把落实“两个确立”作为党员干部应有的政治信念、政治忠诚、政治立场、政治态度，内化于心、外化于行，以更加昂扬的姿态扛牢责任担当，全面开创新时代社会主义现代化强市建设新局面。', '会议强调，要把坚定拥护“两个确立”转化为坚决做到“两个维护”的实际行动，持续加强理论武装，始终做到旗帜鲜明讲政治，准确把握“走在前、开新局”目标定位，坚持知行合一、以知促行，实现理论与实践、“两个确立”与“两个维护”有机结合、相互促进。要把坚定拥护“两个确立”落实到现代化强市建设的具体实践中，找准定位、勇闯新路、担当作为，清醒认识发展不平衡不充分仍然是泰安当前的根本矛盾，牢牢抓住发展第一要务，谱写好现代化强市建设新篇章。要把坚定拥护“两个确立”融入扎实推动共同富裕的不懈奋斗中，把人民拥护不拥护、赞成不赞成、高兴不高兴、答应不答应，作为衡量一切工作的根本标准，提供更多就业岗位，提高群众收入水平，促进基本公共服务均等化，加强和创新社会治理，守好安全生产等底线，全力让人民群众过上更加幸福美好的生活。要把坚定拥护“两个确立”贯穿于推进新时代党的建设新的伟大工程中，全面落实管党治党政治责任，推动党史学习教育常态化长效化，着力锻造高素质干部队伍，全面加强基层党组织建设，坚持作风建设永远在路上，确保党中央决策落实落地。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>137</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-02-17</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/2/17/art_46736_10308243.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['2月15日上午，市委理论学习中心组进行集体学习，学习《中共中央、国务院关于做好2022年全面推进乡村振兴重点工作的意见》。', '市委书记杨洪涛主持会议并讲话，市委副书记、市长张涛，市政协主席郭德文，市政协党组书记武林中和中心组成员参加学习。', '会议指出，《意见》对新阶段农业农村发展、全面推进乡村振兴作出了总体部署，为我们做好当前和今后一个时期“三农”工作指明了方向。全市上下要认真学习领会，紧密结合泰安实际，抓好贯彻落实。', '会议强调，全面推进乡村振兴，必须加快发展现代农业产业，必须创新抓农业和农村工作的思路和方法，跳出“就农业抓农业”的传统思维模式，以工业化思维、市场化理念推进农业农村发展。要严格落实粮食安全党政同责，守牢耕地红线，执行好落实好耕地“非农化”、防止“非粮化”要求，聚焦十大优势产业，做好建链补链延链文章，发挥好辐射带动效应，加大农业种业结构的优化调整，推动品种培优、品质提升、品牌打造，增强就地转化、就地加工、就地循环增值的能力，推动农产品由“原字号”向“制成品”转变，真正做到农头工尾、粮头食尾，增加产品附加值。', '会议指出，全面推进乡村振兴，必须扎实开展乡村建设行动，在抓好农村人居环境整治提升的同时，推进城乡基本公共服务均等化，抓好农村住房、教育、医疗、养老、社会保障等公共服务，推动城乡融合发展。要支持5G、物联网等新基建向农村覆盖延伸，设施建起来了，还要长期用下去，可以一边建设，一边探索完善长效运行管护机制。', '会议强调，全面推进乡村振兴，必须持续巩固拓展脱贫攻坚成果，对易返贫致贫人口，要加强动态监测帮扶，落实“四个不摘”要求，跟踪收入变化和“两不愁三保障”巩固情况，定期核查，动态清零，做到早发现、早干预、早帮扶，保持现有帮扶政策、资金支持、帮扶力量总体稳定，确保政策不断档、工作不脱节，坚决守住不出现规模性返贫的底线。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>137</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021-10-13</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/10/13/art_46736_10301482.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['10月12日下午，市委理论学习中心组进行集体学习，学习贯彻习近平总书记在中共中央政治局第三十三次集体学习时的重要讲话、在第四个“中国农民丰收节”到来之际的重要指示和在纪念辛亥革命110周年大会上的重要讲话精神。', '市委书记杨洪涛主持会议并讲话，市委副书记、市长张涛，市委副书记曲锋，市人大常委会主任唐福泉，市政协主席郭德文和中心组成员参加学习。', '会议指出，各级党委、政府要把生物安全作为国家总体安全的重要组成部分，明确工作责任，加强生物安全法和生物安全知识的宣传教育，提高全社会生物安全风险防范意识，打好生物安全风险防控人民战争。要强化系统治理，加快健全市县乡生物安全治理体制机制，加强基层监测站点哨点建设，完善监测预警网络，强化风险隐患排查，做好人、畜、物跨境跨市监管检疫，确保不出问题。要强化协同配合，建立健全重大生物安全突发事件应急预案，完善快速应急响应机制，加强应急物资、队伍和能力储备，确保一旦出现问题，能够及时应对处置。', '会议强调，要把农业农村工作摆在优先位置，加快农业农村现代化，让农民生活“芝麻开花节节高”。要进一步提高农业效益，落实最严格的耕地保护制度，保障粮食安全和重要农副产品供给。要运用工业化思维，推动农业工厂化、规模化、智慧化、标准化、品牌化和绿色化，大力发展农副产品加工产业，提高农产品附加值。要不断改善农村环境，做好污染防治、垃圾分类、清洁取暖、道路“三通”、危房改造等工作。要研究推动农村走向共同富裕，补齐农村基本公共服务短板，抓好农村安置房建设。要持续深化农村改革，大胆破除体制机制障碍，解决好人、地、钱等瓶颈问题，吸引工商资本下乡和在外人才返乡；创新乡村治理体制，采用信用奖惩等方式，建设和谐乡村。', '会议指出，习近平总书记在纪念辛亥革命110周年大会的重要讲话立意高远、思想深邃，鼓舞人心、催人奋进。要融会贯通、入心入脑，抓好贯彻落实。要坚定不移做到“两个维护”，坚持用习近平新时代中国特色社会主义思想武装头脑，不断提高政治判断力、政治领悟力、政治执行力，贯彻落实好新时代党的建设总要求，增强全面从严治党永远在路上的政治自觉。要敢于斗争善于斗争，坚持问题导向，树立有解思维，勇做新时代泰山“挑山工”，把责任尽到位、工作干到位。要坚守为民情怀，继续深入开展好“我为群众办实事”实践活动。要大力弘扬爱国主义精神，巩固和发展最广泛的爱国统一战线，落实好中央对台决策部署，为实现祖国和平统一作出应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>137</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>我市举办学习强国学习平台知识竞赛</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2019-11-13</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/11/13/art_46736_7601429.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['日前，市委宣传部、市直机关工委联合发布《关于举办泰安市“学习强国”学习平台知识竞赛活动的通知》（以下简称《通知》），以深入学习贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，提升“学习强国”学习平台社会知晓率，提高群众参与度，积极营造“勤学、乐学、好学”的浓厚学习氛围。', '竞赛内容主要包括“学习强国”学习平台推出的围绕习近平新时代中国特色社会主义思想以及新党章、新思想、党史、党的十九大专题等学习内容，“学习强国”学习平台每日答题和挑战答题的内容。', '根据活动安排，初赛将在11月初至12月上旬举行，以泰山区、岱岳区、新泰市、肥城市、宁阳县、东平县及泰安高新区、泰山景区、市直机关为单位，各县（市、区）、功能区由党委（党工委）宣传部门负责，自行组织，并负责推荐一支代表队参加市里的决赛。每支代表队确定3名参赛队员，队员报名时需填写泰安市“学习强国”学习平台知识竞赛参赛队报名信息表，于12月10日前将参赛队员名单发送至qiangguojingsai@163.com邮箱。12月中下旬计划在市广播电视台一号演播大厅举行决赛，参赛的9支代表队同时参加必答题、抢答题、选答题等环节比赛，按得分高低决出名次。比赛设一等奖1名，二等奖2名，三等奖3名，分别颁发奖杯证书及奖品。', '《通知》要求，各县（市、区）党委宣传部，各功能区要组织好广大党员和群众运用“学习强国”学习平台积极开展学习，参与在线互动活动，把平台学习活动与党委理论中心组学习、“三会一课”、支部主题党日活动紧密结合起来，形成多形式、分层次、全覆盖的学习体系，切实在学懂弄通做实上下功夫，把学习工作落到实处。全市党员干部和广大群众要以此次知识竞赛活动为契机，用“学习强国”学习平台激发学习动力，用“知识竞赛”活动巩固学习成果，在全市形成“以赛促学、以学促行、比学赶超”的浓厚学习氛围。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>137</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-07-19</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/7/19/art_46736_10315584.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['7月17日，市委理论学习中心组进行集体学习，学习《习近平关于网络强国论述摘编》和《党委（党组）网络意识形态工作责任制实施细则》。', '市委书记、市人大常委会主任杨洪涛主持会议并讲话，市委副书记、市长张涛，市政协主席武林中和中心组成员参加学习。', '会议指出，习近平总书记对推动我国网信事业发展作出一系列重要论述，形成了关于网络强国的重要思想，为我们做好新时代网络安全和信息化工作提供了根本遵循。《实施细则》是做好网络意识形态工作的纲领性文件，压实了各级领导干部的工作责任，大家要深刻学习领会，切实把习近平总书记重要指示要求落到实处。要加强网络文明建设，强化正面宣传，全面推进文明办网、文明用网、文明上网，营造良好的网络舆论环境。要强化风险防范应对，严格落实意识形态工作责任制，加强风险预警研判，不断提高管网治网用网的能力水平，坚决维护网络意识形态安全。要加快信息化建设，聚焦新型工业化强市建设等重点工作、重点领域，充分发挥信息化驱动引领作用，推动经济社会高质量发展。', '会议强调，意识形态工作是一项极端重要的工作，全市各级各部门各单位一定要以严肃认真的态度抓好各项任务的落实，坚持“网下管什么网上就管什么”原则，强化主动意识，以扎实的工作保证全市意识形态领域安全平稳有序。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>137</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市纪委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2017-05-19</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/5/19/art_46736_4061174.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['5月17日，市纪委理论学习中心组进行第六次集体学习，进一步传达学习习近平总书记在省部级主要领导干部学习贯彻十八届六中全会精神专题研讨班上的重要讲话精神和在中央全面深化改革领导小组第三十三次会议上的重要讲话精神，学习了廖俊波同志先进事迹。', '郝红强调，学习贯彻习近平总书记重要讲话精神是全市纪检监察机关的重要政治任务，要提高政治站位，树牢“四个意识”，在学深悟透、领会精神实质上下功夫，把学习成效落实到政治觉悟和思想境界提升上，贯穿到监督执纪问责各项工作中。要强化抓改革的责任担当，主要负责同志要亲力亲为，围绕纪检体制改革重点任务，抓思路、抓调研、抓推进、抓落实，层层压实责任，推动改革措施落地见效。全市纪检监察机关要认真传达学习习近平总书记重要指示精神，把学习廖俊波同志先进事迹作为推进“两学一做”学习教育常态化制度化的重要内容，结合“严纪律、重效率、勇担当、作表率”主题活动，对标先进，查摆问题，笃行整改，忠诚履职，建设一支让党放心、人民信赖的纪检监察干部队伍。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>137</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-11-19</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/11/19/art_46737_10305229.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['11月18下午，市委理论学习中心组集体学习《中共中央办公厅关于做好党的十九届六中全会精神学习宣传的通知》，并围绕深入学习贯彻党的十九届六中全会精神开展专题学习研讨。', '市委书记杨洪涛主持会议并讲话，市委副书记、市长张涛，市委副书记曲锋，市人大常委会主任唐福泉，市政协主席郭德文和中心组成员参加学习。省委党史学习教育第六巡回指导组到会指导。市委理论学习中心组部分成员进行交流发言。', '会议指出，党的十九届六中全会是在我们党百年华诞的重要时刻，在“两个一百年”奋斗目标历史交汇关键节点上召开的一次重要会议。会议全面总结了党的百年奋斗重大成就和历史经验，充分体现了我们党重视和善于运用历史规律的高度政治自觉，充分体现了我们党牢记初心使命、继往开来的自信和担当，向全党全国人民发出了向第二个百年奋斗目标进军的总动员令。全市各级要全面系统学习领会十九届六中全会精神实质、核心要义、科学内涵和实践要求，自觉把思想和行动统一到六中全会精神上来，切实把全会精神学深悟透、融会贯通、学以致用。', '会议强调，要把“两个确立”转化为做到“两个维护”的思想自觉政治自觉行动自觉，坚决拥护习近平总书记党中央的核心、全党的核心地位，不断提高政治判断力、政治领悟力、政治执行力，进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。要深刻把握党的百年奋斗重大成就和历史意义，坚持唯物史观和正确党史观，从党的百年奋斗中看清楚过去我们为什么能够成功、弄明白未来我们怎样才能继续成功，从而更加坚定、更加自觉地践行初心使命，在新时代更好坚持和发展中国特色社会主义。要倍加珍惜长期坚持党的百年奋斗历史经验，在新的赶考之路上，进一步回答好“中国共产党是什么、要干什么”这个根本问题。要做好结合文章推进泰安高质量发展，立足新发展阶段、贯彻新发展理念、服务和融入新发展格局，牢牢抓住发展第一要务，发挥好泰安区位、交通、资源、产业、文化等各方面优势，谋划好发展思路、发展目标、发展路径，推动泰安高质量发展再上新水平。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>137</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022-07-31</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/7/31/art_46737_10316761.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['7月29日上午，市委理论学习中心组开展集体学习研讨，学习习近平总书记在中央政治局会议和省部级主要领导干部“学习习近平总书记重要讲话精神，迎接党的二十大”专题研讨班上的重要讲话精神。', '市委书记、市人大常委会主任杨洪涛主持会议并讲话，市委副书记、市长张涛，市委副书记、政法委书记于瑞波和中心组成员参加学习。中心组成员结合各自工作实际，进行书面发言。', '会议指出，中央政治局会议分析研究当前经济形势和经济工作，对做好下半年经济工作作了安排部署，就疫情防控、把握宏观政策、守住安全底线、增强发展动力、做好民生保障、调动各方面积极性以及抓好巡视等工作提出了明确要求。全市各级要深入学习贯彻中央政治局会议精神，统筹疫情防控和经济社会发展，保持定力，解放思想，咬定经济运行指标不放松，压实经济发展责任制，坚决扛牢责任，策划好项目，抓住专项债风口，坚定不移实施新型工业化强市战略，做好项目对上争取，集中力量、集中资源、集中优势，一步一个脚印把确定事项落到实处、抓出成效，努力实现全年目标任务，以疫情防控有力、经济稳进提质、发展安全稳定的优异成绩，迎接党的二十大胜利召开。', '会议强调，习近平总书记在省部级主要领导干部专题研讨班上的重要讲话，从党和国家事业发展的战略全局出发，科学分析了当前国际国内形势，深刻阐述了过去5年工作和新时代10年的伟大变革，深刻阐释了新时代坚持和发展中国特色社会主义的重大理论和实践问题，深刻阐明了未来一个时期党和国家事业发展的大政方针和行动纲领，对于鼓舞和动员全党全国各族人民在党中央坚强领导下，踔厉奋发、勇毅前行、团结奋斗，奋力谱写全面建设社会主义现代化国家崭新篇章具有重大历史和现实意义。全市各级党组织要把学习宣传贯彻习近平总书记重要讲话精神作为重要政治任务，引导广大党员干部不断加深对习近平总书记重要讲话精神实质和丰富内涵的理解，切实把“两个确立”的政治共识转化为“两个维护”的实际行动，为党的二十大胜利召开营造良好舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>137</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2018-01-22</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/1/22/art_46736_4060048.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['1月19日上午，市委理论学习中心组进行集体学习研讨, 深刻学习领会习近平总书记在中央政治局民主生活会上的重要讲话精神和习近平新时代中国特色社会主义思想，进一步统一思想、深化认识、凝聚共识，为开好市委常委班子民主生活会打牢思想基础。', '市委书记王云鹏主持会议并讲话,市委副书记张涛，市人大常委会主任唐福泉，市政协主席周桂萍及中心组成员参加学习研讨。', '学习研讨过程中,中心组成员联系思想和工作实际，交流了学习心得和体会。大家一致认为,习近平总书记在中央政治局民主生活会上的重要讲话,对深入贯彻落实党的十九大精神进一步提出明确要求、作出安排部署。我们要坚定不移高举习近平新时代中国特色社会主义思想伟大旗帜, 牢固树立“四个意识”，增强“四个自信”，坚决维护习近平总书记核心地位、领袖权威，在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。', '王云鹏在讲话中强调，要深刻学习领会习近平总书记在中央政治局民主生活会上的重要讲话精神，认真对照习近平总书记对加强中央政治局建设提出的明确要求，加强班子自身建设，推动党的十九大精神全面落实，持之以恒加强和改进作风，大兴调查研究之风，真正把功夫下到察实情、出实招、办实事、求实效上。要深刻领会和准确把握习近平新时代中国特色社会主义思想，自觉将其作为强大思想武器和科学行动指南，贯穿于想问题、作决策、干工作的全过程，按照“走在前列、位次前移”的目标定位，践行新理念，增创新优势，建设新泰安，努力在新时代展现出新气象、新作为。', '王云鹏要求，要认真筹备好市委常委会2017年度民主生活会，以中央政治局民主生活会为标杆，精心准备、认真安排。要认真开展谈心谈话，充分听取各方面意见。要深刻进行党性分析，切实找准问题，严肃开展批评与自我批评，提出整改措施，真正使民主生活会开出政治性、思想性、原则性，开出质量，达到统一思想、明确方向、提升战斗力的目标，为全市各级党组织民主生活会作出示范。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>137</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2017-03-24</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/3/24/art_46736_4061568.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['3月23日上午，市委理论学习中心组围绕“加强党的建设，充分发挥核心作用”进行专题学习。', '市委书记王云鹏主持学习活动并讲话，市委副书记、市长李希信，市委副书记张涛，市人大常委会主任唐福泉及市委常委参加学习。', '学习过程中，市委理论学习中心组部分成员领读了《习近平在省部级主要领导干部学习贯彻十八届六中全会精神专题研讨班开班式上的讲话》和《习近平在党的十八届六中全会第二次全体会议上的讲话》。', '王云鹏在讲话中指出，习近平总书记在党的十八届六中全会第二次全体会议上的讲话，围绕坚定不移推进全面从严治党、全面加强和规范党内政治生活、全面落实党内监督责任和突出抓好领导干部特别是高级干部四个方面作了重要论述。习近平总书记在省部级主要领导干部专题研讨班开班式上的重要讲话，是对十八届六中全会精神的科学领读和全面辅导，对于统一全党思想认识、深化全面从严治党各项工作具有重大而深远的意义。要认真学习领会，切实抓好贯彻落实。', '王云鹏强调，当前，深入学习贯彻习近平总书记系列重要讲话和十八届六中全会精神，深化全面从严治党是全市各级党组织的重要政治任务。要结合整改工作，切实把思想建设摆在首位，不断加强党的建设，进一步强化市委理论学习中心组学习，坚持不懈抓好理论武装工作。要充分发挥好市委的领导核心作用，深刻理解和把握中央提出的“五位一体”总体布局和“四个全面”战略布局，牢固树立新发展理念，不断增强“四个意识”，为建设富裕文明幸福新泰安努力奋斗，以优异成绩迎接党的十九大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>137</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>市委理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2022-09-14</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/9/14/art_46737_10318830.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['9月13日，市委理论学习中心组开展集体学习，深入学习习近平法治思想，进一步提高领导干部学法用法水平，加快推动法治泰安建设。', '市委书记、市人大常委会主任杨洪涛主持会议并讲话，市委副书记、市长张涛，市政协主席武林中，市委副书记、政法委书记于瑞波和中心组成员参加学习。会议邀请山东农业大学公共管理学院教授陈晓军作法治专题讲座。重点围绕《习近平法治思想学习纲要》《论坚持全面依法治国》两部必学书目进行专题辅导，并对《法治山东建设指标体系》进行了解读。中心组成员结合各自工作实际进行了学习交流。', '会议指出，党的十八大以来，以习近平同志为核心的党中央，对全面依法治国作出了一系列重大战略部署。习近平总书记围绕坚持全面依法治国发表了一系列重要论述，深刻回答了新时代为什么实行全面依法治国、怎样实行全面依法治国等一系列重大问题，形成了习近平法治思想，是全面依法治国的根本遵循和行动指南。全市各级要持续深入抓好习近平法治思想的学习贯彻，进一步提高思想认识，坚持全面系统学、联系实际学，自觉把习近平法治思想贯彻落实到全面依法治市全过程、各方面，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。', '会议强调，《法治山东建设指标体系》是贯彻落实全面依法治国重要方略、推进法治山东建设的重要举措。各级各有关部门单位要加强组织领导，压实工作责任，切实抓好各项任务的贯彻落实。市委依法治市办要加强工作调度，将动态监测指标任务落实情况纳入法治督察重点内容，坚持问题导向，从严从实从细督促落实各项指标任务，全面提升法治泰安建设水平。', '会议指出，今年以来，全市各级全面贯彻落实习近平法治思想，深入推进法治泰安建设，依法治市工作取得明显成效。各级要进一步发挥法治稳预期、固根本、利长远的基础性作用，各级领导干部要牢固树立法治思维，提升法治素养和法治能力，紧紧围绕市第十二次党代会确定的目标任务，聚焦新型工业化、黄河战略、文旅融合、城市提升、乡村振兴、共同富裕六项重点任务，进一步优化营商环境，为新时代现代化强市建设提供有力法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>137</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>市委理论学习中心组开展两学一做学习教育集中学习研讨</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2016-12-09</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/12/9/art_46736_4061743.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['按照市委“两学一做”学习教育有关安排，12月8日上午，围绕《关于新形势下党内政治生活的若干准则》和《中国共产党党内监督条例》，市委理论学习中心组组织开展集中学习研讨。', '市委书记、市人大常委会主任王云鹏主持并作总结讲话。市委副书记、市长李希信，市委副书记张涛，市政协主席、党组书记辛显明，市人大常委会第一副主任、党组书记陈刚及部分市委常委参加学习并作讨论发言。', '在认真学习《关于新形势下党内政治生活的若干准则》和《中国共产党党内监督条例》后，市委理论学习中心组成员围绕《准则》和《条例》，紧密结合思想和作风实际，结合自身分管工作，交流了学习心得和体会，进一步深化了学习效果。', '王云鹏在总结讲话中指出，《关于新形势下党内政治生活的若干准则》和《中国共产党党内监督条例》是指导新形势下全面从严治党的行动纲领，是严肃党内政治生活、净化党内政治生态的根本遵循。专门围绕准则、条例进行集中学习研讨，目的就是进一步加深对十八届六中全会精神的理解，自觉用六中全会精神统一思想和行动，不断把学习宣传贯彻六中全会精神引向深入，推进全面从严治党各项任务落到实处。', '王云鹏强调，作为市委理论学习中心组成员，必须以身作则，切实发挥示范引领作用。要带头抓好学习，先学一步、深学一层，要求必须更严、标准必须更高，通过细读深研，做到学有所思、学有所悟、学有所得，坚决把思想和行动统一到中央全会精神上来，真正成为“两学一做”学习教育的引领者。要带头抓好贯彻落实，认真落实“三会一课”、领导干部双重组织生活、民主评议党员等制度，在进行谈心谈话、开展批评与自我批评、召开组织生活会和专题民主生活会过程中，都要严格按《准则》和《条例》去做，用实际行动推动党内政治生活和党内监督严起来、实起来。要带头解决突出问题，对照习近平总书记在十八届六中全会上的重要讲话精神，对照《准则》《条例》，对照“两学一做”学习教育部署安排，强化问题导向，着力查找思想差距、政治差距、作风差距、廉洁差距、工作差距，真正把问题找准找对。要瞄着问题去、盯着问题改，抓好群众反映强烈的突出问题整改，抓好不严不实突出问题整改，促进“两学一做”学习教育常态化、长效化。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>137</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>市委理论学习中心组开展两学一做学习教育集中学习研讨</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2016-09-26</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/9/26/art_46736_4062038.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['按照市委“两学一做”学习教育的有关安排，9月23日上午，围绕学习党规党纪，市委理论学习中心组组织开展集中学习研讨。', '市委书记、市人大常委会主任王云鹏主持会议并讲话，市人大常委会第一副主任、党组书记陈刚及部分市委常委参加学习研讨并作主旨发言。', '王云鹏在讲话中指出，治国必先治党，治党务必从严。从严治党，抓手在于党规党纪。市委常委会要带头尊崇党规党纪、遵守党规党纪、维护党规党纪，坚持以身作则，发挥好表率作用。', '王云鹏强调，纪律严明是党的优良传统和独特优势。党的凝聚力、战斗力、创造力，党的先进性、纯洁性，都要靠严明的纪律来保证。要充分认识学习党规党纪的重大意义，不断增强遵规守纪的思想自觉和行动自觉，加强党规党纪建设，确保全党统一意志、统一行动、步调一致向前进。要在身体力行上下功夫，实现以上率下，带头遵守新修订的《中国共产党廉洁自律准则》，坚决落实中央八项规定和省委实施办法、市委若干规定，时时处处按照党的纪律规矩办事，自觉把党规党纪要求融入日常工作生活中，从自己做起，教育、管理好自己的亲属和身边工作人员，树好家风、带好民风、率好党风。“两学一做”学习教育，基础在学，关键在做。要把学习践行党规党纪同做好当前各项工作结合起来，做到两手抓、两促进。要对照年度目标，紧紧围绕改革创新、脱贫攻坚、招商引资和项目建设、社会事业发展等重点任务查缺补漏，改进措施，加大力度，确保完成各项目标任务。要增强政治意识和责任担当，精心组织，精细推进，高标准高质量完成好换届任务。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>137</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>泰安市委理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-06-10</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2023/6/10/art_46736_10341203.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['9日上午，市委理论学习中心组进行集体学习，学习《习近平著作选读》（第二卷）中收录的两篇文章（《中华民族共同体意识是民族团结之本》《深入推进我国宗教中国化》）和《中国共产党宣传工作条例》的有关内容。', '市委书记、市人大常委会主任杨洪涛主持会议并讲话，市委副书记、市长李兰祥和中心组成员参加学习。', '会议指出，《中华民族共同体意识是民族团结之本》和《深入推进我国宗教中国化》是习近平总书记在中央民族工作会议和全国宗教工作会议上重要讲话的一部分，为做好新时代党的民族工作和宗教工作提供了根本遵循。全市各级要深刻学习领会习近平总书记重要讲话精神，认真学习民族宗教领域相关政策法规和工作要求，做民族宗教工作的明白人，增强干好工作的底气。要坚定拥护“两个确立”、坚决做到“两个维护”，从事关政治安全和国家安全的高度，以强烈的政治自觉、行动自觉做好民族宗教工作，努力推动党中央决策部署在泰安落实落地。', '会议强调，《中国共产党宣传工作条例》是我们党第一部关于宣传工作的主干性、基础性党内法规，《条例》的出台标志着宣传工作进入了依法依规推进的新阶段，对推动宣传思想工作守正创新具有十分重要的意义。全市各级要带头学深吃透把准《条例》的基本精神、主要内容和具体规定，全面贯彻党管宣传、党管意识形态、党管媒体原则，更好承担起举旗帜、聚民心、育新人、兴文化、展形象的使命任务，为现代化强市建设提供坚强思想保证。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>137</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习研讨</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2017-08-08</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/8/8/art_46736_4060908.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['8月7日下午，市委理论学习中心组进行集体学习研讨,深入学习习近平总书记在省部级主要领导干部“学习习近平总书记重要讲话精神,迎接党的十九大”专题研讨班上的重要讲话精神，进一步统一思想、明确方向,把思想和行动统一到习近平总书记重要讲话精神上来,以优异成绩迎接党的十九大胜利召开。', '受市委书记王云鹏委托，市委副书记、市长李希信主持会议并讲话。市委副书记张涛出席。中心组成员和市直有关部门、单位负责同志参加学习研讨。', '学习过程中，市委理论学习中心组部分成员领读学习了习近平总书记在省部级主要领导干部“学习习近平总书记重要讲话精神,迎接党的十九大”专题研讨班上的重要讲话精神和人民日报评论员文章、《中共山东省委关于认真学习宣传贯彻习近平总书记在省部级主要领导干部专题研讨班上重要讲话精神的通知》。会上，中心组成员结合思想和工作实际谈了学习体会。一致认为，党的十九大即将召开，在这个重要时刻，习近平总书记发表重要讲话，科学分析了当前国际国内形势，深刻阐述了5年来党和国家事业发生的历史性变革，深刻阐述了新的历史条件下坚持和发展中国特色社会主义的一系列重大理论和实践问题，深刻阐明了未来一个时期党和国家事业发展的大政方针和行动纲领，提出了一系列新的重要思想、重要观点、重大判断、重大举措，具有很强的思想性、战略性、前瞻性、指导性，是坚持和发展中国特色社会主义的政治宣言和行动纲领，为党的十九大胜利召开奠定了重要政治基础、思想基础、理论基础，为推进中国特色社会主义伟大事业提供了科学指南。', '大家一致表示，要深刻领会习近平总书记重要讲话的重大政治意义、理论意义、实践意义，全面把握精神实质，牢固树立“四个意识”，坚定“四个自信”，更加自觉地同以习近平同志为核心的党中央保持高度一致，不折不扣地贯彻落实中央的各项决策部署，确保中央政令畅通、决策落地生根。', '会议指出，学习好、宣传好、贯彻好习近平总书记在省部级主要领导干部专题研讨班上重要讲话精神，是当前的重要政治任务。中心组成员要发挥好示范引领作用，在带头学思践悟上作表率。同时，认真组织讲话精神的学习宣传贯彻，联系以习近平同志为核心的党中央治国理政实践，联系党和国家的历史性变革和历史性成就，结合正在开展的“两学一做”学习教育和我市“重效率、勇担当、作表率”主题活动，引导全市各级党组织和广大党员干部群众，把思想和行动统一到讲话精神上来，进一步增强维护核心的思想自觉和行动自觉。以讲话精神为指导，扎实做好迎接党的十九大宣传工作，做好鼓舞人心、凝聚力量的工作，在全社会营造昂扬向上、团结和谐的浓厚氛围。', '会议强调，要把深入学习宣传贯彻习近平总书记在省部级主要领导干部专题研讨班上重要讲话精神，与贯彻落实省十一次党代会精神和刘家义书记来泰安视察指导工作时的指示要求结合起来，与落实市委、市政府一系列决策部署，扎实做好当前改革发展稳定各项工作结合起来。要进一步提高政治站位，强化责任担当，切实加强各领域党的建设，把全面从严治党主体责任和“一岗双责”要求落到实处；坚定不移贯彻新发展理念，持续用力抓好招商引资和项目建设、加快新旧动能转换、供给侧结构性改革、脱贫攻坚、安全稳定、生态环保以及防范化解金融风险等重点工作，努力取得更大成效，确保圆满完成各项目标任务，为全省走在前列贡献泰安力量，以优异成绩迎接党的十九大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>137</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>市委理论学习中心组开展专题学习研讨</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2024/5/27/art_46737_10350554.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['5月25日，市委常委会召开扩大会议，传达习近平总书记在山东考察时的重要讲话精神，研究全市防范化解城投债务风险等工作事宜。', '市委书记、市人大常委会主任杨洪涛主持会议并讲话，市委副书记、市长李兰祥及市委常委出席会议，市政协主席武林中和有关市领导列席会议。', '会议指出，5月22日至24日，习近平总书记先后来到日照、济南等地进行考察调研。期间，习近平总书记到日照港和阳光海岸绿道了解相关情况，在济南主持召开企业和专家座谈会，听取省委和省政府工作汇报，并对下步工作开展作出重要指示、提出明确要求。习近平总书记强调，山东要在全国发展大局中定好位、挑大梁，完整准确全面贯彻新发展理念，以进一步全面深化改革为动力，继续在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，加快建设绿色低碳高质量发展先行区，打造高水平对外开放新高地，奋力谱写中国式现代化山东篇章。全市各级要认真学习领会习近平总书记考察调研山东时的重要讲话和重要指示精神，以高度的政治自觉、思想自觉、行动自觉，统筹抓好完善现代化产业体系、深化改革扩大开放、全面推进乡村振兴、加快文化“两创”、加强党的领导和党的建设、统筹发展和安全等各方面的工作，为现代化强市建设注入更强动力。', '会议传达习近平总书记在中央政治局会议上的重要讲话精神，对旅游工作、学校思政课建设、广东梅州市梅大高速茶阳路段塌方灾害作出的重要指示精神，向全国广大劳动群众祝贺慰问、寄语新时代青年、给北京市八达岭长城脚下的乡亲们的回信精神及重要文章《组织动员亿万职工积极投身强国建设、民族复兴的伟大事业》《全面深化改革开放，为中国式现代化持续注入强劲动力》。', '会议听取全市防范化解城投债务风险有关情况汇报，要求各级各相关部门单位继续做好化债资金、资源、资产等统筹，确保全市地方债务风险可防可控。要积极推动城投公司加快转型升级，进一步提升经营效益和盈利能力，推动全市经济平稳有序发展。', '会议听取大汶口国家考古遗址公园创建工作情况汇报，要求各级各相关部门做好项目建设、手续办理等工作，强化有解思维，坚持凡事皆有解，尽快协调解决历史遗留问题，高水平做好遗址公园创建工作。', '会议传达2024山东省文旅产业高质量发展工作会议、全省文化遗产保护传承座谈会精神，听取城市吉祥物、城市礼品评选情况汇报，要求有关方面筹备好全市文旅产业高质量发展大会，进一步提高城市吉祥物和城市礼品名录知名度，开展好多种形式的宣传活动，切实把好事办好。', '会议审议《泰安市推动大规模设备更新和消费品以旧换新工作方案》，要求各有关部门抢抓机遇、跟紧督导，进一步细化工作目标、强化工作措施，聚力抓好任务落实，建强推进机制，推动政策及时直达企业和群众，确保取得实实在在成效。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>137</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组集体学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-12-09</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/12/9/art_46736_10112781.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['12月7日上午，市政府党组理论学习中心组采取专题讲座的形式，围绕学习习近平法治思想和《中华人民共和国宪法》进行法治专题学习。', '市委副书记、市长、市政府党组书记张涛，市政府党组成员宋洪银、鞠向群、成丽、赵德健、常绪扩参加学习。泰安军分区司令员隋阳，副市长袁久党列席会议。', '会议强调，要把握宪法精神内涵，深刻认识宪法对巩固党的长期执政基础、保证人民群众根本利益、推动国家治理体系和治理能力现代化、实现中华民族伟大复兴的重要保障作用，把学习贯彻习近平法治思想和宪法结合起来，做到学思用贯通、知信行统一，学深悟透、学以致用，使宪法精神内化于心、外践于行。要切实增强宪法观念，站在全局的高度，深刻认识全面贯彻实施宪法的重大意义，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”，自觉做到尊崇宪法、遵守宪法、维护宪法。要切实抓好学习贯彻，不断提高依宪执政、依宪行政、依宪履职能力，争做尊法学法守法用法表率，不断提高运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定和应对风险的能力，为推动全面依法治市、建设法治泰安作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>137</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行专题学习研讨</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2021-11-04</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/11/4/art_46737_10305226.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['按照省委统一部署，11月3日下午，市委理论学习中心组围绕深刻领会习近平总书记在深入推动黄河流域生态保护和高质量发展座谈会上的重要讲话精神和视察山东重要指示要求，开展专题学习研讨。', '市委书记杨洪涛主持会议并作总结发言，市委副书记、市长张涛，市委副书记曲锋，市人大常委会主任唐福泉，市政协主席郭德文和中心组成员参加学习，省委党史学习教育第六巡回指导组到会指导。市委理论学习中心组部分成员进行交流发言。', '会议指出，习近平总书记在深入推动黄河流域生态保护和高质量发展座谈会上的重要讲话精神和视察山东重要指示要求，充分体现了对山东的深情厚爱，充分丰富了习近平生态文明思想，充分彰显了习近平总书记深厚的黄河情怀。对泰安来讲，这是我们第一次跻身重大国家战略，意义非同寻常。深入推动黄河国家战略在泰安落实落地，既是面临的重大历史机遇，也是肩负的重大政治任务。我们一定要从增强“四个意识”、坚定“四个自信”、做到“两个维护”的高度，始终心怀“国之大者”，抓住发展机遇，积极主动作为，努力走在前列，在融入和服务黄河国家战略中展现泰安担当。', '会议强调，在黄河国家战略中展现泰安担当，必须坚定不移抓好科学谋划这个关键，对标习近平总书记“三个走在前”新要求，按照省委部署，结合泰安实际，与时俱进科学谋划好全市经济社会高质量发展的思路举措，科学谋划好落实黄河国家战略的任务重点，科学编制好《泰安市黄河流域生态保护和高质量发展实施规划》。在黄河国家战略中展现泰安担当，必须坚定不移抓牢生态保护这个核心，牢固树立生态优先、绿色发展的理念，正确处理好保护和发展的关系，凝聚“抓生态保护就是抓高质量发展”的共识，保持历史耐心和战略定力，自觉把绿色发展理念贯穿于生产生活的全过程、各方面，打好黄河流域生态环境保护主动仗。在黄河国家战略中展现泰安担当，必须坚定不移守住黄河安澜这条底线，统筹发展和安全两件大事，提高风险防范和应对能力，统筹推进区域内防洪减灾体系建设，实施好东平湖蓄滞洪区综合治理，特别是从根本上解决好金山坝问题，确保防患未然。在黄河国家战略中展现泰安担当，必须坚定不移走好绿色低碳发展道路，积极构建特色优势现代产业体系，尽快在经济高质量发展上迈出新步伐、实现新突破。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>137</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018-12-29</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/12/29/art_46736_4781684.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['12月26日，市政府党组理论学习中心组集体学习习近平总书记《在庆祝改革开放40周年大会上的讲话》、中央经济工作会议精神和《中国共产党支部工作条例（试行）》。', '市委常委、常务副市长展宝卫主持会议。市政府党组成员鞠向群、成丽、张红旗、张韧出席会议。', '会议指出，习近平总书记在庆祝改革开放40周年大会上的重要讲话，立意高远、思想深刻、内涵丰富，具有强大的真理力量、独特的思想魅力和巨大的实践伟力，是新时代改革开放再出发的“动员令”，是将改革开放进行到底的“宣言书”，为做好各项工作指明了前进方向，提供了根本遵循。我们要切实提高思想认识，把学习贯彻习近平总书记重要讲话精神作为当前和今后一个时期的重要政治任务，进一步坚定改革开放的信心和决心，用好改革开放的“关键一招”，把改革开放的精神落实到市委、市政府决策部署上来，落实到具体工作实践中，以更大力度推进新旧动能转换重大工程、实施乡村振兴战略、打好三大攻坚战、保障和改善民生等重点工作。', '会议强调，要深入学习领会我国经济发展取得的成就和新形势下做好经济工作“五个必须”的规律性认识，深入学习领会我国发展仍处于并将长期处于重要战略机遇期的科学判断，深入学习领会中央对明年经济工作的总体要求、政策取向和重点任务，坚持稳中求进总基调，把着力点放在抓当前、谋长远上，放在抓重点、求突破上。要加快补齐短板，继续打好三大攻坚战，为高水平全面建成小康社会收官打下决定性基础。要保持战略定力，认真贯彻中央“八字方针”，深化供给侧结构性改革，深入实施乡村振兴战略，推动高质量发展取得更大突破。要增添动力活力，更大力度推进重点领域改革，更高水平扩大对外开放，着力营造公平竞争环境。要持续保障改善民生，国家和省里既定民生政策要落实到位、确保兑现，不断提升人民群众获得感、幸福感和安全感。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>137</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2019-09-29</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/9/29/art_46736_7212382.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['9月28日上午，按照“不忘初心、牢记使命”主题教育的总体安排，市政府党组理论学习中心组开展集体学习研讨，围绕“坚定理想信念、提升党性修养”两个方面进行第一次集体学习研讨。', '市委副书记、市长、市政府党组书记张涛主持会议并讲话。市政府党组成员张红旗、赵德健、张韧出席会议。副市长袁久党列席会议。', '张涛指出，作为一名新时代的党员领导干部，要把坚定理想信念、提升党性修养贯穿始终，把加强党性修养作为党员干部立身、立业、立言、立德的基石。要把坚定理想信念、提升党性修养内化于心，在政治、理论、道德、纪律等各个方面严格要求自己，不断增强“四个意识”、坚定“四个自信”、坚决做到“两个维护”，始终在政治立场、政治方向、政治原则、政治道路上同党中央保持高度一致。', '张涛强调，要把坚定理想信念、提升党性修养外化于行，把主题教育的成效体现到实际工作成果上来。要加快发展、争先进位，以先进为目标，不断开阔眼界、提升境界，不断提升在全省的发展位次。要担当作为、狠抓落实，勇做新时代泰山“挑山工”，突出抓好“双招双引”等重点工作，强化措施，抓好落实，确保完成全年各项目标任务。要进一步增强为民情怀，紧盯群众最关心最直接最现实的利益问题，积极稳妥化解老百姓的难点堵点痛点，不断增强群众的获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>137</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2021-11-27</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/11/27/art_46737_10305233.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['11月26日下午，市政协党组理论学习中心组开展集体学习，围绕党的十九届六中全会精神，开展专题学习研讨。市政协党组书记、主席郭德文主持会议并讲话，市政协党组副书记、副主席姚霆，党组成员、副主席马纯勇、程明，党组成员、秘书长李诚实出席会议，市政协副主席徐恩虎、张庆明、刘君、王昌元、孙岱峰列席会议。', '会上，市政协党组成员围绕研讨主题交流了学习成果，结合思想和工作实际畅谈了学习体会和思想感悟。郭德文强调，要以更高站位坚持党的领导，在强化思想政治引领上把牢方向，切实把“两个确立”转化为增强“四个意识”、坚定“四个自信”、做到“两个维护”的思想自觉、政治自觉、行动自觉。要以更强担当精准履职尽责，在围绕中心服务大局上谋求新作为，把贯彻党的十九届六中全会精神与做好当前各项工作结合起来，汇智聚力研究弘扬好泰山文化，强化宣传讲好政协故事。要以更实举措坚持人民至上，在践行为民宗旨上展现责任担当，深入开展协商议政、评议监督、建言资政活动，协助党委、政府解决群众的操心事、烦心事、揪心事。要以更大力度坚持统一战线，在凝聚政治共识上画出最大同心圆，多形式开展党的十九届六中全会精神宣讲活动，推动社会各界进一步把思想和行动统一到全会精神上来，以大团结、大联合为全市改革发展增助力、聚合力。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>137</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组集体学习研讨</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2018-02-08</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/2/8/art_46737_4055148.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['2月2日，市政府党组理论学习中心组进行集体学习研讨，深入学习习近平总书记在中央政治局民主生活会上的重要讲话精神，深刻领会习近平新时代中国特色社会主义思想的历史地位和丰富内涵，为开好市政府党组2017年度民主生活会打牢思想基础。', '市委副书记、市长、市政府党组书记李希信指出，习近平总书记在中央政治局民主生活会上的重要讲话，是对深入贯彻落实党的十九大精神作出的进一步部署。市政府党组要认真对照习近平总书记提出的明确要求，进一步加强党组班子自身建设，为全市政府系统带好头，发挥示范带动作用。', '李希信强调，要深刻领会和准确把握习近平新时代中国特色社会主义思想，自觉将其作为强大思想武器和科学行动指南，贯穿于想问题、作决策、干工作的全过程，按照“走在前列、位次前移”的目标定位，践行新理念，增创新优势，建设新泰安，努力在新时代展现出新气象、新作为。要认真筹备开好市政府党组2017年度民主生活会，深刻进行党性分析，切实找准问题，严肃开展批评与自我批评，提出整改措施，达到统一思想、明确方向、提升战斗力的目标，为全市政府系统作出表率。', '市政府党组成员鞠向群、张红旗、张韧出席会议。市委农村工作领导小组副组长陈湘安、副市长袁久党列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>137</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/6/12/art_46737_6541828.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['6月11日上午，市政协党组理论学习中心组开展集体学习。市政协主席周桂萍主持会议并讲话，市政协副主席徐恩虎、张庆明、刘君、姚霆、马纯勇、程明、孙岱峰，秘书长魏武出席会议。', '会上，大家集体学习了中央、省“不忘初心、牢记使命”主题教育工作会议精神，汪洋主席在全国地方政协工作经验交流会上的讲话和《关于民粹主义的有关问题》。', '周桂萍强调，要贯彻落实中央和省委要求，扎实开展好“不忘初心、牢记使命”主题教育，注重把主题教育同正在开展的勇做新时代泰山“挑山工”主题实践活动、寻标对标争先进位等工作结合起来，为主题教育顺利开展营造良好舆论氛围。要准确把握新时代地方政协的定位和职责，不断推进政协工作提质增效、争先进位；以庆祝人民政协成立70周年为契机，积极探讨新时代政协履职的新思路、新模式、新方法，规范履职程序，健全工作机制，为推动人民政协制度更加成熟、更加定型作出有益探索。要进一步树立底线思维，提高政治站位，强化思想政治引领，树牢“四个意识”、坚定“四个自信”、始终做到“两个维护”；增强政治敏锐性和政治鉴别力，在大是大非面前保持头脑清醒、做到立场坚定，坚决抵制民粹主义思潮的侵蚀。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>137</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>市委理论学习中心组学习宪法修正案</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2018-03-19</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/3/19/art_46736_4058875.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['3月16日下午，市委理论学习中心组进行集体学习，认真学习了《中华人民共和国宪法修正案》。', '省人大常委会副主任、市委书记王云鹏主持会议并讲话,市委副书记张涛，市人大常委会主任唐福泉，市政协主席周桂萍及中心组成员参加集体学习。', '王云鹏在讲话中指出，宪法是治国安邦的总章程，修改宪法是党和国家政治生活中的一件大事。这次宪法修改，把党的十九大确定的重大理论观点和重大方针政策载入国家根本法，把党和人民在实践中取得的重大理论创新、实践创新、制度创新成果上升为宪法规定，是以习近平同志为核心的党中央从新时代坚持和发展中国特色社会主义全局和战略高度作出的重大决策，是推进全面依法治国、推进国家治理体系和治理能力现代化的重大举措，是时代必然、实践必要、法治必需。', '王云鹏要求，全市各级各部门要深刻认识宪法修改的重大意义，提高政治站位，进一步牢固树立“四个意识”，坚定“四个自信”，做到“四个服从”，坚决拥护宪法修正案，坚定不移维护宪法作为根本法的权威地位，以实际行动坚决维护习近平总书记在党中央和全党的核心地位、坚决维护以习近平同志为核心的党中央权威和集中统一领导。各级各部门党委（党组）理论学习中心组要深入开展学习研讨，深刻领会宪法修正案的精神实质，原原本本、认认真真学习，切实增强贯彻实施的自觉性和坚定性。广大党员干部要带头尊崇宪法、学习宪法、遵守宪法、维护宪法、运用宪法，切实发挥好示范引领作用，带动全社会形成学习贯彻宪法的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>137</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>学院举行党委理论学习中心组学习会</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2018-11-24</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2018/11/24/art_165302_9746698.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['月20日下午，学院举行党委理论学习中心组学习会，集体学习了《山东高校意识形态工作责任追究暂行办法》、《市委办公室、市政府办公室关于集中整治形式主义、官僚主义的实施意见》和《中共泰安市委关于勇做新时代泰山“挑山工”的意见》。学院党委理论学习中心组成员、处级干部参加学习会', '党委委员、宣传处处长董少宏领学《山东高校意识形态工作责任追究暂行办法》，对高校意识形态追责所坚持的原则、追究对象进行了说明，特别是对高校党组织、领导干部、高校教职员工责任方式进行详细的介绍。闫书记提出要在思想上高度重视意识形态工作，充分了解追责的相关内容，严格执行责任制，结合文件抓好学习和贯彻落实。', '党委委员、党委（院长）办公室主任张鲁玉领学了《市委办公室、市政府办公室关于集中整治形式主义、官僚主义的实施意见》。闫恂秋指出，形式主义、官僚主义的问题如果不能及时解决，将对办学发展贻害无穷。一方面我们要形成正确的认识，另一方面也要自我反省，切莫犯形式主义、官僚主义的错误。', '闫书记领学了《中共泰安市委关于勇做新时代泰山“挑山工”的意见》，学习了新时代“泰山挑山工”精神的丰富内涵，一是信念坚定、心无旁骛的执着追求，二是勇挑重担、敢于担当的坚韧品格，三是脚踏实地、永不懈怠的顽强作风，四是一往无前、勇攀高峰的卓越情怀。闫书记强调要深入挖掘，树立先进典型，领导干部要做好表率，带头发扬“泰山挑山工”精神，在各项工作中高标准严要求，同时扎实做好有关“泰山挑山工”精神的相关主题实践活动。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>137</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>泰安开展大学习大学习大调研大改进</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018-03-28</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/3/28/art_46736_4058911.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['日前，市委办公室印发了《关于在全市开展“大学习、大调研、大改进”的实施方案》。开展“大学习、大调研、大改进”，将不分阶段、不设环节，同时推开、同步推进。', '方案强调，开展“大学习、大调研、大改进”，要以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的十九大和十九届二中、三中全会精神，认真贯彻落实习近平总书记在参加十三届全国人大一次会议山东代表团审议时的重要讲话精神，持续推进“两学一做”学习教育常态化制度化，扎实做好“不忘初心、牢记使命”主题教育各项准备工作。通过“大学习、大调研、大改进”，进一步增强全市各级党组织和广大党员干部想发展、快发展、大发展的紧迫感、责任感和使命感，以永不懈怠的精神状态和一往无前的奋斗姿态，加满油、把稳舵、鼓足劲，推进全市上下来一次思想观念大更新、制度机制大完善、作风形象大转变、转型跨越大提速，推动中央决策部署和省委工作安排在泰安落实落地，为加快建设富裕文明幸福新泰安、实现“走在前列、位次前移”目标提供动力引擎和坚强保证。', '关于大学习，要聚焦学习重点、丰富学习形式。坚持务实管用原则，突出“不忘初心、牢记使命”主题，重点做到“三学一促”。以个人主动学为基础，确保学全学深学透。以专家辅导学为引领，邀请专家学者解疑释惑。以及时跟进学为常态。当前，要认真学习、深刻领会习近平总书记参加十三届全国人大一次会议山东代表团审议时，对新时代山东工作提出的总要求，就推进全面从严治党、树立正确政绩观、加强企业自主创新、传承红色基因、经略海洋特别是实施乡村振兴战略等作出的重要指示，坚决抓好贯彻落实。以集体研讨学促深化，紧密联系实际，进一步完善年度学习计划安排，组织开展专题研讨。同时，围绕开展“不忘初心、牢记使命”主题教育，增强党员教育管理针对性有效性，着力打造“泰山文化精神脉、红色基因传承带、党校阵地核心轴、时代改革先锋线、党性锤炼e中心”的“一脉一带一轴一线e中心”全方位、立体式党员教育体系。', '关于大调研，按照省委要求，结合泰安实际，全市重点围绕以下十个方面开展调研：乡村振兴战略实施，推进新旧动能转换重大工程，招商引资和项目建设，实施山水林田湖草生态保护修复工程，研究谋划“不忘初心、牢记使命”主题教育，推进全面从严治党、加强正风肃纪和反腐败斗争，党和政府机构改革，深化“放管服”改革、优化营商环境，文化产业和旅游发展，中央和省委、市委其它重大决策部署。', '关于大改进，要立足长效，推动改革创新。围绕贯彻新发展理念，建设现代化经济体系，特别是深入推进供给侧结构性改革，实施乡村振兴战略，全面展开新旧动能转换重大工程，打好防范化解重大风险、精准脱贫污染防治三大攻坚战等，加快思想理念再解放、体制机制再变革、工作作风再转变、能力素质再提升。着力改进思想，着力改进制度，要着力改进作风，使专业素养和工作能力跟上时代节拍、适应发展需要，以实际行动书写泰安高质量发展新画卷。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>137</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市委理论学习中心组开展专题学习研讨</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/12/31/art_46737_10306207.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['12月30日，市委理论学习中心组按照《市委常委班子党史学习教育专题民主生活会筹备工作方案》安排，围绕深入学习贯彻习近平总书记重要指示精神和党史学习教育总结会议精神，以及全面从严治党主题，开展专题学习研讨。', '市委书记杨洪涛主持会议并讲话，市委副书记、市长张涛，市委副书记曲锋，市人大常委会主任唐福泉，市政协主席郭德文和中心组成员参加学习。会议领读学习省纪委机关、省委组织部、省委党史学习教育领导小组转发《中央纪委机关、中央组织部、党史学习教育领导小组关于认真开好党史学习教育专题民主生活会的通知》。市委理论学习中心组部分成员进行交流发言。', '会议指出，习近平总书记的重要指示，从政治和全局的高度，深刻阐明了开展党史学习教育的重大意义，充分肯定了党史学习教育的显著成效和重大成果，对深入学习贯彻六中全会精神、推动党史学习教育常态化长效化提出了明确要求，具有很强的政治性、思想性、指导性和针对性，为我们总结好、巩固好、拓展好党史学习教育成果提供了重要遵循。全市各级要深刻领会习近平总书记重要指示精神，坚持把党史学习教育作为一项长期政治任务，融入日常、抓在经常，持续推进、不断深化。要在学深悟透党的创新理论上下功夫，在践行为民宗旨上下功夫，在注重建章立制上下功夫，在坚持知行合一上下功夫，不断巩固拓展党史学习教育成果。', '会议强调，要以永远在路上的坚定和执着推动全面从严治党向纵深发展，坚定不移加强政治建设，坚定不移履行好管党治党政治责任，坚定不移发扬斗争精神，坚定不移严守规矩底线。要以中央政治局党史学习教育专题民主生活会为标杆，精心做好我市各级领导班子专题民主生活会筹备工作，紧扣主题、对照标准，广泛征求意见，搞好谈心谈话，聚焦重点方面深入进行自我检查、党性分析，为确保高质量开好专题民主生活会奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>137</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2019-07-23</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/7/23/art_46736_6845995.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['7月22日上午，市政协党组理论学习中心组开展集体学习。市政协党组副书记、副主席姚霆主持会议并讲话，市政协党组成员、副主席马纯勇，市政协党组成员、秘书长魏武出席会议。市政协副主席徐恩虎、张庆明、刘君列席会议。', '与会人员集中学习了《习近平新时代中国特色社会主义思想学习纲要》、习近平总书记在中央和国家机关党的建设工作会议上的重要讲话精神以及中共泰安市委十一届九次全体会议精神。', '会议强调，要把学习《习近平新时代中国特色社会主义思想学习纲要》作为重大政治任务，读原著、学原文、悟原理，真正做到深学细研、深信笃行；要对标对照习近平总书记在中央和国家机关党的建设工作会议上的重要讲话精神，深刻检视查摆机关党建工作中存在的问题，勇于自我革命，抓细、抓好机关党建工作；要深入学习贯彻市委十一届九次会议精神，把全会精神贯穿于市政协各项履职工作中，在推进泰安高质量发展中体现政协的新担当、彰显政协的新作为。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>137</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/3/2/art_46736_10308824.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['2月28日，市政协党组理论学习中心组进行集体学习。市政协党组书记、主席武林中主持会议并讲话。市政协党组成员、副主席张步军、倪庆宾、董彦和，党组成员、秘书长杨承修出席会议。市政协副主席袁久党、孙岱峰、苏雪峰、梁望东列席会议。', '武林中指出，要把学习宣传贯彻省市两会和市第十二次党代会精神作为当前和今后一个时期重要的政治任务来抓牢抓实，迅速兴起学习宣传贯彻热潮，准确领会精神实质；要认真落实市第十二次党代会“推进全面从严治党向纵深发展”的要求，强化政治引领，全面加强党的领导，不断提高政治判断力、政治领悟力、政治执行力；要继续围绕中心大局，精准高效履职，紧紧围绕市第十二次党代会和市两会明确的目标任务和工作重点，聚焦新型工业化、黄河战略、文旅融合、城市提升、乡村振兴和共同富裕等重点任务，多建“破题”之言，多献“破冰”之策，多提“破局”之法；要加强作风建设，树立崇严尚实、有为有位的工作导向，努力推动我市政协各项工作干在实处、走在前列，以优异成绩迎接党的二十大胜利召开。', '会前，市政协领导班子成员与市政协机关全体干部职工一起参观了中国共产党泰安市第十二次代表大会精神学习展览。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>137</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2023/8/9/art_46736_10343143.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['8月8日上午，市政府党组理论学习中心组围绕习近平总书记在全国生态环境保护大会上的重要讲话精神和《习近平关于国家粮食安全论述摘编》部分内容进行集体学习。', '市委副书记、市长、市政府党组书记李兰祥主持会议并讲话，市政府党组成员唐传营、刘峰梅、窦清波、马保文、刘钦海参加学习，副市长冯能斌列席会议。', '会议强调，要始终站稳政治立场，把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署上来，深刻领悟“两个确立”的决定性意义，以“时时放心不下”的责任感、积极担当作为的精气神，扎实推进生态文明建设。要坚决树牢系统观念，统筹山水林田湖草沙系统治理，推进环境污染防治、碳达峰碳中和等重点任务，持续深入打好蓝天、碧水、净土保卫战，统筹做好减污降碳工作，推动生态治理向纵深发展。要深刻把握辩证思维，进一步保持清醒头脑，统筹好发展与保护的关系，坚持从发展与环保两个方面同时发力、相向而行，实现发展与环保的有机融合、良性互动。', '会议强调，要坚持统一领导，自觉扛牢粮食安全政治责任，切实承担起保障粮食安全和耕地保护责任，做到尽职尽责、失职追责。要坚持政治引领，坚决落实中央决策部署和省委、市委工作要求，坚持农业农村优先发展，夯实粮食安全基础，守住保障区域粮食安全底线。要坚持区域统筹，不断提高粮食综合生产能力，确保粮食基本自给，切实稳定和提高粮食自给率。要坚持系统谋划，持续推进“产购储加销”一体化模式，实现粮源基地化、加工规模化、服务多样化，确保粮食产业链供应链稳定安全。要坚持考用结合，综合运用好考核、奖励、惩戒等措施进行考核奖惩，确保中央关于粮食安全工作的方针政策和决策部署在泰安落实落地。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>137</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组开展集中学习</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019-02-26</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/2/26/art_46736_4781854.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['2月25日上午，市政府党组理论学习中心组开展集中学习，市委常委、常务副市长展宝卫主持学习，市政府党组成员成丽、赵德健、张韧参加学习。副市长袁久党列席会议。', '会议传达学习了习近平总书记在十九届中央纪委三次全会上发表的重要讲话和刘家义书记在省十三届人大二次会议闭幕时的讲话。', '会议强调，市政府党组要通过学习持续提高政治站位，切实把思想和行动统一到习近平总书记重要讲话精神上来，始终把党的政治建设摆在首位，深刻理解增强“四个意识”、坚定“四个自信”、做到“两个维护”的特定政治内涵，不折不扣地贯彻落实党中央决策部署。要坚持正风肃纪不止步、反腐倡廉不松劲，深化标本兼治，持之以恒加强作风建设，夯实治本基础，巩固发展反腐败斗争压倒性胜利。要不断提振精神状态，充分做足思想准备，做政治上的“明白人”、工作上的“实干家”、生活中的“清醒人”，自觉与党中央对标对表，大力弘扬“担当作为、狠抓落实”新时代泰山“挑山工”精神，比学赶超，奋勇争先，不断推动经济社会发展迈上新台阶，确保中央和省、市委各项决策部署落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>137</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019-05-24</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/5/24/art_46736_6328011.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['5月22日上午，市政协党组理论学习中心组开展集体学习研讨。市政协主席周桂萍主持会议并讲话，市政协副主席徐恩虎、姚霆、马纯勇、程明，秘书长魏武出席会议。', '会上，大家集体学习了习近平总书记在“一带一路”国际合作高峰论坛、亚洲文明对话大会、纪念五四运动100周年大会、2019年中国北京世界园艺博览会开幕式上的主旨演讲、重要讲话和新修订的《中国共产党党组工作条例》，并围绕贯彻落实《中国共产党党组工作条例》开展集体学习研讨。', '周桂萍在讲话中指出，要统一思想认识，把思想和行动统一到习近平总书记重要讲话精神上来，把握新时代党的建设新要求，更加自觉地以党建统领政协工作，以优异成绩庆祝新中国和人民政协成立70周年。针对新修订的《中国共产党党组工作条例》，周桂萍强调，要强化条例学习，发挥党组政治核心作用，体现政协党组的使命担当，同时，要提高党组的凝聚力和战斗力，并始终保持清正廉洁、担当作为的政治本色。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>137</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>市纪委监委理论学习中心组开展专题学习</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018-08-13</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/8/13/art_46736_4058347.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['8月10日下午，市纪委监委理论学习中心组采取领读的方式，对《习近平谈治国理政》第二卷进行第二次集体学习。市委常委、市纪委书记、市监委主任郝红主持会议并讲话。', '会议要求，要把学习《习近平谈治国理政》第二卷作为一项政治责任，与学习贯彻党的十九大精神、习近平新时代中国特色社会主义思想和习近平总书记对山东工作的系列重要讲话、重要指示批示精神相结合，持续学、反复学，深刻理解把握精神实质和丰富内涵，学出绝对忠诚，学出使命担当。要抓好研讨交流，切实把自己摆进去、把职责摆进去、把工作摆进去，紧密结合纪检监察工作实际，深入思考研究。', '会议强调，要坚持学以致用，自觉以习近平新时代中国特色社会主义思想为指导，用蕴含其中的马克思主义立场、观点和方法指导实践、推动工作。要紧紧围绕推动纪检监察工作高质量发展目标，坚持稳中求进基本方针，履行好监督首要职责，围绕中心、服务大局，扎实做好当前各项工作，推动全面从严治党不断向纵深发展，为全市经济社会发展提供坚强有力保证。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>137</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2024/6/26/art_46736_10350904.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['6月25日下午，市政府党组理论学习中心组围绕习近平总书记关于全面加强党的纪律建设的重要论述和《中国共产党纪律处分条例》进行集体学习。', '市委副书记、市长、市政府党组书记李兰祥主持会议并讲话，市政府党组成员常绪扩、唐传营、马保文、刘钦海参加学习。副市长冯能斌列席会议。', '会上，常绪扩、唐传营分别围绕深入学习习近平总书记关于全面加强党的纪律建设的重要论述、《中国共产党纪律处分条例》，紧扣党的政治纪律、组织纪律、廉洁纪律、群众纪律、工作纪律、生活纪律作了研讨发言，其他同志作书面交流。', '李兰祥在总结讲话时指出，要严守政治纪律，坚定政治信仰，筑牢政治忠诚，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，坚决维护党中央权威和集中统一领导，推动党中央决策部署和省委、市委工作要求在政府系统不折不扣落地落实。要严守组织纪律，不断提高科学决策、民主决策和依法决策水平，严格执行新形势下党内政治生活的若干准则，认真落实重大事项请示报告、双重组织生活会等制度，坚决按组织原则和组织程序办事，以实际行动维护党的纪律的严肃性和权威性，永葆共产党员的政治本色。要严守廉洁纪律，时刻绷紧纪律之弦、守牢廉洁底线，不断增强遵规守纪的思想自觉和行动自觉，始终保持一身正气、两袖清风的律己之心，着力营造风清气正的政治生态。要严守群众纪律，牢固树立以人民为中心的发展思想，传承弘扬好“四下基层”优良作风，深入基层、深入群众、深入企业，努力让各项工作更贴近群众实际，更符合群众需求，努力践行以人民为中心的初心与使命。要严守工作纪律，以务实高效的工作作风推进政府各项工作顺利开展，牢牢把握高质量发展这个首要任务，切实推动经济社会高质量发展。要严守生活纪律，以身作则守住交往关、生活关、亲情关，做到明大德、守公德、严私德，塑造好党员领导干部的良好形象。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>137</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019-01-21</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/1/21/art_46736_4781736.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['1月18日上午，市政府党组理论学习中心组集体学习中央政治局民主生活会会议精神，切实把思想和行动统一到习近平总书记重要讲话和重要批示指示精神上来,统一到中央和省委、市委决策部署上来。', '市委常委、常务副市长展宝卫主持会议。市政府党组成员鞠向群、成丽、张红旗、赵德健、张韧出席会议。副市长袁久党列席会议。', '会议指出，中央政治局召开民主生活会为全党树立了标杆、作出了示范，习近平总书记发表的重要讲话，立意高远、内涵丰富、语重心长，提出很多新的理论观点，具有很强的政治引领性、理论指导性和现实针对性，为我们在新时代加强党的建设提供了根本遵循。我们要深入学习领会、坚决贯彻落实习近平总书记重要讲话精神，立足泰安实际，把握新要求，推出新举措，把全面从严治党不断推向纵深。', '会议强调，要牢固树立“四个意识”，坚定“四个自信”，坚决做到“两个维护”，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。要用好用活民主集中制这一“法宝”，把民主集中制的优势转变成政治优势、组织优势、制度优势、工作优势。要严格贯彻执行中央八项规定及实施细则，深入整治形式主义、官僚主义和“四风”问题，保持优良的党风政风。要坚持问题导向，做好市政府党组民主生活会各项筹备工作，深入开展谈心谈话，深入查摆剖析，认真撰写对照检查材料，确保开出高质量、高标准的民主生活会。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>137</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2022-12-08</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/12/8/art_46737_10324705.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['12月7日下午，市政府党组理论学习中心组围绕《习近平总书记谈共同富裕》《扎实推动共同富裕》《习近平总书记安全生产批示》进行集体学习。市委副书记、市长、市政府党组书记张涛主持会议并讲话，政府党组成员常绪扩、姜宁、唐传营、窦清波、刘钦海参加学习。', '会议指出，要深刻认识共同富裕是中国式现代化的重要特征，准确把握共同富裕的基本原则，切实增强推进和实现中国式现代化道路的政治自觉，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。要坚决扛起“疫情要防住、经济要稳住、发展要安全”政治责任，锚定“走在前、开新局”奋斗目标，大力倡树“严、真、细、实、快”的工作作风，以昂扬的斗志、饱满的热情，全身心投入振兴泰安的实践中，努力推动各项工作走在前、开新局，在全面开创新时代社会主义现代化强市建设新局面中作出新贡献。要聚焦“收入分配、就业、教育、社会保障、医疗卫生、住房保障”等重点民生领域，坚持尽力而为、量力而行，持之以恒办好民生实事，加快补齐民生短板，提高公共服务水平，增强均衡性和可及性，努力让人民群众的获得感成色更足、幸福感更可持续、安全感更有保障。', '会议强调，要提高思想认识，带头深刻领悟“两个确立”的决定性意义，持续深入学习领会、贯彻落实习近平总书记关于安全生产工作的重要论述，深刻认识我市安全生产领域严峻复杂形势，牢固树立人民至上、生命至上理念，以“时时放心不下”的责任感，严格落实安全生产责任，盯紧盯牢、抓实抓细安全生产工作，坚决维护人民群众生命财产安全。要坚持“党政同责、一岗双责、齐抓共管、失职追责”，形成安全生产党政齐抓共管合力，要压实企业主体责任，切实打通安全生产“最后一公里”，确保压力传导、责任落实到基层末梢。要聚焦重点行业领域，针对反复出现的问题隐患，剖析深层次原因，研究采取更加精准措施，确保风险排查到位、隐患整治彻底，确保专项整治三年行动完美收官。', '会议还书面学习《告全党全军全国各族人民书》和习近平总书记在江泽民同志追悼大会上的悼词。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>137</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020-04-22</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/4/22/art_46736_9026189.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['4月21日上午，市政府党组理论学习中心组围绕《关于持续解决困扰基层的形式主义问题 为决胜全面建成小康社会提供坚强作风保证的通知》进行集体学习。', '市委副书记、市长、市政府党组书记张涛主持会议并讲话，市政府党组成员宋洪银、鞠向群、成丽、赵德健、张韧参加学习。', '张涛指出，中央下发《关于持续解决困扰基层的形式主义问题 为决胜全面建成小康社会提供坚强作风保证的通知》是统筹推进疫情防控和经济社会发展的现实需要，是深化拓展基层减负工作、关心关爱基层干部的重要举措。各级各部门要切实提高政治站位，深化思想认识，把思想统一到中央部署要求上来，把落实好《通知》要求作为一项重要政治任务来抓，切实做好为基层松绑减负各项工作。要持续减轻基层包袱，对存在的问题进行排查梳理，拉出单子，为解决问题打下坚实基础。要持续强化作风建设，细化《通知》中的要求和举措，拿出务实管用、简便易操作的硬措施、硬杠杠，抓好调查研究工作，进一步明确政府系统精文减会的标准和尺度。要持续创新工作机制，积极探索抓工作、促落实、强攻坚的措施办法，加强对基层党员干部的教育培训，不断提升基层干部公共服务、矛盾化解、应急管理工作水平，坚决打赢惩治形式主义的持久战。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>137</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2024-05-30</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2024/5/30/art_46736_10350558.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['5月29日下午，市政府党组理论学习中心组围绕习近平总书记视察山东重要讲话重要指示精神、习近平总书记重要署名文章《全面深化改革开放 为中国式现代化持续注入强劲动力》、习近平总书记在全国旅游发展大会上对旅游工作作出的重要指示等内容进行集体学习。', '市委副书记、市长、市政府党组书记李兰祥主持会议并讲话，市政府党组成员唐传营、窦清波、马保文、刘钦海参加学习。副市长冯能斌列席会议。', '会议强调，要进一步提高政治站位，把习近平总书记对山东工作的一系列重要讲话重要指示精神结合起来把握、贯通起来理解，始终对标对表、坚决贯彻落实。要进一步优化产业体系，坚持把发展经济的着力点放在实体经济上，持续提高工业发展质量效益和综合竞争力，加快构建具有泰安特色优势的现代化产业体系。要进一步全面深化改革、推进高水平对外开放，充分释放发展内生动力，增创高质量发展新优势。要进一步推进乡村全面振兴，建设更高水平“齐鲁粮仓”，大力发展现代农业和乡村特色富民产业。要进一步注重民生福祉，加快补齐基础设施、公共服务和民生保障短板。要进一步推进文化“两创”，着力做好“泰山+”文章，推动文旅深度融合发展。要进一步守住安全底线，更好统筹高质量发展和高水平安全。要进一步深化整治形式主义为基层减负，抓在日常、严在经常，以开展集中整治为切入点，集中解决一批群众身边问题。', '会议指出，要进一步保持改革锐气、增强改革韧劲、提高改革本领，确保中央决策部署和省委、市委工作要求落实落细、见行见效。要紧紧抓住建设山东省黄河流域生态保护和高质量发展先行区机遇，聚焦关键领域，以改革破难题、以开放促发展，不断增创经济社会高质量发展的新优势。要深刻领会、准确把握习近平总书记对旅游工作作出的重要指示，切实落实到谋划发展、推动工作的具体行动上，进一步统一思想、坚定信心、真抓实干，奋力开创我市文旅产业高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>137</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>市政府党组进行两学一做学习教育集体学习</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2016-08-26</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/8/26/art_46736_4062570.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['根据市委“两学一做”学习教育工作的总体安排，今天下午，市政府党组进行“两学一做”学习教育集体学习。市委副书记、市长李希信主持会议并讲话。', '市政府党组采取逐人领读、集体学习的方式原原本本学习了《党委会工作方法》和《中国共产党党组工作条例（试行）》。', '李希信在讲话中强调，《党委会的工作方法》是一篇加强党委领导班子建设、提升党的领导水平和执政能力的光辉文献，《中国共产党党组工作条例（试行）》是新形势下指导各级党组工作的根本指南和基本遵循。各级党员领导干部尤其是班子成员要认真学习、深刻领会、准确把握、抓好落实。要对照党委工作方法和党组工作条例，认真解决不适应、不符合的问题，进一步增强思想和行动自觉，着力在学习把握科学的领导艺术和工作方法、深刻理解其中蕴含的政治纪律和政治规矩上下功夫，全面加强党组班子思想政治建设、作风建设和能力建设，提高推动经济社会发展的能力和水平。要扎实做好下一步“两学一做”学习教育各项工作，进一步统一思想行动，明确总体要求，坚持问题导向，边学边改、即知即改，着力增强学习教育的针对性和实效性。要坚持“两手抓、两促进”，把学习教育同做好下半年各项政府工作结合起来，进一步加快工作节奏，加大工作力度，提升工作标准，提高工作效率，确保完成全年目标任务，以学习教育开展促进经济社会发展，以经济社会发展实际成效检验学习教育成果。', '市委常委、副市长刘卫东、周桂萍，副市长、市公安局长鞠向群，副市长成丽，市政府特邀咨询李际山出席会议。副市长徐恩虎、市政府特邀咨询张庆明列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>137</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>市委常委会进行两学一做学习教育集体学习</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2016-08-18</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/8/18/art_46736_4062519.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['根据市委常委会“两学一做”学习教育工作的总体安排，8月17日上午，市委常委会进行“两学一做”学习教育集体学习。', '市委书记、市人大常委会主任王云鹏主持会议并讲话，市委副书记、市长李希信，市政协党组书记、主席辛显明，市人大常委会第一副主任、党组书记陈刚及市委常委参加学习。', '常委会采取逐人领读、集体学习的方式原原本本学习了《党委会工作方法》和《中国共产党地方委员会工作条例》。', '王云鹏在讲话中强调，《党委会工作方法》是规范党内政治生活、严明政治纪律和政治规矩的需要，《中国共产党地方委员会工作条例》是新形势下指导地方党委工作的根本指南和基本遵循。各级党员领导干部尤其是市委常委要认真学习、深刻领会、准确把握，切实做到内化于心、外化于行。要扎实做好下一步“两学一做”学习教育各项工作，深入学习贯彻习近平总书记“七一”重要讲话精神，进一步统一思想行动，坚持问题导向，着力增强学习教育的针对性和时效性。要把学习教育同做好下半年工作结合起来，坚持“两手抓、两促进”，确保完成全年工作任务。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>137</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>市知识产权局学习省局长研讨学习班精神</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2016-09-18</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/9/18/art_46738_4050758.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['局长陈吉霞传达了省知识产权局局长于智勇在全省知识产权局局长研讨学习班上的讲话精神，并对省知识产权局部署的近期工作进行了通报。她强调，一要进一步提高全市专利申请的数量和质量。通过加大知识产权宣传培训、落实发明专利的资金引导及政策支持、强化专利中介服务等措施，加快提升发明专利申请的数量和质量，力争发明专利相关指标实现新的提升和突破。二要加大专利行政执法力度。通过日常执法和专项执法，加大对假冒专利案件的查处，及时调处专利纠纷，加强知识产权维权援助工作，切实维护专利权人的合法权益。三要扎实推进专利权质押融资工作。以省局在我市举办银企对接会为契机，推动企业和银行间的沟通和合作，促进小微企业质押融资工作的开展。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>137</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>市纪委理论学习中心组举行第九次集体学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2017-10-23</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/10/23/art_46736_4060462.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['10月18日下午，市纪委理论学习中心组举行第九次集体学习，学习贯彻十九大报告精神，重温《实践论》《矛盾论》等经典著作，开展学哲学用哲学学习研讨。市委常委、市纪委书记郝红主持会议。', '会议强调，十九大报告是以习近平同志为核心的党中央站在新起点面向新时代发出的坚持和发展中国特色社会主义的政治宣言和行动纲领，习近平新时代中国特色社会主义思想是马克思主义中国化的最新成果。全市纪检干部要把学习贯彻党的十九大精神作为当前和今后一个时期的首要政治任务，学深悟透、融会贯通，把思想统一到党的十九大精神上来，坚定“四个自信”，树牢“四个意识”，忠诚履职尽责。要把学习习近平新时代中国特色社会主义思想和学习马克思主义哲学经典著作结合起来，读原著、学原文、悟原理、重实践，汲取哲学智慧，养成哲学思维。要自觉学习和掌握辩证唯物主义和历史唯物主义，用马克思主义立场、观点、方法武装头脑、指导实践、开展工作。要善于抓主要矛盾和矛盾的主要方面，把准监督执纪问责工作的重点和着力点，更好地把握监督执纪问责工作规律，不断提升工作水平，推动全面从严治党向纵深发展。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>137</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2018-11-01</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/11/1/art_46736_4058056.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['10月30日下午，市政协党组理论学习中心组开展集体学习。市政协副主席马纯勇、程明，秘书长魏武出席会议。', '会议采取领读方式集体学习了中宣部《党委中心组学习参考》刊登的两篇文章：《风物长宜放眼量——从强国兴衰规律看我国面临的外部挑战》《不畏浮云遮望眼——经济全球化趋势不可阻挡》。', '马纯勇强调，这两篇文章具有很强的教育和指导意义，大家应该通过学习，在进一步坚定信心的基础上进行深刻研究，围绕供给侧结构性改革和新旧动能转换，在乡村振兴、生态文明建设等多个方面积极建言献策，同时，还要时刻保持政治意识、团结意识和大局意识，营造经济社会发展的良好氛围，为富裕文明幸福新泰安建设贡献更大的力量。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>137</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019-07-08</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/7/8/art_46736_6794581.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['7月3日，市政协党组理论学习中心组开展集体学习。市政协主席周桂萍主持会议并讲话，市政协副主席张庆明、刘君、姚霆、马纯勇、程明、孙岱峰，秘书长魏武出席会议。', '大家重点学习了中纪委办公厅“关于落实习近平总书记重要批示和中央八项规定精神的工作意见”通知精神及贯彻落实建议的汇报、人民日报社论《牢记初心使命，奋进复兴征程——热烈庆祝中国共产党成立九十八周年》、人民日报社论《新中国成立70年来——中国共产党执政基础不断夯实，始终保持旺盛的生机和活力》、山东省庆祝中国共产党成立98周年暨表彰大会精神、泰安市庆祝建党98周年暨新时代泰山“挑山工”先进集体、先进个人表彰大会精神等。', '周桂萍要求，要坚守初心使命，自觉用习近平新时代中国特色社会主义思想培根固本，让“四个意识”“四个自信”“两个维护”扎根于心，加强党性修养，锤炼忠诚干净担当的政治品格。要践行新时代泰山“挑山工”精神，主动寻标对标，自觉追标赶标，积极参与全市“七赛七比”活动，不断推动政协工作争先进位，争当推进改革发展的排头兵。要保持政治定力，严格落实中央八项规定精神，坚决反对形式主义、官僚主义，时刻保持共产党人的政治本色，树立政协组织的良好形象。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>137</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2020-06-10</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/6/10/art_46736_9188424.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['6月9日上午，市政府党组理论学习中心组围绕习近平总书记关于安全生产的重要论述进行集体学习。', '市委副书记、市长、市政府党组书记张涛，市政府党组成员成丽、赵德健、张韧参加学习。副市长袁久党列席会议。', '张涛指出，要深入学习、深刻领会习近平总书记关于安全生产的重要论述和重要指示批示精神，在统筹推进疫情防控和经济社会发展过程中，自觉落实“一岗双责”要求，认真抓好分管领域的安全生产工作，做好守土有责、守土负责、守土尽责，用实际行动和效果来践行和检验“两个维护”，切实担负起“促一方发展、保一方平安”的重大政治责任。', '张涛强调，要进一步增强底线思维和风险意识，始终绷紧安全风险防范这根弦，聚焦矿山、危险化学品、道路交通、建筑施工、城镇燃气、特种设备、消防重点行业领域，持续深入开展安全生产专项整治三年行动，在严、实、细、狠、准上狠下功夫，问题不解决不放过，隐患不消除不罢休，坚决守住安全底线，有效防范遏制各类安全生产事故。要进一步健全完善我市应急管理体制、应急救援指挥机制和群防群治体系，加强专业技术力量配备和现代科技手段运用，不断提升应对突发事件的能力和水平。要健全完善安全生产责任落实制度保障体系，构建齐抓共管、密切配合的安全生产工作格局，推动企业主体落实责任，堵塞安全生产漏洞，坚决杜绝重大安全事故发生，确保人民群众生命财产安全。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>137</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组集体学习研讨</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019-01-10</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/1/10/art_46737_4782829.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['1月9日上午，市政协党组理论学习中心组集体学习研讨。市政协主席周桂萍主持会议并讲话，副主席徐恩虎、张庆明、刘君、马纯勇、程明，秘书长魏武参加会议。', '会上，集体学习了“中共中央政治局民主生活会”新闻稿（新华社通稿），《习近平新时代中国特色社会主义思想三十讲》第二十八讲“毫不动摇把党建设得更加坚强有力”第一至第三方面，《中共山东省委关于认真学习宣传贯彻习近平总书记对大众日报创刊80周年重要指示精神的通知》，并围绕习近平总书记在中央政治局民主生活会上的重要讲话精神开展集体学习研讨，市政协党组成员分别进行了发言。', '周桂萍指出，习近平新时代中国特色社会主义思想，是马克思主义中国化的最新成果，也会随着社会主义实践不断丰富完善、不断进行发展。我们政协是政治组织，加强政治理论学习既是政治任务，也是自我内在要求，希望大家要按照习近平总书记和中央的要求，全面系统学习，及时跟进学习，联系实际学习，用以指导实践，特别是党组各位成员、各位领导同志，包括各委室的负责同志，要身体力行、以上率下，自觉做到廉洁自律，为政协机关党员干部、全体政协委员树立标杆。要继续按照从严从紧从实的标准，筑牢作风建设防线，巩固改进作风成果，严防“四风”反弹回潮，坚决打赢作风建设“持久战”。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>137</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2018-11-19</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/11/19/art_46736_4058118.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['11月16日上午，市政协党组理论学习中心组开展集体学习。市政协主席周桂萍，副主席马纯勇、程明，秘书长魏武出席会议。', '会议采取领读方式集体学习全国和省市民营企业座谈会精神、习近平总书记在首届中国国际进口博览会开幕式上的主旨演讲、省市中央环保督察“回头看”工作动员会议精神。', '周桂萍指出，围绕中心、服务大局是政协工作的主线和基本遵循。我们要深刻学习领会习近平总书记的重要讲话和中央、省市委有关会议精神，紧紧围绕市委决策部署，充分发挥自身优势，为推进民营经济发展和开展好环保督察“回头看”等积极履职建言。要通过民主协商、民主监督，督促全市为民营经济发展创造更好环境。要紧盯民营企业发展面临的难点、痛点、堵点，积极履职建言，为优化营商环境，促进民营经济发展作出新贡献。要站在讲政治的高度，深刻认识环保督察“回头看”的重要意义，以高度的责任感和使命感，全力配合做好督察“回头看”工作。要充分发挥政协联系面广的优势，向群众宣传好环保的重要性必要性和国家环保政策，推进环保治理和谐有序向前推进。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>137</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>张涛在市政府党组理论学习中心组集体学习</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020-04-09</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/4/9/art_46737_8995639.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['4月7日下午，市政府党组理论学习中心组围绕习近平总书记关于推进国家治理体系和治理能力现代化、关于统筹推进新冠肺炎疫情防控和经济社会发展工作、关于决战决胜脱贫攻坚等三个方面的重要论述和《党委（党组）落实全面从严治党主体责任规定》进行集体学习。', '张涛指出，要积极借鉴吸收这次疫情防控工作中社会治理探索出的经验做法，持续推进治理体系和治理能力现代化。要牢固树立制度意识，进一步深化“放管服”改革，加快制度创新和流程再造，推出一批对全市高质量发展有积极促进作用的制度体系和工作规范。', '张涛强调，要时刻绷紧疫情防控这根弦，抓好企业复工复产，有序推进生活秩序恢复，落实落细国家出台的一系列支持政策，强化“六稳”举措，坚决打赢疫情防控和经济社会发展“两场硬仗”。要以对人民群众高度负责的精神，克服疫情影响，全力补齐短板和弱项，决战决胜坚决打赢脱贫攻坚战，向党和人民交出一份满意答卷。', '张涛指出，《党委（党组）落实全面从严治党主体责任规定》为坚持和完善党的领导制度体系、推动全面从严治党向纵深发展提供了重要制度支撑，政府党组要始终用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，严格落实全面从严治党主体责任，建立健全长效机制，以实际行动树牢“四个意识”、坚定“四个自信”，以实绩实效做到“两个维护”。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>137</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>泰山区用学习强国知识竞赛打造学习新高地</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2019-10-22</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/10/22/art_46739_7409401.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['学而时习之，不亦说乎。10月21日下午，“不忘初心、牢记使命”2019年泰山区“学习强国”知识竞赛决赛在泰山文化大厦一楼演播大厅举行。来自泰山区的35支代表队认真备战，用“学习强国”激发学习力量，用“知识竞赛”巩固学习成果。', '“学习强国”平台自上线以来，泰山区将学习平台的推广使用作为新形势下强化理论武装和思想教育的创新探索，作为推动习近平新时代中国特色社会主义思想入脑入心的重要举措。如何学好用好“学习强国”平台，成为全区广大党员干部群众最关心的话题，常学习、强学习成为大家的自觉行动。', '为全面贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，庆祝中华人民共和国成立70周年，进一步用好用实“学习强国”学习平台，检验学习效果，发掘和树立学习典型，以赛助学、以学促用，根据《泰山区庆祝新中国成立70周年系列文化活动实施方案》和“不忘初心、牢记使命”主题教育安排，泰山区委宣传部、区直机关工委等部门联合部署开展了“学习强国”知识竞赛。', '竞赛活动自启动以来，泰山区各级各部门积极响应、踊跃报名，共有35支代表队参与初赛。竞赛决赛共设置个人轮流答题、团队选择答题、团队抢答题以及团队风险答题四个环节，采用统一命题，现场打分。现场，参赛选手你追我赶，高潮迭起。经过紧张比拼，泰山区纪委监委、泰山区应急管理局、泰山区教育和体育局等8支代表队成功进入决赛。经过激烈角逐，最终评选出一等奖1个、二等奖2个、三等奖5个。此次竞赛充分调动了泰山区党员群众学习使用“学习强国”的积极性和主动性，形成了“以赛促学、以学促做、融会贯通”的良好学习氛围。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>137</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组集体学习</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2018-10-19</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/10/19/art_46736_4058020.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['10月18日下午，市人大常委会党组理论学习中心组开展集体学习。市人大常委会主任唐福泉，副主任张书盈、陶长江，秘书长李起峰参加会议。', '会议邀请市委党校党史党建教研部副主任、教授孟凡强围绕新修订的《中国共产党纪律处分条例》作辅导报告。', '会议指出，新修订的《中国共产党纪律处分条例》是对坚持和加强党的全面领导、全面加强党的纪律建设作出的再部署、再动员，是从严治党的重大举措，是党内政治生活的大事。市人大常委会机关全体党员干部要充分认识条例的重大意义，进一步严明政治纪律和政治规矩，自觉做到在政治立场、政治方向、政治原则、政治道路上同以习近平同志为核心的党中央保持高度一致，做到令行禁止；要加强学习，采取多种形式认真研读，领会精神实质，把握各项要求，坚决做到忠诚担当、遵纪守法、清正廉洁；要强化组织，严格执行条例，把制度优势转化为治理效能，驰而不息抓好党风廉政建设，推动机关形成风清气正的良好环境，为推进人大各项职能充分发挥提供有力保障。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>137</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展专题学习研讨</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022-01-05</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/1/5/art_46737_10307270.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['近日，市政协党组理论学习中心组开展专题学习研讨。市政协党组书记、主席郭德文主持会议并讲话，市政协党组副书记、副主席姚霆，党组成员、副主席马纯勇、程明，党组成员、秘书长李诚实参加学习。市政协副主席张庆明列席会议。', '会议领读学习习近平总书记关于党史学习教育的重要指示及党史学习教育总结会议精神；省纪委机关、省委组织部、省委党史学习教育领导小组转发《中共中央纪委机关、中共中央组织部、党史学习教育领导小组关于认真开好党史学习教育专题民主生活会的通知》，围绕深入学习贯彻习近平总书记重要指示精神和党史学习教育总结会议精神以及全面从严治党主题进行学习研讨，党组成员紧密联系思想和工作实际作了交流发言。', '郭德文强调，要坚持不懈加强理论武装，强化思想政治引领，把学习贯彻习近平总书记重要指示和党史学习教育总结会议精神，与党的十九届六中全会、习近平总书记“七一”重要讲话精神和关于党史的重要论述等结合起来，做到融会贯通。要充分认识加强政协系统党的建设的重要性、全局性和长期性，纵深推进全面从严治党，提高党建工作水平。要准确把握市委全会精神，倾力服务发展大局，引导委员在提案、大会发言中找准切入点和着力点，高质量筹备好政协全会。要严守政治纪律和政治规矩，维护良好政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>137</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行集体学习研讨</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021-01-12</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/1/12/art_46737_10285585.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['1月11日上午，市政府党组理论学习中心组围绕“深入学习贯彻习近平新时代中国特色社会主义思想，学习贯彻党的十九届五中全会精神”进行集体学习研讨。', '市委副书记、市长、市政府党组书记张涛，市政府党组成员宋洪银、鞠向群、成丽、赵德健参加学习。副市长袁久党列席会议。', '会议强调，要在学懂弄通做实习近平新时代中国特色社会主义思想上下足功夫，始终把深学笃行习近平新时代中国特色社会主义思想作为一项长期的重大政治任务，持续加强理论武装、提高政治能力、强化政治担当，把学习成效转化为增强“四个意识”、坚定“四个自信”、做到“两个维护”的具体行动，转化为应对风险挑战、推动事业发展的能力和水平，全力开创各项工作新局面。要结合泰安实际抓好党的十九届五中全会精神贯彻落实，精心谋划泰安“十四五”发展，无缝衔接做好今年的开局工作，毫不松懈抓好常态化疫情防控，把学习贯彻全会精神的成果转化为谋划发展的正确思路、推动落实的具体举措、解决问题的实际成效，确保党中央决策部署在泰安落地落实。要深入学习贯彻中央政治局民主生活会精神，对标对表中央政治局民主生活会，认真落实“三个对照”“三个摆进去”要求，聚焦规定的5个方面重点，高标准开好党组民主生活会。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>137</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>张涛参加市政府党组理论学习中心组集体学习</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/11/15/art_46736_7617882.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['11月13日下午，按照“不忘初心、牢记使命”主题教育的总体安排，市政府党组理论学习中心组围绕“强化政治纪律和政治规矩、廉洁自律”两个方面进行第四次集体学习研讨。', '市委副书记、市长、市政府党组书记张涛主持会议并讲话。市政府党组成员成丽、赵德健、张韧出席会议。', '张涛指出，强化政治纪律和政治规矩，必须要讲忠诚，做到坚定理想信念、永葆政治品格、服从组织决定，坚决贯彻中央决策部署和省、市委工作要求，不谈条件，不讲理由，确保政令畅通、令行禁止；必须要讲担当，保持昂扬奋进的工作激情，勇做新时代泰山“挑山工”，增强工作主动性，始终把责任扛在肩上，以时不我待、只争朝夕、勇立潮头、奋发有为的奋斗姿态和越是艰险越向前的斗争精神，大胆改革创新、勇于攻坚克难，以钉钉子精神抓好各项工作的落实；必须要讲责任，切实担好党风廉政建设之责和扛起经济社会发展之责，努力营造风清气正的政治生态，坚决抓好经济社会发展综合考核等近期重点工作，用实实在在的成绩为党尽职，为民造福；必须要讲廉洁，始终把纪律和规矩挺在前面，加强党性锻炼，持之以恒改进作风，努力建设“诚信、高效、创新、为民、务实、清廉”的高质量政府。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>137</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>市经贸委学习实践活动学习调研阶段工作安排</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2011-02-24</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2011/2/24/art_46699_4064952.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['2、开展调研，确定学习实践活动的主题和实践载体，明确学习实践活动要解决的突出问题。', '4、召开学习实践活动动员大会，对我委开展深入学习实践科学发展观活动进行动员和部署。', '统一思想，提高认识，端正态度，深刻理解开展学习实践活动的重要性、必要性、紧迫性，把学习实践活动摆上重要议程，高度重视、精心组织、周密安排、扎实推进，确保学习实践活动真正取得实效。', '1、各处科室、各单位要采取集中学习、个人自学、专题辅导、集体研讨等多种形式，落实好学习培训内容，加深对科学发展观理论的理解。', '2、提倡撰写读书笔记（不少于20篇）；每人撰写学习体会至少一篇。学习体会要紧密联系工作和思想实际，有分析、有见解，学习体会于3月30日前，交委领导小组办公室。', '2、制定调研方案。在处科室提供调研课题基础上，委确定重点调研课题，由委领导带队，深入基层开展调研，各处科室、单位的调研课题由处科长及单位负责人带队调研，听取企业、群众意见，提出解决问题的建议。', '3、调研报告要紧扣当前经济形势，突出分析现状、找准问题差距、理清发展思路、明确改进措施的重点。', '4、通过深入调查研究，开阔眼界，开阔思路，梳理出工业流通经济科学发展存在的突出问题，谋划解决方案。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>137</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>市委组织部机关理论学习中心组开展集中学习</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019-07-19</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/7/19/art_46736_6832484.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['7月16日，市委组织部机关理论学习中心组原文学习中央、省委“不忘初心、牢记使命”主题教育工作会议精神以及省、市有关文件精神。市委常委、组织部长高尚山主持会议并讲话。', '高尚山指出，第二批“不忘初心、牢记使命”主题教育将于9月正式启动，组织部门要先学一步、先改起来，为开展主题教育做好充分准备。要在统一思想、统一步调上见真见实，切实把思想和行动统一到中央和省委部署要求上来。要在真学真懂、真信真用上见真见实，持之以恒把学习贯彻习近平新时代中国特色社会主义思想抓在经常、引向深入、落到实处。要在调查研究、听取意见上见真见实，使调查研究的过程成为加深对党的创新理论领悟的过程、保持党同人民群众血肉联系的过程、推动事业发展的过程。要在上下联动、解决问题上见真见实，对照中央提出的8项和省委9项专项整治任务，拉出问题清单，逐一整改到位。要在超前谋划、及早准备上见真见实，充分做好各项准备工作，确保中央作出部署后及时启动、顺利推进。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>137</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组进行集体学习研讨</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2018-12-12</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/12/12/art_46736_4781627.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['12月11日上午，市政协党组理论学习中心组进行集体学习研讨。市政协主席周桂萍主持会议并讲话。副主席徐恩虎、张庆明、马纯勇、程明，秘书长魏武参加会议。', '与会人员集体学习了习近平总书记在参观“伟大的变革—庆祝改革开放40周年大型展览”时的重要讲话精神，《人民政协是具有中国特色的制度安排——改革开放40年人民政协事业发展的主要成就和经验》理论文章，传达了《关于扎实开展“埋头苦干、争创一流，勇做新时代泰山‘挑山工’”主题实践活动的实施方案》。党组成员围绕贯彻落实习近平总书记视察山东重要讲话重要指示批示精神，巩固和深化中央巡视山东反馈意见的整改成效，进行了集体研讨。', '周桂萍强调，当前我市改革发展正处在爬坡过坎的关键阶段。作为政协组织，要紧紧围绕党委中心工作，加强对重点问题的分析研究，特别是影响泰安长远的动能转换、供给改革、乡村振兴、三大攻坚、项目建设、民营经济、财源建设等重点工作，要列好题目，有分工，有措施，有责任，专题研究，专项突破。同时，要结合当前工作形势，研究好明年的协商重点、调研重点，研究制定好政协机关“勇做新时代泰山挑山工主题实践活动方案”，认真落实好各项工作职责，确保全市政协工作顺利推进。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>137</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>市政府党组举行两学一做学习教育集体学习暨党组理论学习中心组集中研讨会</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2016-08-01</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/8/1/art_46736_4062456.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['泰安市人民政府 今日泰安 市政府党组举行“两学一做”学习教育集体学习暨党组理论学习中心组集中研讨会', '根据市委“两学一做”学习教育工作的总体安排，29日下午，市政府党组举行“两学一做”学习教育集体学习暨党组理论学习中心组集中研讨会。', '市委副书记、市长李希信主持会议并讲话。市委常委、副市长刘卫东、周桂萍，副市长陈湘安、展宝卫，副市长、市公安局局长鞠向群出席会议。市政府特邀咨询张庆明列席会议。', '市政府党组采取领读的方式，集体学习了《中国共产党廉洁自律准则》《中国共产党纪律处分条例》《中国共产党党员权利保障条例》以及《习近平总书记系列重要讲话读本（2016年版）》等内容，并对习近平总书记“七一”重要讲话精神进行专题研讨。', '李希信在讲话中指出，党规党纪是党章的延伸和具体化，明确规定了党员应当严格遵守的政治纪律和政治规矩，是规范党员行为的具体遵循。每一名党员干部都要认真学习党章和廉洁自律准则、纪律处分条例等党内法规，真正让规矩和制度入脑入心，明白哪些该做、哪些不该做，哪些可以做、哪些不能做，用制度规范约束自己的言行，坚守做人做事的底线。', '李希信强调，习近平总书记“七一”重要讲话通篇贯穿着解放思想、实事求是的思想路线,是一篇与时俱进、继往开来的马克思主义纲领性文献，具有重大现实意义和深远历史意义。我们要坚定对马克思主义的信仰、对共产主义的信念，坚定对中国特色社会主义的道路自信、理论自信、制度自信、文化自信，爱党、信党、护党、跟党走。要以讲话精神为指引,深入研究谋划深化改革、加快发展的思路措施，提高推动经济社会发展的能力和水平。要坚持一切为了人民、一切依靠人民，始终把人民满意作为我们一切工作的出发点和落脚点，倾听群众诉求，了解群众意愿，倾心尽力抓好与群众利益密切相关的各项工作，使改革发展成果更多更公平的惠及全市人民。要持续推进党组自身建设，严格落实“两学一做”有关要求，持之以恒改进作风，在全市政府系统党员干部队伍中营造讲道德、重修养、尚清廉的良好风气。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>137</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组开展专题学习研讨</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2023/1/19/art_46736_10325843.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['按照中央决策部署和省委关于开好2022年度民主生活会的统一要求，18日下午，市政府党组理论学习中心组开展专题学习研讨。', '市委副书记、市长、市政府党组书记李兰祥主持会议并讲话，市政府党组成员常绪扩、姜宁、唐传营、刘峰梅、窦清波、马保文、刘钦海出席会议。副市长冯能斌列席会议。', '会议指出，习近平总书记在中央政治局召开的民主生活会上发表的重要讲话，高屋建瓴、内涵丰富，是对各级党员领导干部一次深刻的党性教育，是对加快推进中国式现代化伟大事业的科学指引，为各级领导干部砥砺党性修养、提升政治能力指明了努力方向。', '会议强调，要主动对标对表，以中央政治局民主生活会为标杆，认真筹备开好市政府党组民主生活会，从严从实抓好各个环节，把讲政治的要求体现在谈心谈话、查摆问题、对照检查、批评与自我批评全过程，真正使民主生活会开出政治性、思想性、原则性，达到统一思想、明确方向、提升战斗力的目标，为全市政府系统各级党组织作出示范，确保高质量开好2022年度民主生活会，切实把中央决策部署和省委、市委工作要求落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>137</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>李希信出席市委理论学习中心组集体学习研讨</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2018-04-27</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/4/27/art_46736_4059043.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['4月26日下午，市委理论学习中心组深入学习习近平总书记对山东工作的重要讲话和指示批示精神，以及全省全面展开新旧动能转换重大工程动员大会和全市誓师大会精神，重点围绕实施新旧动能转换重大工程进行集体学习研讨。', '李希信在讲话中指出，加快推进新旧动能转换，是我市促进产业转型升级、实现高质量发展，努力在全省“位次前移、走在前列”的必由之路。各级党员干部特别是领导干部要切实担负起这个重大责任，深刻理解和把握加快新旧动能转换的重大现实和历史意义，切实增强不进则退的危机感、造福泰安的使命感，以奋发有为的斗志、破釜沉舟的勇气，坚决打赢这场事关泰安未来前途命运的关键战役。', '李希信强调，推进新旧动能转换，要重点把握好六个着力点和突破点。要抓好绿色产业集群培育，立足现有业态基础和优势，抓好“三强”企业培育，着力打造五大千亿级绿色低碳产业集群。要抓好招商引资和重点项目建设，及时跟踪研究把握全国的业态和形势，加强调度督导、跟踪督查和观摩考核，确保招商项目尽快落地，在建项目加快建成运营。要抓好生态泰安建设，重点以山水林田湖生态保护修复工程为抓手，做好各项工作，为加快新旧动能转换、实现绿色发展提供强大的战略支撑。要抓好“田园综合体”发展，把乡村振兴战略抓好，努力打造乡村振兴的泰安样板。要抓好科技创新平台建设，充分发挥优势，集聚各类创新资源，加大招才引智力度，推动更多科技成果在泰安转化。要抓好区域统筹发展，强化园区功能区布局，加大与省会同城布局的推进力度，加快由“城市经济”向“城市群经济”转型融合发展。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>137</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组召开专题学习会议</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018-05-23</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/5/23/art_46736_4059159.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['5月22日上午，市政府党组理论学习中心组召开专题学习会议，围绕习近平总书记在参加十三届全国人大一次会议山东代表团审议时的重要讲话进行集体学习研讨。市委副书记、市长、市政府党组书记李希信主持会议并讲话。', '李希信指出，习近平总书记参加山东代表团审议时，提出了新时代山东工作的总要求，着重就实施乡村振兴战略作了阐述，要求推动乡村产业振兴、人才振兴、文化振兴、生态振兴、组织振兴以及推动乡村振兴健康有序进行，打造乡村振兴的齐鲁样板。我市要统筹谋划，科学推进，尽快完成乡村振兴规划编制工作，切实把习近平总书记重要讲话精神转化为推动泰安乡村振兴的生动实践。', '李希信强调，习近平总书记的重要讲话，总揽全局、高屋建瓴、思想深邃、内涵丰富，要把握其思想内涵，吃透精神实质，切实把思想统一到习近平总书记重要讲话精神上来。要结合泰安实际抓好贯彻落实，着力实施好乡村振兴战略，着力加快新旧动能转换、推动高质量发展，着力打好防范化解重大风险、精准脱贫、污染防治三大攻坚战。要驰而不息加强作风建设，树立正确的政绩观，既要有“功成不必在我”的胸襟，又要有“建功时不我待”的斗志，紧紧围绕《政府工作报告》确定的各项重点任务，进一步细化推进方案，狠抓工作落实，确保完成全年经济社会发展各项目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>137</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>市委组织部机关理论学习中心组开展集中学习</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019-06-20</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/6/20/art_46736_6578325.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['6月18日，市委组织部机关理论学习中心组集中观看《泰山挑山工》文献政论片，并开展交流研讨。市委常委、组织部长高尚山主持会议并讲话。', '高尚山指出，《泰山挑山工》文献政论片是一张宣传泰安、推介泰山的崭新名片，是思想性和艺术性有机结合的文化大餐，是弘扬和传承泰山“挑山工”精神的生动教材，是激发“担当作为、狠抓落实”的强大动力。要把政论片作为党校主体班次必学教材，作为党员干部学习教育的重要内容，组织各级党组织和广大干部群众学习观看，让弘扬践行“挑山工”精神变成持久动力、形成浓厚氛围。', '高尚山强调，勇做新时代泰山“挑山工”，要领会实质、把握方向，努力践行、身体力行，勇于担当、破解难题。越是爬坡过坎，越要咬定青山、坚韧不拔；越是身处顺境，越要慎终如始、不敢懈怠；越是面对困难，越要敢于担当、勇挑重担，以永不懈怠、一往无前的精神状态，以坚韧不拔的意志和无私无畏的勇气，战胜前进道路上的一切艰难险阻，挑起职责使命，挑起组织重托，挑起群众信任。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>137</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>李希信参加市政府党组理论学习中心组学习研讨</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018-05-02</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/5/2/art_46736_4059060.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['4月27日下午，市政府党组理论学习中心组重点围绕“新旧动能转换”，深入学习习近平总书记对山东工作重要讲话及重要指示批示精神和全省全面展开新旧动能转换重大工程动员大会及全市誓师大会精神，并进行研讨。', '市委副书记、市长、市政府党组书记李希信指出，建设新旧动能转换综合试验区，是在我国改革开放40周年的重要历史时刻，以习近平同志为核心的党中央交给山东的重大任务，是国家战略的山东担当、山东发展的历史机遇，也是我们必须肩负的重大使命。各级要进一步深化认识，切实担负起这个重大责任，紧紧抓住这个重大机遇，积极迎接这个重大挑战，坚决打赢这场事关经济高质量发展的关键战役。', '李希信强调，推进新旧动能转换，要进一步把握关键，聚焦发力，重点抓好绿色产业集群培育，抓好招商引资和重点项目建设，抓好生态文明建设，抓好“田园综合体”发展，抓好科技创新平台建设，抓好区域统筹发展。新旧动能转换重大工程能否顺利展开，关键在于落实。各级要强化责任担当，充分发挥主动性、能动性和创造性，不断汇集新旧动能转换的强大合力；要提升素质能力，自觉加强学习，及时掌握国内外最新动态，以宽视野谋划新发展；要加快工作节奏，上紧发条，用事不过夜、案不压卷的态度来抓工作；要注重督查问效，建立健全督导督查、监测评估、考核问责等机制，真督实查，追责问效，确保各项任务落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>137</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020-12-02</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/12/2/art_46736_10077904.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['12月1日上午，市人大常委会党组理论学习中心组开展集体学习。市人大常委会党组书记、主任唐福泉，党组副书记、副主任张书盈，党组成员、副主任陶长江、曹步山，党组成员、秘书长朱杰参加学习。', '会议集体学习了中央全面依法治国工作会议精神、新华社学习材料《全面准确认识当前形势努力完成今年经济社会发展目标任务》《中国共产党机构编制工作条例》（以下简称《条例》），并研究贯彻落实意见。', '唐福泉要求，要把学习宣传贯彻中央全面依法治国工作会议精神特别是习近平法治思想，作为当前和今后一个时期的重大政治任务，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”，自觉把依法治国工作放在全市工作大局中来考虑、来谋划、来推进，与人大工作有机结合起来，确保习近平法治思想在人大各项工作中落实、落地。要坚持围绕中心、服务大局，做好人大年度收尾工作，做好市十七届人大六次会议筹备工作，及早谋划好明年的立法、监督、代表等工作，确保“十四五”开好局、起好步，推动新时代地方人大工作与时俱进、创新发展。要充分认识机构编制工作的重要性，扎实开展《条例》的学习宣传，准确掌握《条例》基本精神和主要内容，切实用《条例》统一思想、规范工作，以求真务实的作风坚决把党中央的各项决策部署不折不扣落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>137</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-07-30</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/7/30/art_46736_9479784.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['7月29日上午，市人大常委会党组理论学习中心组开展集体学习。市人大常委会党组书记、主任唐福泉，党组副书记、副主任张书盈，党组成员、副主任陶长江、刘学保、曹步山，党组成员、秘书长朱杰参加学习。市人大常委会副主任王淑玲列席活动。', '会议传达学习了习近平总书记在中央政治局第二十次、第二十一次集体学习时的重要讲话精神，《中共中央组织部关于认真学习贯彻习近平总书记在中央政治局第二十一次集体学习时重要讲话精神的通知》《泰安市深入贯彻习近平总书记重要指示精神勇做新时代泰山“挑山工”》，市委常委会扩大会议有关精神及新档案法有关内容，并进行学习交流。', '唐福泉对如何学习贯彻市委常委会扩大会议精神，做好人大工作，讲了意见和要求，要求市人大机关认真学习会议精神，结合年度工作要点，把立法、监督、视察、执法检查和代表工作同市委中心工作有机结合起来，突出重点，增强实效，确保与市委工作部署同频共振。要加大对民法典的学习宣传贯彻力度，增强贯彻实施民法典的政治自觉、思想自觉和行动自觉；扎实开展宣传教育，持续开展普法活动；认真抓好贯彻实施，更好地维护人民群众合法权益。要认真贯彻落实新时代党的组织路线，抓好学习、抓好制度、抓好队伍，确保党中央决策部署和省、市委要求在人大机关落实落地。要勇做新时代泰山“挑山工”，加强机关作风建设，扎实做好人大各项工作。要深入学习新档案法，准确把握精神实质，做好人大的档案工作。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>137</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习研讨</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2021-01-09</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/1/9/art_46736_10285484.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['1月8日上午，市政协党组理论学习中心组围绕深入学习贯彻习近平新时代中国特色社会主义思想，学习贯彻党的十九届五中全会精神，进行学习研讨。', '市政协党组理论学习中心组成员参加会议，围绕学习主题，结合前期自学内容，紧密联系思想和工作实际进行了交流发言。市政协党外副主席列席会议。', '会议要求，要持续深入学习贯彻习近平新时代中国特色社会主义思想，更加自觉地用习近平新时代中国特色社会主义思想武装头脑、指导实践，在学懂弄通做实上持续用力，加强专门协商机构建设，把人民政协制度优势转化为社会治理效能，不断巩固和发展大团结大联合局面。要认真做好民主生活会准备工作，以中央政治局民主生活会为标杆，落实市委安排部署，坚持从严从实要求，精心组织安排，开展严肃认真的批评和自我批评，确保民主生活会开出高质量好效果。要精益求精做好市政协十三届五次会议筹备工作，统筹做好安保和疫情防控工作，切实把各项筹备工作落细落实落到位，确保大会顺利召开、圆满成功。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>137</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2019-07-03</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/7/3/art_46736_6779367.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['7月2日上午，市人大常委会党组理论学习中心组开展集体学习。市人大常委会主任唐福泉主持会议并讲话，副主任张书盈、王淑玲、陶长江、曹步山，秘书长李起峰参加学习。', '会议重点学习了中央纪委办公厅《印发〈关于贯彻落实习近平总书记重要批示精神深入落实中央八项规定精神的工作意见〉的通知》精神及贯彻落实建议的汇报、关于印发学习贯彻《关于激励干部担当作为的若干措施》的通知、省委办公厅关于五起不按规定向省委请示报告重要事项的通报、党委中心组学习参考第3期和泰安市庆祝中国共产党成立98周年暨新时代泰山“挑山工”先进集体先进个人表扬大会精神。', '唐福泉要求，市人大常委会党组和机关全体党员干部要进一步提高政治站位，深入学习习近平总书记近期就推动作风建设在新时代向纵深发展作出的重要批示精神，结合“不忘初心、牢记使命”主题教育，研究贯彻落实意见，推动作风持续改进。要积极开展弘扬新时代泰山“挑山工”精神和“七赛七比”活动，围绕市委的中心工作和全市大局，寻标对标，制定实施方案，切实提高人大工作的水平。要担当作为，干事创业，对于市委交办的重大改革事项和人大自身工作，大胆创新，担当尽责，努力开创人大工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>137</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组开展集体学习研讨</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2019-08-13</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/8/13/art_46736_6939530.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['8月12日上午，市政府党组理论学习中心组召开会议，围绕龚正省长在省政府第43次常务会议上的讲话等内容开展集体学习研讨。市委副书记、市长、市政府党组书记张涛主持会议并讲话。市政府党组副书记展宝卫，市政府党组成员鞠向群、成丽、赵德健、张韧出席会议。副市长袁久党列席会议。', '张涛指出，目前，全年时间已过大半，抓好今后几个月的工作至关重要。我们要紧紧围绕省委确定的“八大发展战略”，按照“抓准、抓细、抓实”的工作要求，聚焦聚力新旧动能转换、产业升级、“双招双引”、项目建设、流程再造、制度创新等重点工作，出实招、硬招、管用的招，大干三季度，决战四季度，确保如期完成确定的重点工程，确保圆满完成人代会确定的目标任务，确保在省考核中能够保七进位。', '张涛强调，要抓好有效投资，强化“双招双引”和重点项目建设，深入研究提高项目的“亩均效益”“亩均投资”的措施办法，提高招引项目的“含金量”，用好“新动能重大项目可视化督导服务平台”，切实解决好企业和项目单位反馈的问题。要抓好产业转型升级，加快十一个产业规划的组织实施，集中力量抓好“双50强”企业培育，持续强化对实体经济的金融支持，加快实施乡村振兴战略。要抓好流程再造，纵深推进“一窗受理·一次办好”改革，加快实现政务大厅“一窗受理”、关联事项“一链办理”、政务服务“一网通办”、政务热线“一线联通”、贴心帮办“一次办结”等“五个一”。要抓好脱贫攻坚、环保督察以及“回头看”反馈问题整改、“增信贷、降不良、打逃债、树诚信”专项行动三大攻坚战，着力办好“十件实事”，全面升级改造“12345”民生服务热线。要抓好责任落实，强化责任担当，咬紧牙关，自我加压，打紧板、往前冲，争一流、求突破，确保圆满完成年初确定的各项目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>137</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市委常委会进行两学一做学习教育集体学习研讨</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2016-07-07</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/7/7/art_46736_4063226.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['根据市委常委参加“两学一做”学习教育有关工作安排,市委常委会7月6日下午进行集体学习,重点学习《中国共产党章程》之总纲及部分内容,《习近平总书记重要讲话文章选编》之《认真学习党章，严格遵守党章》、《严明政治纪律，自觉维护党的团结统一》等文章。', '市委书记王云鹏主持会议,市委副书记、代市长李希信，市人大常委会第一副主任、党组书记陈刚及市委常委出席会议。', '王云鹏就做好“两学一做”学习教育工作提出要求。他指出，市委动员部署“两学一做”学习教育以来，全市各级党组织和广大党员干部认真贯彻中央和省委、市委工作要求，学习教育总体开局良好、进展有序。下一步，各级要按照市委《工作方案》的部署，强化措施，狠抓落实，推动学习教育深入开展。要坚持领导带头，从市委各常委做起，各级党员领导干部要发挥好示范引领和传导带动作用。要坚持即知即改，将解决问题贯穿学习教育全过程，确保学习教育不走过场、收到实效。要两手抓、两促进，把学习教育同做好改革发展稳定各项工作结合起来，努力把学习教育成果转化为推动发展的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>137</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组进行集体学习</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/4/1/art_46736_5155435.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['3月29日下午，市人大常委会党组理论学习中心组进行集体学习。市人大常委会副主任张书盈主持会议并讲话，副主任陶长江，秘书长李起峰参加学习。', '会议采取逐人领学、集体学习的方式，重点学习了习近平总书记在省部级主要领导干部坚持底线思维着力防范化解重大风险专题研讨班上的重要讲话精神、《中共中央关于加强党的政治建设的意见》和《保密违法违纪行为处分建议办法》。', '张书盈要求，市人大常委会及机关全体党员干部要深刻领会、贯彻落实好习近平总书记重要讲话精神和《中共中央关于加强党的政治建设的意见》要求，强化人大常委会机关“首先是政治机关”的意识，在工作生活中时刻对标查摆，整改短板弱项，不断提高自身综合素质，在推动市人大机关全面加强党的政治建设中取得实效。要提高保密意识和法律意识，落实和强化保密责任，按照《保密违法违纪处分建议办法》开展保密工作，确保机关保密工作有序开展。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>137</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-12-18</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/12/18/art_46736_4781645.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['12月17日，市人大常委会党组理论学习中心组开展集体学习。市人大常委会主任唐福泉主持会议并讲话，副主任张书盈、陶长江、曹步山，秘书长李起峰参加学习。', '会议采取逐人领读的方式学习了《长期坚持、不断完善人民代表大会制度——改革开放40年坚持和完善人民代表大会制度的成就和经验》和《关于扎实开展“埋头苦干、争创一流，勇做新时代泰山‘挑山工’”主题实践活动的实施方案》。', '唐福泉指出，今年工作接近尾声，市人大常委会及机关要按照中央和省、市委重大决策部署，在创新发展、科学谋划、做实做细上下功夫，做好今年工作总结和明年工作安排。要围绕全市工作中心，强化人大监督“法律巡视”责任，增强监督实效，搞好立法、代表、人事任免等重要工作。要高度重视政治理论和业务学习，规范学习制度机制，做到学习有计划、有记录、有总结。要认真制定常委会机关主题实践活动实施方案，确保活动取得成效，在人大机关掀起勇做新时代泰山“挑山工”的热潮，形成埋头苦干、争创一流的良好工作氛围。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>137</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-12-26</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/12/26/art_46736_4781667.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['12月25日上午，市人大常委会党组理论学习中心组开展专题学习。市人大常委会主任唐福泉主持并讲话。', '学习通过逐人领读、集体学习的方式重点学习了《习近平扶贫论述摘编》部分章节内容；传达学习了习近平总书记在庆祝改革开放40周年大会上的讲话精神、山东省学习贯彻习近平总书记庆祝改革开放40周年重要讲话精神大会精神、鲁组发[2018)26号文件精神、市委十一届七次全体会议和泰安市市级机构改革动员大会精神。', '唐福泉说，习近平总书记的重要讲话为今后一个时期，做好人大各项工作提供了重要指导和遵循，市人大常委会党组和机关全体党员干部要认真学习领会习近平总书记重要讲话和省、市重要会议精神，将学习成果自觉用以指导和推进新时代人大工作。要把学习黄群、宋月才、姜开斌、王继才等4人的先进典型与大力弘扬新时代泰山“挑山工”精神结合起来，把学习激发出的动力注入推动泰安改革发展稳定各项工作中。要全力支持和维护好全市机构改革大局，结合新机构的成立和职能调整进一步规范和调整人大内部工作，确保人大工作适应新形势和新要求。', '市人大常委会副主任张书盈、陶长江、曹步山，秘书长李起峰出席会议，副主任王淑玲列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>137</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>市委组织部机关理论学习中心组开展集中学习</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-02-22</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/2/22/art_46738_4781615.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['2月20日，市委组织部机关理论学习中心组集体学习习近平总书记在十九届中央纪委三次全会上重要讲话精神，全文传达刘家义同志在省十三届人大二次会议闭幕时的讲话。市委常委、组织部长高尚山传达市委常委会扩大会议精神并讲话。', '高尚山指出，要深入学习贯彻习近平总书记重要讲话精神和省“两会”精神，坚持推动全面从严治党向纵深发展不动摇，加强领导班子政治建设思想建设，锻造勇于担当、敢于斗争的高素质干部队伍，筑牢党执政的组织基础和群众基础，驰而不息反“四风”、转作风，着力解决好形式主义、官僚主义问题。要坚持打好打响泰山“挑山工”品牌不懈怠，按照总书记重要指示精神和省委、市委部署要求，建好泰山“挑山工”党性教育基地，推进“五个一”总体思路落实落地。要坚持不懈以实际行动贯彻好省“两会”精神，抓好勇做新时代泰山“挑山工”主题实践活动，组织好党员干部的学习贯彻，筹备开好全市组织部长会议，推动省“两会”精神在泰安落地生根、开花结果。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>137</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展专题学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2018-08-27</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/8/27/art_46737_4055506.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['8月24日上午，市人大常委会党组理论学习中心组组织专题学习。市人大常委会主任唐福泉主持并讲话，副主任王淑玲、陶长江、曹步山，秘书长李起峰参加学习活动。', '专题学习通过逐人领读、集体学习的方式重点学习了《习近平谈治国理政》第二卷部分章节。', '唐福泉指出，《习近平谈治国理政》第二卷学习资料，是新时代加强政治理论学习的重要资料，市人大常委会党组和机关全体党员干部要强化学习，把握学习这个重要任务和课题，在学懂弄通上下功夫，坚持系统学、深入学，建立行之有效的学习机制，形成学习常态化；要抓好机关各党支部学习，引导广大党员干部带着感情学、带着使命学、带着责任学，不断增强理论素养和实际工作能力；要结合人大工作实际，把学习成果转化为推进全市人大工作的实际举措和具体行动，结合人大工作定位和特点，做到学以致用、用以促学、学用相长，推动人大工作创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>137</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行第十次集体学习</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2022-09-24</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/9/24/art_46736_10319004.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['市委副书记、市长、市政府党组书记张涛主持会议并讲话，政府党组成员常绪扩、唐传营、刘峰梅、窦清波、刘钦海参加学习。', '张涛指出，要着力提升知识产权运用能力，重点扶持转化一批市场前景好、科技含量高、符合我市产业发展方向的优秀专利技术项目，为新型工业化强市建设提供充足的要素保障。要强化知识产权全链条保护，深入开展执法专项行动，维护公平有序的市场竞争环境。要充分发挥各级知识产权工作领导小组作用，协调好各方力量，构建大保护工作格局。', '张涛强调，掌握历史主动，担当时代使命，必须一以贯之坚持党的全面领导，在思想上政治上行动上全方位向习近平总书记看齐、向党中央看齐，把对党忠诚作为首要政治品质和干事创业的根本政治前提，不折不扣落实中央重大决策部署；必须一以贯之学习贯彻习近平新时代中国特色社会主义思想，把《习近平谈治国理政》第四卷与前三卷、与习近平总书记系列重要讲话精神结合起来，系统学、全面学，不断提高运用党的创新理论的能力和水平；必须一以贯之走中国式现代化道路，保持战略定力，认真落实未来5年战略任务和重大举措，向着建设新时代社会主义现代化强市目标扎实迈进；必须一以贯之坚持人民至上，努力让人民群众的获得感成色更足、幸福感更可持续、安全感更有保障；必须一以贯之深化全面从严治党，全力提升管党治党水平，切实做好全市机关作风集中整顿活动“后半篇”文章，坚决守好安全生产、生态环保、疫情防控、金融安全、粮食能源、社会稳定等一排“底线”，为党的二十大胜利召开营造国泰民安的社会环境。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>137</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020-03-17</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/3/17/art_46737_8928861.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['3月16日上午，市人大常委会党组理论学习中心组开展集体学习，围绕习近平总书记关于推进国家治理体系和治理能力现代化、关于统筹推进新冠肺炎疫情防控和经济社会发展工作、关于决战决胜脱贫攻坚等三个方面的重要论述进行学习研讨。市人大常委会党组书记、主任唐福泉，党组副书记、副主任张书盈，党组成员、副主任陶长江、刘学保、曹步山，党组成员、秘书长朱杰参加会议。市人大常委会副主任王淑玲列席会议。', '唐福泉要求，要深刻领会学习好习近平总书记的重要讲话精神，切实把思想和行动统一到党中央决策部署和省委、市委工作要求上来，紧紧围绕疫情防控和经济社会发展大局，强化立法工作主导，坚持问题导向开展监督，拓宽代表发挥作用渠道，依法履职尽责，以人大工作的实际成效推动制度优势更好转化为防控和治理效能。要通过听取专项工作报告、开展执法检查和专题调研等方式，助力政府部门落实好中央提出的分区分级精准复工复产的各项政策和部署，支持好人大机关“四进”工作组、“第一书记”有关工作，依法行使好人大职权。要强化政治担当，对全面落实低保、医保、教育、养老保险、特困人员救助供养等社会保障政策的情况，开展监督检查，提出意见建议，充分发挥好人大代表的示范表率作用，为全市脱贫攻坚作出人大积极的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>137</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展专题学习</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2018-08-09</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/8/9/art_46736_4058329.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['8月8日上午，市人大常委会党组理论学习中心组组织专题学习。市人大常委会主任唐福泉主持并讲话，副主任张书盈、王淑玲、陶长江、曹步山，秘书长李起峰参加学习。', '专题学习通过逐人领读、集体学习的方式重点学习了党的十九大报告摘要、《习近平谈治国理政》第二卷部分章节，传达刘家义书记在省十三届人大代表初任学习班上的讲话精神。', '唐福泉要求，要坚持和完善学习制度，健全完善常委会党组理论中心组学习制度，明确学习时间、内容、形式、效果。党组成员要带头执行学习制度，指导带动机关学习，努力建设学习型机关。要注重学习效果，发扬理论联系实际的马克思主义学风，把学习的着眼点聚集到研究和解决实际问题上。要把加强调查研究摆在突出位置，作为学用结合的重要抓手，努力做到民有所呼、我有所应。要在学懂弄通做实上下功夫，把习总书记的重要讲话精神和指示要求落实到人大工作的全过程和各方面，切实把讲话精神转化为推进全市人大工作和建设的实际举措和具体行动。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>137</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展专题学习</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2018-10-24</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/10/24/art_46736_4058033.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['市人大常委会主任唐福泉主持并讲话。专题学习通过逐人领读、集体学习的方式重点学习全国人大委员长栗战书同志在深入学习贯彻习近平总书记关于坚持和完善人民代表大会制度的重要思想交流会上的讲话等学习材料。', '唐福泉指出，栗战书同志的讲话从三个方面对习近平总书记关于坚持和完善人民代表大会制度的重要思想的主要内容、重要意义和怎样学习贯彻作出了动员和部署，从十个方面对习近平总书记关于坚持和完善人民代表大会制度的重要思想的主要内容作了阐述，这是我们开展地方人大工作的重要遵循。市人大常委会党组和机关全体党员干部要全面、持续、深入地学习领会和把握栗战书同志讲话精神，把学习成果自觉用以指导和推进新时代人大工作。要紧扣大局，勇于担当，求真务实，进一步做好立法工作，加大监督工作力度，对年度工作进行梳理，作出科学安排，细化工作任务，明确工作措施，确保年度计划高质量完成。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>137</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021-11-10</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/11/10/art_46737_10305227.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['11月9日，市人大常委会党组理论学习中心组开展集体学习，围绕深刻领会习近平总书记在深入推动黄河流域生态保护和高质量发展座谈会上的重要讲话精神和视察山东重要指示要求，开展专题学习研讨。市人大常委会党组书记、主任唐福泉，党组副书记、副主任张书盈，党组成员、副主任刘学保、曹步山、辛海明，党组成员、秘书长朱杰参加会议。市人大常委会副主任王淑玲列席会议。', '唐福泉要求，要提高政治站位，切实把思想和行动统一到习近平总书记重要讲话精神和重要指示要求上来，迅速掀起学习贯彻热潮，以实际行动增强“四个意识”、坚定“四个自信”、做到“两个维护”。要牢记嘱托要求，立足职能职责，充分运用听取审议专项工作报告，开展执法检查、视察调研、专题询问，督办相关代表建议等方式，把推动黄河流域生态保护和高质量发展的各项任务贯彻落实到人大工作的方方面面。要依法履职尽责，坚持围绕中心、服务大局，积极践行全过程人民民主，坚持依法行使职权，切实加强人大自身建设，推动人大工作创新发展。要抓实当前工作，认真开展各项工作“回头看”，高质量完成本年度、本届人大各项工作，统筹谋划好明年工作，做好县、乡人大换届工作及市十七届人大常委会第四十一次会议准备工作，实现圆满收官。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>137</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市委常委会举行两学一做学习教育集体学习暨市委理论学习中心组集中研讨会</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2016-07-15</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/7/15/art_46736_4062354.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['泰安市人民政府 今日泰安 市委常委会举行“两学一做”学习教育集体学习暨市委理论学习中心组集中研讨会', '根据市委常委会“两学一做”学习教育工作的总体安排，近日，市委常委会举行“两学一做”学习教育集体学习暨市委理论学习中心组集中研讨会。', '市委书记、市人大常委会主任王云鹏主持会议并讲话，市委副书记、市长李希信，市政协党组书记、主席辛显明，市人大常委会第一副主任、党组书记陈刚及市委常委出席会议。', '市委常委会采取领读的方式，集体学习了《中国共产党廉洁自律准则》《中国共产党纪律处分条例》《中国共产党党员权利保障条例》以及《习近平总书记重要讲话文章选编》之《加强纪律建设，把守纪律讲规矩摆在更加重要的位置》，并对习近平总书记“七一”重要讲话精神进行了专题研讨。', '王云鹏在讲话中指出，党规党纪是党章的延伸和具体化，明确了党员追求的高标准和管党治党的戒尺，关键要在学习贯彻执行上狠下功夫，弄清楚自己该做什么、不该做什么，能做什么、不能做什么，知边界、明底线，把他律要求转化为内在追求，养成纪律自觉。市委常委会一班人要以更高的标准知纪、懂纪、崇纪、守纪，在守纪律、讲规矩上以身作则，发挥好表率作用。', '王云鹏强调，习近平总书记“七一”重要讲话通篇贯穿着解放思想、实事求是、与时俱进的思想路线,是党的重要理论创新成果，具有重大的现实意义和深远的历史意义。我们要把学习贯彻讲话精神，作为当前和今后一段时期的重大政治任务,紧紧围绕“不忘初心、继续前进”这一新的时代要求,全面理解和准确把握讲话丰富内涵和精神实质,切实把思想和行动统一到习近平总书记“七一”重要讲话精神上来。要以讲话精神为指引,深入研究谋划我市在推进改革、加快发展，以及维护社会稳定、加强党的建设等方面的思路措施,坚决把习近平总书记的要求落到实处。要以学习贯彻讲话精神为动力,进一步激发广大党员干部群众干事创业的热情和干劲,不断把全市改革发展各项事业推向前进。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>137</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行第二次集体学习</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2019-10-21</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/10/21/art_46736_7405662.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['10月18日，按照“不忘初心、牢记使命”主题教育的总体安排，市政府党组理论学习中心组围绕“加强党的建设、全面从严治党”两个方面进行第二次集体学习研讨。市委副书记、市长、市政府党组书记张涛主持会议并讲话。市政府党组成员鞠向群、成丽、张韧参加会议。', '张涛指出，推进全面从严治党，必须把政治建设放到首位，始终把牢“风向标”，在强化理论武装上严起来，补足精神之钙、筑牢信仰之基；在规范政治生活上严起来，严格贯彻新形势下党内政治生活若干准则，用好批评与自我批评这一利器；在净化政治生态上严起来，始终同以习近平同志为核心的党中央保持高度一致，确保政府各项事业始终沿着正确的政治方向前进。', '张涛强调，推进全面从严治党，必须把纪律建设作为底线，不断筑牢“防火墙”，完善惩防体系，筑牢拒腐防变的制度防线和思想道德防线；强化廉洁自律，始终保持艰苦奋斗的优良作风，自觉抵制享乐主义、奢靡之风；严格落实责任，有力提升全市政府系统的党建工作水平。推进全面从严治党，必须把作风建设作为关键，持续凝聚“精气神”，在锤炼干部队伍、营造干事氛围、从严纠治四风、发挥带头作用上持续用力，激励党员干部干事创业、奋发有为，保持驰而不息纠治“四风”的高压态势，让党员干部扑下身子、迈开步子、走进基层，勤勤恳恳为民、兢兢业业干事。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>137</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>宁阳县委理论学习中心组围绕学史明理主题开展党史学习教育第一次专题学习研讨</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2021-05-11</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2021/5/11/art_46739_10292225.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['泰安市人民政府 县市区动态 宁阳县委理论学习中心组围绕“学史明理”主题开展党史学习教育第一次专题学习研讨', '5月8日，县委理论学习中心组围绕“学史明理”主题开展党史学习教育第一次专题学习研讨。中心组成员深入学习习近平总书记重要讲话精神和关于党的历史重要论述，赴徂徕山瞻仰抗日武装起义纪念碑，参观抗日武装纪念展室，听取党史讲解，接受初心洗礼。', '县委书记毕黎明，县委副书记崔媛及其他县委常委参加活动。市委巡回指导组县市区二组组长曲业芝、副组长安原、成员刘英铸受邀参加。', '毕黎明等中心组成员来到徂徕山，怀着崇敬的心情瞻仰徂徕山抗日武装起义纪念碑，深切缅怀革命先烈。随后，他们来到徂徕山抗日武装起义展室，重温党的革命斗争历程。通过近距离感受革命先烈的英雄事迹和革命精神，大家深切感到要铭记历史，继承革命先烈的遗志，坚定理想信念，牢记党的宗旨，弘扬优良传统，在新时代担当作为、真抓实干，为全县经济社会高质量发展贡献自己的智慧和力量。', '在集体学习研讨时，毕黎明主持并作总结发言，崔媛、董骞、赵相鑫等作了交流发言，围绕“学史明理”专题，回顾党的历史，深刻阐述自己的学习体会。', '毕黎明指出，这次县委理论学习中心组专题学习，是贯彻落实中央和省委、市委关于开展党史学习教育部署安排的具体行动，也是发挥县级领导干部“关键少数”示范带动作用、推动我县党史学习教育走深走实的重要举措。要进一步学习好党的百年历史，加强研究思考，充分讨论交流，进一步统一思想、凝聚力量，为奋进新征程打下更加坚实的基础。', '毕黎明强调，要在学史明理中提高“两个维护”的自觉。旗帜鲜明讲政治，不断提高政治判断力、政治领悟力、政治执行力，坚定不移增强“四个意识”、坚定“四个自信”，做到“两个维护”。要加强理论武装，在学懂弄通做实习近平新时代中国特色社会主义思想上狠下功夫，领会其中的思想方法、工作方法，掌握破解难题、推动工作的“金钥匙”。要紧密结合宁阳实际，创造性地抓好落实，确保党中央各项决策部署和省市委工作要求在宁阳落地见效。要在学史明理中增强真抓实干的担当。从百年党史中把握规律、看清大势，不断汲取奋斗力量，坚定不移贯彻新发展理念、恪守为民宗旨、树牢底线思维，进一步调高标准、调快节奏、调优状态，以实干担当不断开创宁阳高质量发展新局面。要在学史明理中强化以上率下的意识。县委理论学习中心组成员在工作中要率先垂范，团结协作，心往一处想、劲往一处使，带领全县上下“聚精会神抓发展、万众一心建强县”。特别是在党史学习教育中，既要在“学”上站在前列，更要在“做”上走在前列，带领全县广大党员学得深、悟得透、干得实，更好地将党史学习教育过程中激发出来的爱党爱国热情、干事创业激情，转化为开创新局、建设强县的自觉行动。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>137</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组进行年第四次集体学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2022-03-18</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/3/18/art_46736_10309530.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['3月17日下午，市政府党组理论学习中心组围绕《习近平在中央党校（国家行政学院）中青年干部培训班开班式上的讲话》进行2022年第四次集体学习。', '市委副书记、市长、市政府党组书记张涛主持会议并讲话，市政府党组成员常绪扩、姜宁、唐传营、刘峰梅、马保文、刘钦海参加学习，副市长冯能斌列席会议。', '张涛指出，习近平在中央党校（国家行政学院）中青年干部培训班开班式上的重要讲话既是一堂深刻生动的党课，也是一次和年轻干部的深入谈心，系统阐明了广大干部特别是年轻干部锻炼成长的科学路径，为我们加强新时代干部队伍建设提供了重要遵循。我们要深入学习领会，内化于心、外化于行，持续在学懂弄通做实习近平新时代中国特色社会主义思想上下功夫。', '张涛强调，要坚定理想信念，做到对党绝对忠诚，争当“两个确立”的忠诚拥护者、“两个维护”的示范引领者，不断提高政治判断力、政治领悟力、政治执行力，在市委坚强领导下扎实开展工作，确保上级各项决策部署落地生根、开花结果。要严守纪法规矩，守住拒腐防变防线，时刻绷紧纪律和规矩这根弦，始终保持对权力的敬畏感，牢记清廉是福、贪欲是祸的道理，坚决守牢政治关、权力关、交往关、生活关、亲情关。要强化担当意识，做到知责履责尽责，牢固树立“守土有责、守土负责、守土尽责”意识，在各自的职责范围内，敢于协调、敢于表态、敢于拍板、敢于负责，依法依规推动各分管领域工作高效落实。要守牢为民初心，树立践行正确政绩观，时刻坚守“以人民为中心”的初心，切实把自己当作群众的一员、把群众的事当作自己的事，解决好群众的“急难愁盼”问题，让老百姓享受到发展的红利，得到更多的实惠。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>137</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>市委理论学习中心组学习习近平总书记重要讲话精神</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2019-01-07</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/1/7/art_46736_4781698.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['1月4日下午，市委理论学习中心组进行学习研讨，集体学习中央政治局民主生活会会议精神、《习近平新时代中国特色社会主义思想三十讲》部分内容和省委《关于认真学习宣传习近平总书记对大众日报创刊80周年重要批示精神的通知》，切实把思想和行动统一到习近平总书记重要讲话和重要批示指示精神上来,统一到中央和省委、市委决策部署上来,把我市各项工作不断推向深入。', '会上，中心组成员集体学习了有关学习内容，并紧密联系各自实际，围绕学习贯彻习近平总书记在中央政治局民主生活会上的讲话精神，作了交流发言。大家一致认为，中央政治局召开民主生活会，为全党树立了标杆、作出了示范。习近平总书记发表的重要讲话，立意高远、内涵丰富、语重心长，提出很多新的理论观点，具有很强的政治引领性、理论指导性和现实针对性，为我们在新时代加强党的建设提供了根本遵循。', '会议强调，要深入学习领会、坚决贯彻落实习近平总书记在中央政治局民主生活会上的讲话精神，立足泰安实际，把握新要求，推出新举措，把全面从严治党不断推向纵深。要牢固树立“四个意识”，坚定“四个自信”，坚决做到“两个维护”，不断强化政治责任，保持政治定力，把准政治方向，提高政治能力，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。要用好用活民主集中制这一“法宝”，把民主素养作为一种领导能力来培养，作为一门领导艺术来掌握，善于听取各方面意见，善于汇总各方面智慧，不断提升集体决策能力和水平，把民主集中制的优势转变成政治优势、组织优势、制度优势、工作优势。要持续深化作风建设，严格贯彻执行中央八项规定及实施细则，深入整治形式主义、官僚主义和“四风”问题，保持优良的党风政风。省委将今年确定为“工作落实年”，各级领导干部要担当实干、作出表率，勇于挑最重的担子，敢于啃最硬的骨头，按照责任分工狠抓工作落实，把中央和省委、市委部署的各项工作向深处、向细处、向实处扎实推进，确保党中央决策部署和省委要求在泰安落地落实、见到实效。要以中央政治局民主生活会为标杆，坚持问题导向，做好市委常委会民主生活会各项筹备工作，深入开展谈心谈话，深入查摆剖析，认真撰写对照检查材料，确保开出高质量、高标准的民主生活会。', '会议指出，党的十九大号召全党必须毫不动摇坚持和完善党的领导，毫不动摇把党建设得更加坚强有力。新形势下，各级要把抓好党建作为最大政绩，把党的政治建设摆在首位，思想建党和制度建党同向发力，统筹推进党的各项建设，严肃党内政治生活，严明党的纪律，强化党内监督，发展积极健康的党内政治文化，坚决纠正各类不正之风，以零容忍态度惩治腐败，不断增强党自我净化、自我完善、自我革新、自我提高的能力。', '会议指出，习近平总书记就大众日报创刊80周年作出重要批示，充分体现了对新时代宣传思想和新闻舆论工作规律的深刻把握，为我们做好新闻舆论和宣传思想工作指明了方向、提供了根本遵循。全市各级党组织特别是宣传思想和新闻舆论单位，要把学习宣传贯彻习近平总书记重要批示精神作为一项重要政治任务，认真领会好、坚决落实好，切实提高新闻舆论的传播力、引导力、影响力、公信力，努力开创新形势下宣传思想工作新局面，为全市改革发展稳定营造良好舆论氛围。各级党员领导干部要认真学习宣传贯彻习近平总书记重要批示精神，坚持党性原则、坚持正确政治方向，更加奋发有为地做好工作，在新时代展现新担当新作为。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>137</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展集体学习研讨</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2019-10-22</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/10/22/art_46736_7408585.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['10月21日下午，市人大常委会党组理论学习中心组开展集体学习研讨。市人大常委会主任唐福泉主持会议并讲话，市人大常委会副主任张书盈、王淑玲、陶长江、刘学保、曹步山，秘书长李起峰出席会议。', '会上，大家集中学习了党章、《中国共产党纪律处分条例》《关于新形势下党内政治生活的若干准则》中的部分内容，并围绕 " 加强党的建设、全面从严治党 " 开展交流研讨。', '唐福泉在讲话中指出，要不断深化理论武装，使理想信念融入血脉，铸入灵魂；要加强党的政治建设，自觉做政治上的明白人、老实人，绝不做两面派、两面人；要积极参加党内政治生活，不断增强自我净化、自我完善、自我革新、自我提高的能力，永葆共产党人政治本色；要紧紧围绕群众所思、所想、所盼来开展工作，铺下身子摸实情，设身处地解决问题；要严格落实中央八项规定及其实施细则精神和市委实施办法，重点整治形式主义、官僚主义等方面的突出问题，加大 " 庸懒散拖 " 整治力度，推动作风建设往深里抓、实里做，努力打造一支忠诚干净担当的高素质人大干部队伍。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>137</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展专题学习</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2017-10-17</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2017/10/17/art_46736_4060441.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['10月16日下午，市人大常委会党组理论学习中心组开展专题学习，深入学习贯彻习近平总书记“7.26”重要讲话和关于学哲学用哲学的重要指示精神，同时，对十九大期间的各项工作作了部署安排。市人大常委会主任唐福泉主持会议并讲话，副主任王淑玲、曹步山，秘书长李起峰参加活动。', '会上，市人大常委会党组理论学习中心组进行了集体学习，领读了学哲学用哲学专题的部分内容。', '唐福泉要求，市人大常委会党员领导干部要进一步发扬我们党学哲学用哲学的优良传统，切实把学习《实践论》《矛盾论》与学习习近平总书记系列重要讲话精神和治国理政新理念新思想新战略紧密结合起来。要强化实践观点，崇尚担当实干，在立法、监督、代表活动等各项工作中，强化辩证思维，全盘谋划工作，突出问题导向，着力解决群众反映强烈的突出问题和事关群众利益的重大问题。要把迎接党的十九大胜利召开作为当前重大政治责任，努力营造团结和谐的政治氛围，按照市委统一部署，切实把思想统一到十九大精神上来，把学习贯彻党的十九大精神迸发的热情，投入到我市民主法治建设中去，为推进富裕文明幸福新泰安建设提供法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>137</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展集体学习研讨</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2022-05-17</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/5/17/art_46738_10312422.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['5月16日下午，市政协党组理论学习中心组开展集体学习研讨，围绕深入学习习近平总书记关于全国政协开展委员读书活动的重要指示以及全国政协座谈会议精神，紧密结合实际，就“开展读书活动，建设书香政协”开展了专题学习研讨。市政协党组书记、主席武林中主持会议并讲话。市政协党组成员、副主席张步军、倪庆宾、董彦和，党组成员、秘书长杨承修出席会议。市政协副主席梁望东列席会议。', '会议领读学习中共中央政治局4月29日会议精神和中共中央政治局常务委员会5月5日会议精神、习近平总书记在博鳌亚洲论坛2022年年会开幕式上的主旨演讲精神、习近平总书记在庆祝中国共产主义青年团成立100周年大会上的重要讲话精神；传达学习习近平总书记致首届全民阅读大会举办的贺信、习近平总书记关于全国政协开展委员读书活动的重要指示和全国政协深入开展政协委员读书活动座谈会精神；传达学习《信访工作条例》。', '武林中强调，要精心谋划落实，推动形成良好读书学习氛围，丰富拓展读书学习渠道，把“书香政协”建设出泰山风采；要主动担当作为，牢牢把握协商主责主业，加强制度体系建设，强化责任落实；要聚焦中心任务，紧盯全年工作目标任务，特别是“双月协商”“数字政协”“书香政协”等各项重点工作，全力推动年度工作高质量开展。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>137</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展学习研讨</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-01-08</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/1/8/art_46736_4781703.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['1月7日，市人大常委会党组理论学习中心组组织学习研讨。市人大常委会主任唐福泉主持会议并讲话，副主任张书盈、王淑玲、陶长江、曹步山，秘书长李起峰参加活动。', '专题学习通过逐人领读、集体学习的方式重点学习了集体学习中央政治局民主生活会会议精神、《习近平新时代中国特色社会主义思想三十讲》部分内容和省委《关于认真学习宣传习近平总书记对大众日报创刊80周年重要批示精神的通知》。会上，中心组成员围绕学习贯彻习近平总书记在中央政治局民主生活会上的讲话精神，作了交流发言。', '唐福泉强调，要深入学习领会、坚决贯彻落实习近平总书记在中央政治局民主生活会上的讲话精神，立足人大实际，牢固树立“四个意识”，坚定“四个自信”，坚决做到“两个维护”；要用好用活民主集中制这一“法宝”，在组织生活、日常工作中，不断提升集体决策能力和水平；要持续深化作风建设，保持优良的党风政风，推进中央和省、市委决策部署落实落地；要坚持问题导向，做好人大常委会党组民主生活会各项筹备工作，确保开出高质量、高标准的民主生活会。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>137</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>张涛出席市政府党组理论学习中心组集体学习活动</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-07-02</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/7/2/art_46736_6697958.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['7月1日下午，市政府党组理论学习中心组围绕《中国共产党党组工作条例》和《重大行政决策程序暂行条例》进行集体学习。', '市委副书记、市长、市政府党组书记张涛主持会议。市政府党组成员展宝卫、鞠向群、成丽、张红旗、赵德健、张韧出席会议。副市长袁久党列席会议。', '张涛在总结讲话时指出，要充分认识《中国共产党党组工作条例》的重要意义，自觉把党组工作放到坚持和加强党的全面领导、坚决做到“两个维护”的政治高度来审视、谋划和推进，充分发挥党组把方向、管大局、保落实的重要作用，确保党始终成为中国特色社会主义事业的坚强领导核心；要认真学习领会《条例》的主要内容、精神实质和工作要求，切实把握好党组工作的重大政治原则和组织规范；要认真贯彻执行《条例》，确保党的基本理论、基本路线、基本方略在政府系统得到全面贯彻，党组及其成员要强化法治思维和政治担当，严格落实党的政治建设工作、党风廉政建设、意识形态工作等责任制，把政府系统党的建设抓紧抓实，严守政治纪律和政治规矩，弘扬党的优良传统作风，自觉接受监督，当好示范表率。', '张涛强调，要充分认识《重大行政决策程序暂行条例》施行的重大意义，切实增强依法决策意识，确保政府各项工作在法治轨道上运行；要深入学习掌握《条例》内容，对我市原有的重大行政决策程序进行修改完善，建立重大决策事项清单，健全政府决策制度，不断提高决策效率和决策质量；要抓好《条例》实施，全面规范重大行政决策行为，严格执行重大行政决策程序，进一步推进民主决策、科学决策、依法决策，努力建设“诚信、高效、创新、为民、务实、清廉”的高质量政府，打造一流的营商环境，为经济社会持续健康发展提供坚强法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>137</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组集体学习习近平谈治国理政</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2018-08-10</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/8/10/art_46736_4058337.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['8月9日下午，根据省市委部署要求，市政府党组理论学习中心组集体学习《习近平谈治国理政》第二卷第一部分内容。', '市委副书记、市长、市政府党组书记李希信主持会议并讲话。市政府党组成员鞠向群、成丽、张红旗、张韧出席会议。副市长袁久党列席会议。', '会上，市政府党组成员依次领读学习了《习近平谈治国理政》第二卷第一部分内容。李希信在总结讲话时强调，《习近平谈治国理政》第二卷生动记录了习近平总书记带领全党在新时代坚持和发展中国特色社会主义的辉煌历程，集中反映了习近平新时代中国特色社会主义思想的丰富内涵，鲜明体现了习近平总书记治国理政的思想方法、风格特点及作为大国领袖的风采。要通过各种形式认真搞好自学，切实把握思想内涵，吃透精神实质，真正做到学思践悟、学深悟透、学以致用。', '李希信要求，要深刻认识习近平新时代中国特色社会主义思想的真理力量和深远指导意义，紧跟党的理论创新步伐，坚定不移用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，全面贯彻党的基本理论、基本路线、基本方略，更好地推动全市各项事业阔步向前。要在全面深入系统学习《习近平谈治国理政》第二卷上下功夫，市政府党组成员要带头学、系统学、深入学，切实增强“四个意识”，坚定“四个自信”，坚决维护习近平总书记核心地位，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。要把学习成果转化为推动泰安发展的实际成效，着力加快新旧动能转换，着力抓好招商引资招才引智，着力优化营商环境，着力抓好民生事项，着力强化经济运行分析，努力推动全市经济社会发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>137</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组及机关开展集体学习</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2018-03-29</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/3/29/art_46736_4058919.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['3月28日上午，市人大常委会党组理论学习中心组及机关集体学习习近平总书记最新重要讲话指示精神和《监察法》的有关内容。', '市人大常委会主任唐福泉主持会议并讲话，副主任王淑玲、陶长江、曹步山，秘书长李起峰参加学习。', '集体学习采取逐人领读、集体学习的方式，重点学习“习近平总书记在十三届人大一次会议闭幕式上的讲话”、《习近平谈治国理政》有关部分内容、《监察法》有关内容。', '唐福泉希望常委会及机关全体干部职工要加强政治理论学习，牢牢把握正确政治方向，及时把习近平新时代中国特色社会主义思想最新成果、习近平总书记最新重要讲话指示精神等纳入学习范围，不折不扣贯彻落实市委决策部署，通过法定程序转化为全市人民的共同意志；要加强法律法规学习，牢固树立法治思维意识，努力做带头尊法学法守法用法的模范，结合人大工作实际，加强学习、深刻理解，把握学习重点和主要精神，做好宣传和实施工作；要加强业务政策学习，努力提高工作水平，协调推进“大学习、大调研、大改进”，在学思践悟中融会贯通，在学懂弄通上知行合一，抓好学习、调研、改进成果转化，创造性地推动人大各项工作开展。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>137</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>市委理论学习中心组进行集体学习学习习近平总书记在中央统战工作会议上的重要讲话精神</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2022-08-04</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2022/8/4/art_46737_10316764.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['泰安市人民政府 政务动态 市委理论学习中心组进行集体学习 学习习近平总书记在中央统战工作会议上的重要讲话精神', '市委理论学习中心组进行集体学习 学习习近平总书记在中央统战工作会议上的重要讲话精神', '8月2日，市委理论学习中心组进行集体学习，学习习近平总书记在中央统战工作会议上的重要讲话精神，研究贯彻落实意见。', '会议指出，今年是中国共产党统一战线政策提出100周年，习近平总书记系统阐释了党的十八大以来统战工作形成的新理念新思想新战略，用“十二个必须”明确了新时代党的统一战线工作重要思想的核心内涵，为我们做好新时代统战工作提供了根本遵循。全市上下要认真学习领会，坚决抓好贯彻落实。', '会议强调，要进一步统一好思想，深入学习贯彻习近平总书记关于做好新时代党的统一战线工作的重要思想，准确把握新时代爱国统一战线的历史方位，对照加强新时代统战工作的目标要求，坚持问题导向，进一步做好补短板、强弱项的工作，切实把“两个确立”的政治共识转化为“两个维护”的实际行动。要聚焦工作重点，结合泰安实际，牢牢把握新时代统战工作的重点工作，团结一切可以团结的力量，调动一切积极因素，努力形成工作合力。', '会议强调，全市各级各部门党委（党组）要履行好主体责任，各级党委书记要当好第一责任人，统战部门要做好牵头协调工作，各部门单位要齐抓共管，进一步完善大统战工作格局。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>137</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>党委理论学习中心组专题学习中国共产党纪律处分条例</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2018-10-15</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2018/10/15/art_165302_9746610.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['泰安市人民政府 政务公开工作部署及培训 党委理论学习中心组专题学习《中国共产党纪律处分条例》', '月12日下午，学院举行党委理论学习中心组学习会，专题学习新修订的《中国共产党纪律处分条例》。学院党委理论学习中心组成员、处级干部参加学习会。会议由党委书记闫恂秋主持。', '纪委书记刘光珍对新修订的《中国共产党纪律处分条例》进行了系统解读，介绍了《中国共产党纪律处分条例》四次制定或修订的过程，阐释了本次修订的背景和必要性，并从“一个思想”“两个坚决维护”“三个重点”“四个意识”和“四种形态”“五处纪法衔接”“六个从严”“七个有之”“八种典型违纪行为”等方面进行了深入解读。', '闫恂秋表示，新修订的《中国共产党纪律处分条例》根据新的形势、任务和要求，坚持问题导向，对条例予以修订完善，体现了强烈的政治性、时代性和针对性，使全面从严治党的思路举措更加科学、更加严密、更加有效。', '闫恂秋就学习贯彻落实新修订的《中国共产党纪律处分条例》，加强党的建设和开展好学院各项工作提出要求，一是要原原本本的学，对新条例内容进行逐条研究，充分领会新条例的重大意义；二是要联系实际，各级党员领导干部要结合工作实际，在各自岗位上有所思有所悟；三是要带着敬畏之心学，党员领导干部要习惯在高压线下工作生活，做到洁身自好、不存私欲贪心；四是结合巡察整改学，根据市委巡查组指出的问题认真整改，健全工作体制机制，推动学院全面从严治党向纵深发展。', '学习会上，与会人员集体观看警示教育片《失控的“雅好”》，剖析了山东省粮食局原副局长、党组成员王传民玩物丧志、迷失自我，利用职务之便违纪违法，最终成为阶下囚的典型案例。通过反面典型警示广大干部要正确把握人生方向，用好手中权力，时刻保持清醒头脑，自觉遵守党的纪律规定。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>137</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组集体学习暨党组扩大会议举行</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2020-04-23</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2020/4/23/art_46736_9029723.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['4月22日，市政协党组理论学习中心组集体学习暨党组（扩大）会议举行。市政协党组书记、主席周桂萍主持会议并讲话，市政协党组副书记、副主席姚霆，党组成员、副主席马纯勇、程明，党组成员、秘书长杨荣和出席会议，市政协副主席徐恩虎、张庆明列席会议。', '会议传达学习了《党委（党组）落实全面从严治党主体责任规定》《中共中央办公厅关于持续解决困扰基层的形式主义问题 为决胜全面建成小康社会提供坚强作风保证的通知》；听取并研究了2020年市政协意识形态工作、市政协机关党建工作和文明单位创建工作；审议了有关人事事项。', '周桂萍强调，要提高政治站位，以实际行动做到“两个维护”；要落实《规定》要求，压实管党治党主体责任；要严守政治纪律和政治规矩，锤炼政治品格。要深入贯彻落实《通知》要求，进一步改进工作作风，坚持问题导向、目标导向，精简会议活动、压缩文件材料，改进调研视察的方式方法，让基层干部腾出更多的精力谋发展、促改革、抓落实。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>137</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组集体学习会暨党组会议召开</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.taian.gov.cn/art/2024/1/10/art_46738_10348340.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['1月5日上午，市政协党组理论学习中心组集体学习会暨党组会议召开。市政协党组书记、主席武林中主持会议并讲话。市政协党组成员、副主席张步军、倪庆宾、董彦和，市政协党组成员、秘书长杨承修出席会议。市政协副主席袁久党、孙岱峰、苏雪峰、梁望东列席会议。 会议传达学习习近平总书记在2023年12月8日中共中央政治局会议上的重要讲话精神、习近平总书记在中央经济工作会议上的重要讲话精神；传达学习习近平总书记在中共中央政治局专题民主生活会上的重要讲话精神、习近平总书记在全国政协新年茶话会上的重要讲话精神。', '武林中强调，要提高政治站位，增强政治意识，坚定信仰信念，充分发挥党组把方向、管大局、保落实的领导核心作用，坚持在市委领导下主动负责、协调一致地开展工作。要高度重视民主生活会，对照学习贯彻习近平新时代中国特色社会主义思想主题教育要求，认真撰写检视剖析材料，深入开展谈心谈话，扎实做好会前准备，确保会议高质量完成。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>137</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>市委理论学习中心组举办两学一做学习教育专题辅导报告会</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2016-09-02</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2016/9/2/art_46736_4062627.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['泰安市人民政府 今日泰安 市委理论学习中心组举办“两学一做”学习教育专题辅导报告会', '9月1日上午，市委理论学习中心组举办“两学一做”学习教育专题辅导报告会，邀请著名经济学家、国家发改委宏观经济研究院副院长、研究员马晓河，就“供给侧结构性改革理论基础与实现途径”作专题辅导。', '市委书记、市人大常委会主任王云鹏主持报告会并讲话。市委副书记、市长李希信，市政协党组书记、主席辛显明，市人大常委会第一副主任、党组书记陈刚等出席报告会。', '马晓河长期从事宏观经济分析、产业结构与产业政策、体制改革等研究，曾多次参与中央相关文件起草工作，多项研究成果获得省部级及全国性的学术奖励。报告会上，马晓河从宏观经济的发展背景入手，指出了供给侧结构性改革的重要性，深入分析了推进供给侧结构性改革需要处理的四大关系，阐明了推进供给侧结构性改革的基本思路和落实举措。报告主题鲜明、内容丰富、论述透彻、深入浅出，具有很强的思想性、指导性和针对性。', '王云鹏在讲话中指出，供给侧结构性改革，是以习近平同志为总书记的党中央在综合分析世界经济规律和我国发展阶段性特征的基础上，作出的重大理论创新，是对新常态下“怎么干”的具体要求和精准施策。省委、省政府专门研究下发了《关于深入推进供给侧结构性改革的实施意见》，对推动全省供给侧结构性改革作出了明确部署。近年来，我市在推动产业升级、补齐发展短板、厚植发展优势等方面做了大量工作，探索了一些经验，也取得了一些成效。但是，推进供给侧结构性改革的任务仍然十分繁重。我们要以这次报告会为契机，认真领会中央、省委部署要求，准确把握供给侧结构性改革的核心要义和重点任务，确保工作的正确方向。要明确工作责任，狠抓工作落实，更加坚定地把改善供给结构作为主攻方向，确保各项改革举措落到实处，为全市经济持续健康发展注入强大的内生动力。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>137</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组集体学习会暨党组扩大会议召开</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2023/6/13/art_46736_10341273.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['泰安市人民政府 今日泰安 市政协党组理论学习中心组集体学习会暨党组（扩大）会议召开', '6月12日上午，市政协党组理论学习中心组集体学习会暨党组（扩大）会议召开。市政协党组书记、主席武林中主持会议并讲话。市政协党组成员、副主席倪庆宾、董彦和，市政协党组成员、秘书长杨承修出席会议。市政协副主席袁久党、孙岱峰、苏雪峰、梁望东列席会议。', '会议传达学习了习近平总书记在文化传承发展座谈会上的重要讲话精神、习近平总书记在中共中央政治局第五次集体学习时的重要讲话精神、全国政协主席王沪宁同志在十四届全国政协新任委员学习研讨班开班式上的讲话精神和省政协主席葛慧君同志在省政协“界别同心汇”创建工作推进会上的讲话精神等；围绕有关学习内容进行研讨发言；听取了市政协党组《关于大兴调查研究的实施方案》的起草情况和市政协机关文明单位创建进展情况。', '武林中强调，要进一步提高思想认识，准确把握创建“界别同心汇”的重要意义，结合本职工作，真正建好、用好；要持续抓好调研工作，大兴调查研究之风，持续推动习近平新时代中国特色社会主义思想主题教育走深走实；要积极推进全国文明单位创建工作，对标对表，补齐短板，压实责任，强化落实抓创建。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>137</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>市人大常委会党组理论学习中心组开展三严三实学习研讨</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2015-11-13</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2015/11/13/art_46736_4063576.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['11月12日上午，市人大常委会党组理论学习中心组开展“三严三实”专题教育第三专题“严以用权”第二次学习研讨。市人大常委会第一副主任、党组书记林华勇主持会议并讲话。市人大常委会副主任刘汉玲、孙运飞、尹衍祥，秘书长张甲士参加学习研讨并作了交流发言。', '这次学习研讨分两个阶段进行。第一阶段观看了电影《王伯祥》；第二阶段，中心组成员围绕“如何谋事创业，敢于担责、为官有为”这一主题进行研讨，结合思想、工作、生活和作风实际，联系正反面典型事例，进行发言。', '会议指出，随着“三严三实”专题教育深入开展，常委会党组及机关精心组织、有力推动，专题教育进展顺利、态势良好。常委会党组及机关要严格按照中央和省委、市委的部署安排，扎扎实实地抓好专题教育，确保取得实实在在的成效。', '会议强调，要深入学习贯彻党的十八届五中全会和习近平总书记在中央政治局第二十六次集体学习时的重要讲话精神，持续查摆不严不实问题，扎实做好专题民主生活会相关准备工作，用好批评和自我批评的武器，确保开成高标准、高质量的民主生活会。要把专题教育同抓好当前人大的各项工作紧密结合起来，对照年初制定的工作要点，梳理总结好今年的各项工作，提前谋划明年的工作思路和重点任务，牢牢把握工作主动权，努力推动我市人大工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>137</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>市委统战部理论学习中心组举行主题教育第二次集体学习研讨</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2019-10-16</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/10/16/art_46736_7275113.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['10月15日，市委统战部理论学习中心组举行主题教育第二次集体学习研讨。省水利厅二级巡视员、省委第五巡回指导组副组长岳富常到会指导，市委常委、统战部长李灿玉主持学习研讨并讲话。', '市委统战部领导班子的四位同志分别领学了《习近平关于“不忘初心、牢记使命”重要论述选编》《见证初心和使命的“十一书”》《坚决彻底反对形式主义、官僚主义》的部分内容，并围绕“坚定理想信念，提升党性修养”主题，交流了学习体会。', '李灿玉要求，党员干部要做到坚定理想信念、提升党性修养，首先要加强理论学习，强化思想武装，找到初心、固守初心，明确使命、勇担使命，永葆共产党员的先进性和纯洁性。要提高政治站位，把讲政治放在第一位，始终从思想上、政治上、行动上与以习近平同志为核心的党中央保持高度一致。要把坚定理想信念体现到实际工作当中，结合思想和工作实际认真履职尽责，以永不懈怠的精神状态和一往无前的奋斗姿态，真抓实干，埋头苦干，勇做新时代泰山挑山工。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>137</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>党外人士学习重要精神</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2013-12-16</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2013/12/16/art_46736_4070906.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['日，市委统战部向市各民主党派、工商联和无党派人士通报习近平总书记视察山东时重要讲话和市委十届五次全体会议精神。市政协副主席、市委统战部部长朱永强出席并讲话。', '是全市统一战线当前的一项重要任务。各民主党派、工商联和无党派人士要深入贯彻市委十届五次全会精神，用习近平总书记视察山东时的重要讲话精神统一思想认识，充分发挥人才智力优势，在加快形成新的经济发展方式、坚持和完善多党合作和政治协商制度、推动文化大繁荣大发展、服务改善民生和参与社会管理等方面发挥更大作用，为推进富民强市、建设幸福泰安献计出力。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>137</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>市政协党组理论学习中心组开展主题教育第三次集体学习研讨</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2019-10-30</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2019/10/30/art_46736_7468916.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['10月28日，市政协党组理论学习中心组开展“不忘初心、牢记使命”主题教育第三次集体学习研讨。市政协党组书记、主席周桂萍主持学习研讨会并作总结讲话，市政协党组副书记、副主席姚霆，市政协党组成员、副主席马纯勇、程明，党组成员、秘书长魏武分别围绕研讨主题进行发言，副主席徐恩虎、张庆明列席会议。', '周桂萍要求，大家要结合主题教育的深入开展，在学习教育方面更加注重成果转化，在调查研究方面更加注重分层分类，在问题检视方面更加注重精准聚焦，在整改落实方面更加注重常态长效，推动主题教育不断往深里走、往心里走、往实里走。要科学谋划、统筹兼顾，既要扎扎实实开展好主题教育，还要协助开好市委政协工作会议，准备好政协读书班、政协全委会议，做好调研视察、提案督办等各项日常工作，确保高质量完成确定的目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>137</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>泰安市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组集体学习习近平总书记重要讲话精神</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2018-12-04</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.taian.gov.cn/art/2018/12/4/art_46736_4058178.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['泰安市人民政府 今日泰安 市政府党组理论学习中心组集体学习习近平总书记重要讲话精神', '12月3日上午，市政府党组理论学习中心组集体学习习近平总书记《在民营企业座谈会上的讲话》、习近平总书记视察山东重要讲话重要指示批示精神等文件精神。', '市委常委、常务副市长展宝卫主持会议。市政府党组成员鞠向群、成丽、赵德健、张韧出席会议。副市长袁久党列席会议。', '会议指出，习近平总书记在民营企业座谈会上的讲话，高度评价了改革开放40年来民营经济为我国发展作出的重大贡献，充分肯定了民营经济的重要地位和作用，我们必须站在政治和全局的高度，深刻认识习近平总书记重要讲话的重大意义，深刻领会民营经济的重要地位和作用，深刻领会当前民营经济发展遇到的困难和问题，深刻领会支持民营经济方面的政策措施，结合思想和工作实际，学深悟透、融会贯通，切实把思想和行动统一到重要讲话精神上来，统一到党中央、省市委各项决策部署上来，坚定不移支持民营企业发展壮大，让民营经济创新源泉充分涌流，让民营经济创造活力充分迸发，以民营经济的快速发展助推全市经济实现高质量发展。', '会议强调，习近平总书记视察山东重要讲话重要指示批示精神是做好各项工作的总遵循、总定位、总航标。我们必须把学习贯彻习近平总书记重要讲话精神作为当前和今后一个时期的重大政治任务和头等大事，深入学习、深刻领会总书记重要讲话精神，牢记总书记嘱托和教诲，焕发奋斗热情，尽心竭力工作，推动习近平总书记重要讲话精神在泰安落地生根、开花结果。']</t>
         </is>
